--- a/Code/Results/Cases/Case_2_3/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_3/res_line/loading_percent.xlsx
@@ -412,10 +412,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.95698564076208</v>
+        <v>20.95698564076205</v>
       </c>
       <c r="C2">
-        <v>13.87433363684066</v>
+        <v>13.87433363684069</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -424,22 +424,22 @@
         <v>12.36208453333711</v>
       </c>
       <c r="F2">
-        <v>31.29432954592776</v>
+        <v>31.29432954592773</v>
       </c>
       <c r="G2">
-        <v>19.5003316738494</v>
+        <v>19.50033167384946</v>
       </c>
       <c r="H2">
-        <v>16.09965460278612</v>
+        <v>16.0996546027862</v>
       </c>
       <c r="I2">
-        <v>7.786689129559968</v>
+        <v>7.786689129560082</v>
       </c>
       <c r="J2">
-        <v>18.28489811133539</v>
+        <v>18.28489811133537</v>
       </c>
       <c r="K2">
-        <v>14.70824489752277</v>
+        <v>14.70824489752281</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -450,34 +450,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.51744971123387</v>
+        <v>19.51744971123388</v>
       </c>
       <c r="C3">
-        <v>12.9238111201533</v>
+        <v>12.92381112015332</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>11.5218240572992</v>
+        <v>11.52182405729922</v>
       </c>
       <c r="F3">
-        <v>29.28457638473658</v>
+        <v>29.2845763847366</v>
       </c>
       <c r="G3">
-        <v>18.9103416437308</v>
+        <v>18.91034164373076</v>
       </c>
       <c r="H3">
-        <v>15.94521776413967</v>
+        <v>15.94521776413963</v>
       </c>
       <c r="I3">
-        <v>7.978894566177806</v>
+        <v>7.978894566177781</v>
       </c>
       <c r="J3">
-        <v>17.06624668759907</v>
+        <v>17.06624668759908</v>
       </c>
       <c r="K3">
-        <v>13.72828581139014</v>
+        <v>13.72828581139015</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -488,34 +488,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.58573957827175</v>
+        <v>18.58573957827178</v>
       </c>
       <c r="C4">
-        <v>12.31050341862623</v>
+        <v>12.31050341862621</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>10.97877270202446</v>
+        <v>10.97877270202441</v>
       </c>
       <c r="F4">
-        <v>28.0124878695268</v>
+        <v>28.01248786952675</v>
       </c>
       <c r="G4">
-        <v>18.57170253290723</v>
+        <v>18.57170253290718</v>
       </c>
       <c r="H4">
-        <v>15.87660969460663</v>
+        <v>15.87660969460656</v>
       </c>
       <c r="I4">
-        <v>8.102701854861792</v>
+        <v>8.102701854861753</v>
       </c>
       <c r="J4">
-        <v>16.27891171159542</v>
+        <v>16.27891171159544</v>
       </c>
       <c r="K4">
-        <v>13.0958434418815</v>
+        <v>13.09584344188143</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -526,34 +526,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.19388997321923</v>
+        <v>18.19388997321908</v>
       </c>
       <c r="C5">
-        <v>12.05300894754833</v>
+        <v>12.0530089475484</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>10.75058021775334</v>
+        <v>10.75058021775335</v>
       </c>
       <c r="F5">
-        <v>27.48483270498368</v>
+        <v>27.48483270498366</v>
       </c>
       <c r="G5">
-        <v>18.43957281712087</v>
+        <v>18.43957281712104</v>
       </c>
       <c r="H5">
-        <v>15.85487500377991</v>
+        <v>15.85487500378013</v>
       </c>
       <c r="I5">
-        <v>8.154537664023696</v>
+        <v>8.154537664023881</v>
       </c>
       <c r="J5">
-        <v>15.94814147135167</v>
+        <v>15.94814147135155</v>
       </c>
       <c r="K5">
-        <v>12.83031208908898</v>
+        <v>12.83031208908903</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -564,34 +564,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.12808457112846</v>
+        <v>18.12808457112845</v>
       </c>
       <c r="C6">
-        <v>12.00979237374814</v>
+        <v>12.00979237374825</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>10.71227061068993</v>
+        <v>10.71227061068986</v>
       </c>
       <c r="F6">
-        <v>27.3966676226653</v>
+        <v>27.39666762266532</v>
       </c>
       <c r="G6">
-        <v>18.41798479919865</v>
+        <v>18.41798479919857</v>
       </c>
       <c r="H6">
-        <v>15.85163090742522</v>
+        <v>15.85163090742517</v>
       </c>
       <c r="I6">
-        <v>8.163226634353322</v>
+        <v>8.163226634353174</v>
       </c>
       <c r="J6">
-        <v>15.89261528729792</v>
+        <v>15.89261528729796</v>
       </c>
       <c r="K6">
-        <v>12.78574739451091</v>
+        <v>12.78574739451092</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -602,34 +602,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.58050441754844</v>
+        <v>18.58050441754856</v>
       </c>
       <c r="C7">
-        <v>12.30706152367751</v>
+        <v>12.30706152367747</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>10.97572322620144</v>
+        <v>10.97572322620134</v>
       </c>
       <c r="F7">
-        <v>28.00540875710863</v>
+        <v>28.00540875710866</v>
       </c>
       <c r="G7">
-        <v>18.569896930267</v>
+        <v>18.56989693026691</v>
       </c>
       <c r="H7">
-        <v>15.87629186776424</v>
+        <v>15.87629186776408</v>
       </c>
       <c r="I7">
-        <v>8.103395416170953</v>
+        <v>8.10339541617093</v>
       </c>
       <c r="J7">
-        <v>16.27449113382329</v>
+        <v>16.27449113382339</v>
       </c>
       <c r="K7">
-        <v>13.09229408975066</v>
+        <v>13.09229408975059</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -640,34 +640,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.47047171001742</v>
+        <v>20.47047171001747</v>
       </c>
       <c r="C8">
-        <v>13.55268927259658</v>
+        <v>13.55268927259652</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>12.07794686406657</v>
+        <v>12.07794686406655</v>
       </c>
       <c r="F8">
-        <v>30.60942126295422</v>
+        <v>30.60942126295421</v>
       </c>
       <c r="G8">
-        <v>19.29196379222832</v>
+        <v>19.29196379222829</v>
       </c>
       <c r="H8">
-        <v>16.04074486406179</v>
+        <v>16.04074486406176</v>
       </c>
       <c r="I8">
-        <v>7.851710655762719</v>
+        <v>7.851710655762714</v>
       </c>
       <c r="J8">
         <v>17.87275410087829</v>
       </c>
       <c r="K8">
-        <v>14.37668658111206</v>
+        <v>14.37668658111201</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -678,10 +678,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.80412382583094</v>
+        <v>23.80412382583104</v>
       </c>
       <c r="C9">
-        <v>15.76501476912785</v>
+        <v>15.76501476912786</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -690,19 +690,19 @@
         <v>14.02784102117713</v>
       </c>
       <c r="F9">
-        <v>35.61512749002578</v>
+        <v>35.61512749002582</v>
       </c>
       <c r="G9">
-        <v>20.89799602496836</v>
+        <v>20.89799602496835</v>
       </c>
       <c r="H9">
-        <v>16.58713971976088</v>
+        <v>16.58713971976083</v>
       </c>
       <c r="I9">
-        <v>7.408306655243874</v>
+        <v>7.408306655243821</v>
       </c>
       <c r="J9">
-        <v>20.70206614713116</v>
+        <v>20.70206614713124</v>
       </c>
       <c r="K9">
         <v>16.65550149470954</v>
@@ -716,10 +716,10 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.03667221281469</v>
+        <v>26.03667221281468</v>
       </c>
       <c r="C10">
-        <v>17.25803892241744</v>
+        <v>17.25803892241746</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -728,22 +728,22 @@
         <v>15.33715894443016</v>
       </c>
       <c r="F10">
-        <v>39.15357437987527</v>
+        <v>39.15357437987533</v>
       </c>
       <c r="G10">
-        <v>22.19779848058988</v>
+        <v>22.19779848058986</v>
       </c>
       <c r="H10">
-        <v>17.14590477739353</v>
+        <v>17.1459047773935</v>
       </c>
       <c r="I10">
-        <v>7.120668508607059</v>
+        <v>7.120668508607077</v>
       </c>
       <c r="J10">
-        <v>22.60320465854147</v>
+        <v>22.60320465854148</v>
       </c>
       <c r="K10">
-        <v>18.19010419997104</v>
+        <v>18.19010419997106</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -754,7 +754,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.00781959975296</v>
+        <v>27.00781959975301</v>
       </c>
       <c r="C11">
         <v>17.91055153478893</v>
@@ -763,25 +763,25 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>15.90746205849679</v>
+        <v>15.90746205849678</v>
       </c>
       <c r="F11">
-        <v>40.71155244496222</v>
+        <v>40.71155244496229</v>
       </c>
       <c r="G11">
-        <v>22.81633286307192</v>
+        <v>22.81633286307191</v>
       </c>
       <c r="H11">
-        <v>17.43851026697869</v>
+        <v>17.43851026697868</v>
       </c>
       <c r="I11">
-        <v>7.000408895540722</v>
+        <v>7.000408895540771</v>
       </c>
       <c r="J11">
-        <v>23.43166942253419</v>
+        <v>23.43166942253423</v>
       </c>
       <c r="K11">
-        <v>18.85963171130747</v>
+        <v>18.85963171130748</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -792,34 +792,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.36941039444943</v>
+        <v>27.36941039444945</v>
       </c>
       <c r="C12">
-        <v>18.15399757554067</v>
+        <v>18.15399757554066</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>16.11991324956568</v>
+        <v>16.11991324956564</v>
       </c>
       <c r="F12">
-        <v>41.29444969406968</v>
+        <v>41.29444969406975</v>
       </c>
       <c r="G12">
-        <v>23.0546144798091</v>
+        <v>23.05461447980914</v>
       </c>
       <c r="H12">
-        <v>17.55517818566073</v>
+        <v>17.55517818566076</v>
       </c>
       <c r="I12">
-        <v>6.956645995667508</v>
+        <v>6.9566459956676</v>
       </c>
       <c r="J12">
         <v>23.74035922152289</v>
       </c>
       <c r="K12">
-        <v>19.10921872939533</v>
+        <v>19.1092187293953</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -830,34 +830,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.29180546703029</v>
+        <v>27.29180546703025</v>
       </c>
       <c r="C13">
-        <v>18.10172603486068</v>
+        <v>18.10172603486062</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>16.07431198838197</v>
+        <v>16.07431198838193</v>
       </c>
       <c r="F13">
-        <v>41.1692205840211</v>
+        <v>41.16922058402106</v>
       </c>
       <c r="G13">
-        <v>23.00311316348723</v>
+        <v>23.00311316348722</v>
       </c>
       <c r="H13">
-        <v>17.52978539744314</v>
+        <v>17.52978539744316</v>
       </c>
       <c r="I13">
-        <v>6.965987434227201</v>
+        <v>6.965987434227274</v>
       </c>
       <c r="J13">
-        <v>23.67409772416676</v>
+        <v>23.67409772416672</v>
       </c>
       <c r="K13">
-        <v>19.05563855361629</v>
+        <v>19.05563855361627</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -868,34 +868,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.03768997749372</v>
+        <v>27.03768997749361</v>
       </c>
       <c r="C14">
-        <v>17.93065190220132</v>
+        <v>17.93065190220123</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>15.92501010375366</v>
+        <v>15.92501010375365</v>
       </c>
       <c r="F14">
-        <v>40.75964725778421</v>
+        <v>40.75964725778405</v>
       </c>
       <c r="G14">
-        <v>22.83585418513351</v>
+        <v>22.83585418513346</v>
       </c>
       <c r="H14">
-        <v>17.44798911860369</v>
+        <v>17.44798911860371</v>
       </c>
       <c r="I14">
-        <v>6.996771226471122</v>
+        <v>6.996771226471196</v>
       </c>
       <c r="J14">
-        <v>23.45716514119245</v>
+        <v>23.45716514119236</v>
       </c>
       <c r="K14">
-        <v>18.88024353381342</v>
+        <v>18.88024353381337</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -909,13 +909,13 @@
         <v>26.88124170925156</v>
       </c>
       <c r="C15">
-        <v>17.82539518786228</v>
+        <v>17.82539518786235</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>15.83310533787156</v>
+        <v>15.83310533787153</v>
       </c>
       <c r="F15">
         <v>40.50786214515026</v>
@@ -924,16 +924,16 @@
         <v>22.73393635205714</v>
       </c>
       <c r="H15">
-        <v>17.3986603890046</v>
+        <v>17.39866038900463</v>
       </c>
       <c r="I15">
-        <v>7.015867091051573</v>
+        <v>7.015867091051599</v>
       </c>
       <c r="J15">
-        <v>23.32363867531342</v>
+        <v>23.32363867531343</v>
       </c>
       <c r="K15">
-        <v>18.7722998854936</v>
+        <v>18.77229988549357</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -944,10 +944,10 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.97233015417593</v>
+        <v>25.972330154176</v>
       </c>
       <c r="C16">
-        <v>17.21487464877865</v>
+        <v>17.21487464877863</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -956,22 +956,22 @@
         <v>15.29938972173216</v>
       </c>
       <c r="F16">
-        <v>39.05074577720112</v>
+        <v>39.05074577720114</v>
       </c>
       <c r="G16">
-        <v>22.15793484422592</v>
+        <v>22.15793484422586</v>
       </c>
       <c r="H16">
-        <v>17.12758446713167</v>
+        <v>17.1275844671316</v>
       </c>
       <c r="I16">
-        <v>7.128761297436145</v>
+        <v>7.12876129743613</v>
       </c>
       <c r="J16">
         <v>22.54834706563263</v>
       </c>
       <c r="K16">
-        <v>18.1457873189276</v>
+        <v>18.14578731892759</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -982,34 +982,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.403514305333</v>
+        <v>25.40351430533309</v>
       </c>
       <c r="C17">
-        <v>16.83363656073204</v>
+        <v>16.83363656073199</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>14.96557744539578</v>
+        <v>14.96557744539579</v>
       </c>
       <c r="F17">
-        <v>38.14384713860316</v>
+        <v>38.14384713860318</v>
       </c>
       <c r="G17">
-        <v>21.81163950299187</v>
+        <v>21.81163950299184</v>
       </c>
       <c r="H17">
-        <v>16.97137038807638</v>
+        <v>16.97137038807631</v>
       </c>
       <c r="I17">
-        <v>7.200894016313899</v>
+        <v>7.200894016313873</v>
       </c>
       <c r="J17">
-        <v>22.0635488615171</v>
+        <v>22.06354886151716</v>
       </c>
       <c r="K17">
-        <v>17.75423229589185</v>
+        <v>17.75423229589186</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1020,34 +1020,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.07214756450497</v>
+        <v>25.07214756450499</v>
       </c>
       <c r="C18">
-        <v>16.61183550591852</v>
+        <v>16.61183550591839</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>14.7711864240276</v>
+        <v>14.77118642402765</v>
       </c>
       <c r="F18">
-        <v>37.61733316222342</v>
+        <v>37.61733316222355</v>
       </c>
       <c r="G18">
-        <v>21.61501365342124</v>
+        <v>21.61501365342128</v>
       </c>
       <c r="H18">
         <v>16.88511643528926</v>
       </c>
       <c r="I18">
-        <v>7.243361234670724</v>
+        <v>7.243361234670834</v>
       </c>
       <c r="J18">
-        <v>21.78126898061309</v>
+        <v>21.7812689806131</v>
       </c>
       <c r="K18">
-        <v>17.526320300848</v>
+        <v>17.52632030084802</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1058,34 +1058,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.95922466873435</v>
+        <v>24.95922466873433</v>
       </c>
       <c r="C19">
-        <v>16.5362987464088</v>
+        <v>16.53629874640873</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>14.70495457164635</v>
+        <v>14.70495457164639</v>
       </c>
       <c r="F19">
-        <v>37.43821502595716</v>
+        <v>37.43821502595719</v>
       </c>
       <c r="G19">
-        <v>21.54887471328666</v>
+        <v>21.54887471328665</v>
       </c>
       <c r="H19">
-        <v>16.85651963671111</v>
+        <v>16.85651963671109</v>
       </c>
       <c r="I19">
-        <v>7.257901085186687</v>
+        <v>7.257901085186762</v>
       </c>
       <c r="J19">
-        <v>21.68509792081941</v>
+        <v>21.68509792081935</v>
       </c>
       <c r="K19">
-        <v>17.44868493990809</v>
+        <v>17.4486849399081</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1096,34 +1096,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.4644987001656</v>
+        <v>25.46449870016553</v>
       </c>
       <c r="C20">
-        <v>16.87447982621044</v>
+        <v>16.87447982621048</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>15.00135889857917</v>
+        <v>15.0013588985792</v>
       </c>
       <c r="F20">
         <v>38.24089177215419</v>
       </c>
       <c r="G20">
-        <v>21.84823804421861</v>
+        <v>21.84823804421863</v>
       </c>
       <c r="H20">
-        <v>16.98762498639094</v>
+        <v>16.98762498639098</v>
       </c>
       <c r="I20">
-        <v>7.193112440560011</v>
+        <v>7.193112440560062</v>
       </c>
       <c r="J20">
-        <v>22.11551078732153</v>
+        <v>22.11551078732151</v>
       </c>
       <c r="K20">
-        <v>17.79619232830537</v>
+        <v>17.79619232830539</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1134,31 +1134,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.11249512936022</v>
+        <v>27.11249512936021</v>
       </c>
       <c r="C21">
-        <v>17.98099786411776</v>
+        <v>17.9809978641177</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>15.96895785044031</v>
+        <v>15.96895785044028</v>
       </c>
       <c r="F21">
-        <v>40.88013770060817</v>
+        <v>40.88013770060807</v>
       </c>
       <c r="G21">
-        <v>22.88487078431696</v>
+        <v>22.88487078431695</v>
       </c>
       <c r="H21">
-        <v>17.47185278767194</v>
+        <v>17.47185278767197</v>
       </c>
       <c r="I21">
-        <v>6.987678749401283</v>
+        <v>6.987678749401309</v>
       </c>
       <c r="J21">
-        <v>23.52101836085382</v>
+        <v>23.52101836085381</v>
       </c>
       <c r="K21">
         <v>18.93186709246771</v>
@@ -1172,34 +1172,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.15376592332345</v>
+        <v>28.15376592332338</v>
       </c>
       <c r="C22">
-        <v>18.68302234498374</v>
+        <v>18.68302234498361</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>16.58094999302097</v>
+        <v>16.58094999302095</v>
       </c>
       <c r="F22">
-        <v>42.56401443818807</v>
+        <v>42.56401443818791</v>
       </c>
       <c r="G22">
-        <v>23.58611297533489</v>
+        <v>23.5861129753348</v>
       </c>
       <c r="H22">
-        <v>17.8226679147775</v>
+        <v>17.82266791477745</v>
       </c>
       <c r="I22">
-        <v>6.863933558142407</v>
+        <v>6.863933558142469</v>
       </c>
       <c r="J22">
-        <v>24.41037939722403</v>
+        <v>24.41037939722393</v>
       </c>
       <c r="K22">
-        <v>19.65116997997704</v>
+        <v>19.65116997997699</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1210,34 +1210,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.60121246532144</v>
+        <v>27.60121246532146</v>
       </c>
       <c r="C23">
-        <v>18.31020532222731</v>
+        <v>18.31020532222716</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>16.25613736693006</v>
+        <v>16.25613736693002</v>
       </c>
       <c r="F23">
-        <v>41.66891497225336</v>
+        <v>41.66891497225334</v>
       </c>
       <c r="G23">
-        <v>23.20961572488216</v>
+        <v>23.2096157248821</v>
       </c>
       <c r="H23">
-        <v>17.63217553636142</v>
+        <v>17.63217553636132</v>
       </c>
       <c r="I23">
-        <v>6.928916966388512</v>
+        <v>6.928916966388451</v>
       </c>
       <c r="J23">
-        <v>23.93831226775578</v>
+        <v>23.93831226775579</v>
       </c>
       <c r="K23">
-        <v>19.26930416500351</v>
+        <v>19.26930416500344</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1248,34 +1248,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.43694121207686</v>
+        <v>25.43694121207688</v>
       </c>
       <c r="C24">
-        <v>16.85602276744057</v>
+        <v>16.85602276744052</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>14.98518983130392</v>
+        <v>14.98518983130388</v>
       </c>
       <c r="F24">
-        <v>38.19703388530463</v>
+        <v>38.19703388530464</v>
       </c>
       <c r="G24">
-        <v>21.83168417879272</v>
+        <v>21.83168417879274</v>
       </c>
       <c r="H24">
         <v>16.98026523323713</v>
       </c>
       <c r="I24">
-        <v>7.196627403500358</v>
+        <v>7.196627403500289</v>
       </c>
       <c r="J24">
-        <v>22.09202991310667</v>
+        <v>22.09202991310666</v>
       </c>
       <c r="K24">
-        <v>17.77723093645204</v>
+        <v>17.777230936452</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1286,31 +1286,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.94114090880436</v>
+        <v>22.94114090880438</v>
       </c>
       <c r="C25">
-        <v>15.19040182149373</v>
+        <v>15.19040182149359</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>13.52243697440276</v>
+        <v>13.52243697440278</v>
       </c>
       <c r="F25">
-        <v>34.26425694416031</v>
+        <v>34.26425694416033</v>
       </c>
       <c r="G25">
-        <v>20.44279312344216</v>
+        <v>20.44279312344225</v>
       </c>
       <c r="H25">
-        <v>16.41315898396527</v>
+        <v>16.41315898396537</v>
       </c>
       <c r="I25">
-        <v>7.52221693198736</v>
+        <v>7.522216931987454</v>
       </c>
       <c r="J25">
-        <v>19.96850485374758</v>
+        <v>19.96850485374754</v>
       </c>
       <c r="K25">
         <v>16.06407320600322</v>

--- a/Code/Results/Cases/Case_2_3/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_3/res_line/loading_percent.xlsx
@@ -412,10 +412,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.95698564076205</v>
+        <v>20.95698564076208</v>
       </c>
       <c r="C2">
-        <v>13.87433363684069</v>
+        <v>13.87433363684066</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -424,22 +424,22 @@
         <v>12.36208453333711</v>
       </c>
       <c r="F2">
-        <v>31.29432954592773</v>
+        <v>31.29432954592776</v>
       </c>
       <c r="G2">
-        <v>19.50033167384946</v>
+        <v>19.5003316738494</v>
       </c>
       <c r="H2">
-        <v>16.0996546027862</v>
+        <v>16.09965460278612</v>
       </c>
       <c r="I2">
-        <v>7.786689129560082</v>
+        <v>7.786689129559968</v>
       </c>
       <c r="J2">
-        <v>18.28489811133537</v>
+        <v>18.28489811133539</v>
       </c>
       <c r="K2">
-        <v>14.70824489752281</v>
+        <v>14.70824489752277</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -450,34 +450,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.51744971123388</v>
+        <v>19.51744971123387</v>
       </c>
       <c r="C3">
-        <v>12.92381112015332</v>
+        <v>12.9238111201533</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>11.52182405729922</v>
+        <v>11.5218240572992</v>
       </c>
       <c r="F3">
-        <v>29.2845763847366</v>
+        <v>29.28457638473658</v>
       </c>
       <c r="G3">
-        <v>18.91034164373076</v>
+        <v>18.9103416437308</v>
       </c>
       <c r="H3">
-        <v>15.94521776413963</v>
+        <v>15.94521776413967</v>
       </c>
       <c r="I3">
-        <v>7.978894566177781</v>
+        <v>7.978894566177806</v>
       </c>
       <c r="J3">
-        <v>17.06624668759908</v>
+        <v>17.06624668759907</v>
       </c>
       <c r="K3">
-        <v>13.72828581139015</v>
+        <v>13.72828581139014</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -488,34 +488,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.58573957827178</v>
+        <v>18.58573957827175</v>
       </c>
       <c r="C4">
-        <v>12.31050341862621</v>
+        <v>12.31050341862623</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>10.97877270202441</v>
+        <v>10.97877270202446</v>
       </c>
       <c r="F4">
-        <v>28.01248786952675</v>
+        <v>28.0124878695268</v>
       </c>
       <c r="G4">
-        <v>18.57170253290718</v>
+        <v>18.57170253290723</v>
       </c>
       <c r="H4">
-        <v>15.87660969460656</v>
+        <v>15.87660969460663</v>
       </c>
       <c r="I4">
-        <v>8.102701854861753</v>
+        <v>8.102701854861792</v>
       </c>
       <c r="J4">
-        <v>16.27891171159544</v>
+        <v>16.27891171159542</v>
       </c>
       <c r="K4">
-        <v>13.09584344188143</v>
+        <v>13.0958434418815</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -526,34 +526,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.19388997321908</v>
+        <v>18.19388997321923</v>
       </c>
       <c r="C5">
-        <v>12.0530089475484</v>
+        <v>12.05300894754833</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>10.75058021775335</v>
+        <v>10.75058021775334</v>
       </c>
       <c r="F5">
-        <v>27.48483270498366</v>
+        <v>27.48483270498368</v>
       </c>
       <c r="G5">
-        <v>18.43957281712104</v>
+        <v>18.43957281712087</v>
       </c>
       <c r="H5">
-        <v>15.85487500378013</v>
+        <v>15.85487500377991</v>
       </c>
       <c r="I5">
-        <v>8.154537664023881</v>
+        <v>8.154537664023696</v>
       </c>
       <c r="J5">
-        <v>15.94814147135155</v>
+        <v>15.94814147135167</v>
       </c>
       <c r="K5">
-        <v>12.83031208908903</v>
+        <v>12.83031208908898</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -564,34 +564,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.12808457112845</v>
+        <v>18.12808457112846</v>
       </c>
       <c r="C6">
-        <v>12.00979237374825</v>
+        <v>12.00979237374814</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>10.71227061068986</v>
+        <v>10.71227061068993</v>
       </c>
       <c r="F6">
-        <v>27.39666762266532</v>
+        <v>27.3966676226653</v>
       </c>
       <c r="G6">
-        <v>18.41798479919857</v>
+        <v>18.41798479919865</v>
       </c>
       <c r="H6">
-        <v>15.85163090742517</v>
+        <v>15.85163090742522</v>
       </c>
       <c r="I6">
-        <v>8.163226634353174</v>
+        <v>8.163226634353322</v>
       </c>
       <c r="J6">
-        <v>15.89261528729796</v>
+        <v>15.89261528729792</v>
       </c>
       <c r="K6">
-        <v>12.78574739451092</v>
+        <v>12.78574739451091</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -602,34 +602,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.58050441754856</v>
+        <v>18.58050441754844</v>
       </c>
       <c r="C7">
-        <v>12.30706152367747</v>
+        <v>12.30706152367751</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>10.97572322620134</v>
+        <v>10.97572322620144</v>
       </c>
       <c r="F7">
-        <v>28.00540875710866</v>
+        <v>28.00540875710863</v>
       </c>
       <c r="G7">
-        <v>18.56989693026691</v>
+        <v>18.569896930267</v>
       </c>
       <c r="H7">
-        <v>15.87629186776408</v>
+        <v>15.87629186776424</v>
       </c>
       <c r="I7">
-        <v>8.10339541617093</v>
+        <v>8.103395416170953</v>
       </c>
       <c r="J7">
-        <v>16.27449113382339</v>
+        <v>16.27449113382329</v>
       </c>
       <c r="K7">
-        <v>13.09229408975059</v>
+        <v>13.09229408975066</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -640,34 +640,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.47047171001747</v>
+        <v>20.47047171001742</v>
       </c>
       <c r="C8">
-        <v>13.55268927259652</v>
+        <v>13.55268927259658</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>12.07794686406655</v>
+        <v>12.07794686406657</v>
       </c>
       <c r="F8">
-        <v>30.60942126295421</v>
+        <v>30.60942126295422</v>
       </c>
       <c r="G8">
-        <v>19.29196379222829</v>
+        <v>19.29196379222832</v>
       </c>
       <c r="H8">
-        <v>16.04074486406176</v>
+        <v>16.04074486406179</v>
       </c>
       <c r="I8">
-        <v>7.851710655762714</v>
+        <v>7.851710655762719</v>
       </c>
       <c r="J8">
         <v>17.87275410087829</v>
       </c>
       <c r="K8">
-        <v>14.37668658111201</v>
+        <v>14.37668658111206</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -678,10 +678,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.80412382583104</v>
+        <v>23.80412382583094</v>
       </c>
       <c r="C9">
-        <v>15.76501476912786</v>
+        <v>15.76501476912785</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -690,19 +690,19 @@
         <v>14.02784102117713</v>
       </c>
       <c r="F9">
-        <v>35.61512749002582</v>
+        <v>35.61512749002578</v>
       </c>
       <c r="G9">
-        <v>20.89799602496835</v>
+        <v>20.89799602496836</v>
       </c>
       <c r="H9">
-        <v>16.58713971976083</v>
+        <v>16.58713971976088</v>
       </c>
       <c r="I9">
-        <v>7.408306655243821</v>
+        <v>7.408306655243874</v>
       </c>
       <c r="J9">
-        <v>20.70206614713124</v>
+        <v>20.70206614713116</v>
       </c>
       <c r="K9">
         <v>16.65550149470954</v>
@@ -716,10 +716,10 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.03667221281468</v>
+        <v>26.03667221281469</v>
       </c>
       <c r="C10">
-        <v>17.25803892241746</v>
+        <v>17.25803892241744</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -728,22 +728,22 @@
         <v>15.33715894443016</v>
       </c>
       <c r="F10">
-        <v>39.15357437987533</v>
+        <v>39.15357437987527</v>
       </c>
       <c r="G10">
-        <v>22.19779848058986</v>
+        <v>22.19779848058988</v>
       </c>
       <c r="H10">
-        <v>17.1459047773935</v>
+        <v>17.14590477739353</v>
       </c>
       <c r="I10">
-        <v>7.120668508607077</v>
+        <v>7.120668508607059</v>
       </c>
       <c r="J10">
-        <v>22.60320465854148</v>
+        <v>22.60320465854147</v>
       </c>
       <c r="K10">
-        <v>18.19010419997106</v>
+        <v>18.19010419997104</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -754,7 +754,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.00781959975301</v>
+        <v>27.00781959975296</v>
       </c>
       <c r="C11">
         <v>17.91055153478893</v>
@@ -763,25 +763,25 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>15.90746205849678</v>
+        <v>15.90746205849679</v>
       </c>
       <c r="F11">
-        <v>40.71155244496229</v>
+        <v>40.71155244496222</v>
       </c>
       <c r="G11">
-        <v>22.81633286307191</v>
+        <v>22.81633286307192</v>
       </c>
       <c r="H11">
-        <v>17.43851026697868</v>
+        <v>17.43851026697869</v>
       </c>
       <c r="I11">
-        <v>7.000408895540771</v>
+        <v>7.000408895540722</v>
       </c>
       <c r="J11">
-        <v>23.43166942253423</v>
+        <v>23.43166942253419</v>
       </c>
       <c r="K11">
-        <v>18.85963171130748</v>
+        <v>18.85963171130747</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -792,34 +792,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.36941039444945</v>
+        <v>27.36941039444943</v>
       </c>
       <c r="C12">
-        <v>18.15399757554066</v>
+        <v>18.15399757554067</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>16.11991324956564</v>
+        <v>16.11991324956568</v>
       </c>
       <c r="F12">
-        <v>41.29444969406975</v>
+        <v>41.29444969406968</v>
       </c>
       <c r="G12">
-        <v>23.05461447980914</v>
+        <v>23.0546144798091</v>
       </c>
       <c r="H12">
-        <v>17.55517818566076</v>
+        <v>17.55517818566073</v>
       </c>
       <c r="I12">
-        <v>6.9566459956676</v>
+        <v>6.956645995667508</v>
       </c>
       <c r="J12">
         <v>23.74035922152289</v>
       </c>
       <c r="K12">
-        <v>19.1092187293953</v>
+        <v>19.10921872939533</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -830,34 +830,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.29180546703025</v>
+        <v>27.29180546703029</v>
       </c>
       <c r="C13">
-        <v>18.10172603486062</v>
+        <v>18.10172603486068</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>16.07431198838193</v>
+        <v>16.07431198838197</v>
       </c>
       <c r="F13">
-        <v>41.16922058402106</v>
+        <v>41.1692205840211</v>
       </c>
       <c r="G13">
-        <v>23.00311316348722</v>
+        <v>23.00311316348723</v>
       </c>
       <c r="H13">
-        <v>17.52978539744316</v>
+        <v>17.52978539744314</v>
       </c>
       <c r="I13">
-        <v>6.965987434227274</v>
+        <v>6.965987434227201</v>
       </c>
       <c r="J13">
-        <v>23.67409772416672</v>
+        <v>23.67409772416676</v>
       </c>
       <c r="K13">
-        <v>19.05563855361627</v>
+        <v>19.05563855361629</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -868,34 +868,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.03768997749361</v>
+        <v>27.03768997749372</v>
       </c>
       <c r="C14">
-        <v>17.93065190220123</v>
+        <v>17.93065190220132</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>15.92501010375365</v>
+        <v>15.92501010375366</v>
       </c>
       <c r="F14">
-        <v>40.75964725778405</v>
+        <v>40.75964725778421</v>
       </c>
       <c r="G14">
-        <v>22.83585418513346</v>
+        <v>22.83585418513351</v>
       </c>
       <c r="H14">
-        <v>17.44798911860371</v>
+        <v>17.44798911860369</v>
       </c>
       <c r="I14">
-        <v>6.996771226471196</v>
+        <v>6.996771226471122</v>
       </c>
       <c r="J14">
-        <v>23.45716514119236</v>
+        <v>23.45716514119245</v>
       </c>
       <c r="K14">
-        <v>18.88024353381337</v>
+        <v>18.88024353381342</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -909,13 +909,13 @@
         <v>26.88124170925156</v>
       </c>
       <c r="C15">
-        <v>17.82539518786235</v>
+        <v>17.82539518786228</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>15.83310533787153</v>
+        <v>15.83310533787156</v>
       </c>
       <c r="F15">
         <v>40.50786214515026</v>
@@ -924,16 +924,16 @@
         <v>22.73393635205714</v>
       </c>
       <c r="H15">
-        <v>17.39866038900463</v>
+        <v>17.3986603890046</v>
       </c>
       <c r="I15">
-        <v>7.015867091051599</v>
+        <v>7.015867091051573</v>
       </c>
       <c r="J15">
-        <v>23.32363867531343</v>
+        <v>23.32363867531342</v>
       </c>
       <c r="K15">
-        <v>18.77229988549357</v>
+        <v>18.7722998854936</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -944,10 +944,10 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.972330154176</v>
+        <v>25.97233015417593</v>
       </c>
       <c r="C16">
-        <v>17.21487464877863</v>
+        <v>17.21487464877865</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -956,22 +956,22 @@
         <v>15.29938972173216</v>
       </c>
       <c r="F16">
-        <v>39.05074577720114</v>
+        <v>39.05074577720112</v>
       </c>
       <c r="G16">
-        <v>22.15793484422586</v>
+        <v>22.15793484422592</v>
       </c>
       <c r="H16">
-        <v>17.1275844671316</v>
+        <v>17.12758446713167</v>
       </c>
       <c r="I16">
-        <v>7.12876129743613</v>
+        <v>7.128761297436145</v>
       </c>
       <c r="J16">
         <v>22.54834706563263</v>
       </c>
       <c r="K16">
-        <v>18.14578731892759</v>
+        <v>18.1457873189276</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -982,34 +982,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.40351430533309</v>
+        <v>25.403514305333</v>
       </c>
       <c r="C17">
-        <v>16.83363656073199</v>
+        <v>16.83363656073204</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>14.96557744539579</v>
+        <v>14.96557744539578</v>
       </c>
       <c r="F17">
-        <v>38.14384713860318</v>
+        <v>38.14384713860316</v>
       </c>
       <c r="G17">
-        <v>21.81163950299184</v>
+        <v>21.81163950299187</v>
       </c>
       <c r="H17">
-        <v>16.97137038807631</v>
+        <v>16.97137038807638</v>
       </c>
       <c r="I17">
-        <v>7.200894016313873</v>
+        <v>7.200894016313899</v>
       </c>
       <c r="J17">
-        <v>22.06354886151716</v>
+        <v>22.0635488615171</v>
       </c>
       <c r="K17">
-        <v>17.75423229589186</v>
+        <v>17.75423229589185</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1020,34 +1020,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.07214756450499</v>
+        <v>25.07214756450497</v>
       </c>
       <c r="C18">
-        <v>16.61183550591839</v>
+        <v>16.61183550591852</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>14.77118642402765</v>
+        <v>14.7711864240276</v>
       </c>
       <c r="F18">
-        <v>37.61733316222355</v>
+        <v>37.61733316222342</v>
       </c>
       <c r="G18">
-        <v>21.61501365342128</v>
+        <v>21.61501365342124</v>
       </c>
       <c r="H18">
         <v>16.88511643528926</v>
       </c>
       <c r="I18">
-        <v>7.243361234670834</v>
+        <v>7.243361234670724</v>
       </c>
       <c r="J18">
-        <v>21.7812689806131</v>
+        <v>21.78126898061309</v>
       </c>
       <c r="K18">
-        <v>17.52632030084802</v>
+        <v>17.526320300848</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1058,34 +1058,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.95922466873433</v>
+        <v>24.95922466873435</v>
       </c>
       <c r="C19">
-        <v>16.53629874640873</v>
+        <v>16.5362987464088</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>14.70495457164639</v>
+        <v>14.70495457164635</v>
       </c>
       <c r="F19">
-        <v>37.43821502595719</v>
+        <v>37.43821502595716</v>
       </c>
       <c r="G19">
-        <v>21.54887471328665</v>
+        <v>21.54887471328666</v>
       </c>
       <c r="H19">
-        <v>16.85651963671109</v>
+        <v>16.85651963671111</v>
       </c>
       <c r="I19">
-        <v>7.257901085186762</v>
+        <v>7.257901085186687</v>
       </c>
       <c r="J19">
-        <v>21.68509792081935</v>
+        <v>21.68509792081941</v>
       </c>
       <c r="K19">
-        <v>17.4486849399081</v>
+        <v>17.44868493990809</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1096,34 +1096,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.46449870016553</v>
+        <v>25.4644987001656</v>
       </c>
       <c r="C20">
-        <v>16.87447982621048</v>
+        <v>16.87447982621044</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>15.0013588985792</v>
+        <v>15.00135889857917</v>
       </c>
       <c r="F20">
         <v>38.24089177215419</v>
       </c>
       <c r="G20">
-        <v>21.84823804421863</v>
+        <v>21.84823804421861</v>
       </c>
       <c r="H20">
-        <v>16.98762498639098</v>
+        <v>16.98762498639094</v>
       </c>
       <c r="I20">
-        <v>7.193112440560062</v>
+        <v>7.193112440560011</v>
       </c>
       <c r="J20">
-        <v>22.11551078732151</v>
+        <v>22.11551078732153</v>
       </c>
       <c r="K20">
-        <v>17.79619232830539</v>
+        <v>17.79619232830537</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1134,31 +1134,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.11249512936021</v>
+        <v>27.11249512936022</v>
       </c>
       <c r="C21">
-        <v>17.9809978641177</v>
+        <v>17.98099786411776</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>15.96895785044028</v>
+        <v>15.96895785044031</v>
       </c>
       <c r="F21">
-        <v>40.88013770060807</v>
+        <v>40.88013770060817</v>
       </c>
       <c r="G21">
-        <v>22.88487078431695</v>
+        <v>22.88487078431696</v>
       </c>
       <c r="H21">
-        <v>17.47185278767197</v>
+        <v>17.47185278767194</v>
       </c>
       <c r="I21">
-        <v>6.987678749401309</v>
+        <v>6.987678749401283</v>
       </c>
       <c r="J21">
-        <v>23.52101836085381</v>
+        <v>23.52101836085382</v>
       </c>
       <c r="K21">
         <v>18.93186709246771</v>
@@ -1172,34 +1172,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.15376592332338</v>
+        <v>28.15376592332345</v>
       </c>
       <c r="C22">
-        <v>18.68302234498361</v>
+        <v>18.68302234498374</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>16.58094999302095</v>
+        <v>16.58094999302097</v>
       </c>
       <c r="F22">
-        <v>42.56401443818791</v>
+        <v>42.56401443818807</v>
       </c>
       <c r="G22">
-        <v>23.5861129753348</v>
+        <v>23.58611297533489</v>
       </c>
       <c r="H22">
-        <v>17.82266791477745</v>
+        <v>17.8226679147775</v>
       </c>
       <c r="I22">
-        <v>6.863933558142469</v>
+        <v>6.863933558142407</v>
       </c>
       <c r="J22">
-        <v>24.41037939722393</v>
+        <v>24.41037939722403</v>
       </c>
       <c r="K22">
-        <v>19.65116997997699</v>
+        <v>19.65116997997704</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1210,34 +1210,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.60121246532146</v>
+        <v>27.60121246532144</v>
       </c>
       <c r="C23">
-        <v>18.31020532222716</v>
+        <v>18.31020532222731</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>16.25613736693002</v>
+        <v>16.25613736693006</v>
       </c>
       <c r="F23">
-        <v>41.66891497225334</v>
+        <v>41.66891497225336</v>
       </c>
       <c r="G23">
-        <v>23.2096157248821</v>
+        <v>23.20961572488216</v>
       </c>
       <c r="H23">
-        <v>17.63217553636132</v>
+        <v>17.63217553636142</v>
       </c>
       <c r="I23">
-        <v>6.928916966388451</v>
+        <v>6.928916966388512</v>
       </c>
       <c r="J23">
-        <v>23.93831226775579</v>
+        <v>23.93831226775578</v>
       </c>
       <c r="K23">
-        <v>19.26930416500344</v>
+        <v>19.26930416500351</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1248,34 +1248,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.43694121207688</v>
+        <v>25.43694121207686</v>
       </c>
       <c r="C24">
-        <v>16.85602276744052</v>
+        <v>16.85602276744057</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>14.98518983130388</v>
+        <v>14.98518983130392</v>
       </c>
       <c r="F24">
-        <v>38.19703388530464</v>
+        <v>38.19703388530463</v>
       </c>
       <c r="G24">
-        <v>21.83168417879274</v>
+        <v>21.83168417879272</v>
       </c>
       <c r="H24">
         <v>16.98026523323713</v>
       </c>
       <c r="I24">
-        <v>7.196627403500289</v>
+        <v>7.196627403500358</v>
       </c>
       <c r="J24">
-        <v>22.09202991310666</v>
+        <v>22.09202991310667</v>
       </c>
       <c r="K24">
-        <v>17.777230936452</v>
+        <v>17.77723093645204</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1286,31 +1286,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.94114090880438</v>
+        <v>22.94114090880436</v>
       </c>
       <c r="C25">
-        <v>15.19040182149359</v>
+        <v>15.19040182149373</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>13.52243697440278</v>
+        <v>13.52243697440276</v>
       </c>
       <c r="F25">
-        <v>34.26425694416033</v>
+        <v>34.26425694416031</v>
       </c>
       <c r="G25">
-        <v>20.44279312344225</v>
+        <v>20.44279312344216</v>
       </c>
       <c r="H25">
-        <v>16.41315898396537</v>
+        <v>16.41315898396527</v>
       </c>
       <c r="I25">
-        <v>7.522216931987454</v>
+        <v>7.52221693198736</v>
       </c>
       <c r="J25">
-        <v>19.96850485374754</v>
+        <v>19.96850485374758</v>
       </c>
       <c r="K25">
         <v>16.06407320600322</v>

--- a/Code/Results/Cases/Case_2_3/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_3/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,916 +406,991 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.95698564076208</v>
+        <v>20.95704314775987</v>
       </c>
       <c r="C2">
-        <v>13.87433363684066</v>
+        <v>13.87005441578273</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>12.36208453333711</v>
+        <v>12.36716298904438</v>
       </c>
       <c r="F2">
-        <v>31.29432954592776</v>
+        <v>31.28556163470815</v>
       </c>
       <c r="G2">
-        <v>19.5003316738494</v>
+        <v>18.04442166123195</v>
       </c>
       <c r="H2">
-        <v>16.09965460278612</v>
+        <v>19.52711539758341</v>
       </c>
       <c r="I2">
-        <v>7.786689129559968</v>
+        <v>16.08531910462323</v>
       </c>
       <c r="J2">
-        <v>18.28489811133539</v>
+        <v>7.782779660438617</v>
       </c>
       <c r="K2">
-        <v>14.70824489752277</v>
+        <v>18.28353582427941</v>
       </c>
       <c r="L2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>14.71070397609169</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.51744971123387</v>
+        <v>19.5176441681214</v>
       </c>
       <c r="C3">
-        <v>12.9238111201533</v>
+        <v>12.91997977534328</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>11.5218240572992</v>
+        <v>11.52654848660345</v>
       </c>
       <c r="F3">
-        <v>29.28457638473658</v>
+        <v>29.2763181350073</v>
       </c>
       <c r="G3">
-        <v>18.9103416437308</v>
+        <v>17.1773240302056</v>
       </c>
       <c r="H3">
-        <v>15.94521776413967</v>
+        <v>18.936671012524</v>
       </c>
       <c r="I3">
-        <v>7.978894566177806</v>
+        <v>15.93202086392221</v>
       </c>
       <c r="J3">
-        <v>17.06624668759907</v>
+        <v>7.975202815421885</v>
       </c>
       <c r="K3">
-        <v>13.72828581139014</v>
+        <v>17.06513724030405</v>
       </c>
       <c r="L3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>13.73061243847209</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.58573957827175</v>
+        <v>18.58601534895854</v>
       </c>
       <c r="C4">
-        <v>12.31050341862623</v>
+        <v>12.30695746468181</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>10.97877270202446</v>
+        <v>10.98326424376784</v>
       </c>
       <c r="F4">
-        <v>28.0124878695268</v>
+        <v>28.00455037358779</v>
       </c>
       <c r="G4">
-        <v>18.57170253290723</v>
+        <v>16.65691937119554</v>
       </c>
       <c r="H4">
-        <v>15.87660969460663</v>
+        <v>18.59783218905438</v>
       </c>
       <c r="I4">
-        <v>8.102701854861792</v>
+        <v>15.86412022737068</v>
       </c>
       <c r="J4">
-        <v>16.27891171159542</v>
+        <v>8.099129302248578</v>
       </c>
       <c r="K4">
-        <v>13.0958434418815</v>
+        <v>16.2779613101986</v>
       </c>
       <c r="L4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>13.09807980372244</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.19388997321923</v>
+        <v>18.1941983612489</v>
       </c>
       <c r="C5">
-        <v>12.05300894754833</v>
+        <v>12.0495821787985</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>10.75058021775334</v>
+        <v>10.75497288778699</v>
       </c>
       <c r="F5">
-        <v>27.48483270498368</v>
+        <v>27.47702804345448</v>
       </c>
       <c r="G5">
-        <v>18.43957281712087</v>
+        <v>16.44806163576387</v>
       </c>
       <c r="H5">
-        <v>15.85487500377991</v>
+        <v>18.46564054422197</v>
       </c>
       <c r="I5">
-        <v>8.154537664023696</v>
+        <v>15.84267524963023</v>
       </c>
       <c r="J5">
-        <v>15.94814147135167</v>
+        <v>8.151010533535983</v>
       </c>
       <c r="K5">
-        <v>12.83031208908898</v>
+        <v>15.94725708062765</v>
       </c>
       <c r="L5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>12.83250944910423</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.12808457112846</v>
+        <v>18.12839834905694</v>
       </c>
       <c r="C6">
-        <v>12.00979237374814</v>
+        <v>12.0063855780984</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>10.71227061068993</v>
+        <v>10.71664662119179</v>
       </c>
       <c r="F6">
-        <v>27.3966676226653</v>
+        <v>27.38888515070088</v>
       </c>
       <c r="G6">
-        <v>18.41798479919865</v>
+        <v>16.4135811028569</v>
       </c>
       <c r="H6">
-        <v>15.85163090742522</v>
+        <v>18.44404340122191</v>
       </c>
       <c r="I6">
-        <v>8.163226634353322</v>
+        <v>15.83947932787609</v>
       </c>
       <c r="J6">
-        <v>15.89261528729792</v>
+        <v>8.159706869104733</v>
       </c>
       <c r="K6">
-        <v>12.78574739451091</v>
+        <v>15.89174193721709</v>
       </c>
       <c r="L6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>12.78793814500232</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.58050441754844</v>
+        <v>18.58078062999139</v>
       </c>
       <c r="C7">
-        <v>12.30706152367751</v>
+        <v>12.30351716505309</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>10.97572322620144</v>
+        <v>10.98021345069429</v>
       </c>
       <c r="F7">
-        <v>28.00540875710863</v>
+        <v>27.9974730438259</v>
       </c>
       <c r="G7">
-        <v>18.569896930267</v>
+        <v>16.65408936362825</v>
       </c>
       <c r="H7">
-        <v>15.87629186776424</v>
+        <v>18.59602567318298</v>
       </c>
       <c r="I7">
-        <v>8.103395416170953</v>
+        <v>15.86380630275435</v>
       </c>
       <c r="J7">
-        <v>16.27449113382329</v>
+        <v>8.099823488290889</v>
       </c>
       <c r="K7">
-        <v>13.09229408975066</v>
+        <v>16.2735416174918</v>
       </c>
       <c r="L7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>13.09452993454862</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.47047171001742</v>
+        <v>20.47057712273286</v>
       </c>
       <c r="C8">
-        <v>13.55268927259658</v>
+        <v>13.54856248401871</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>12.07794686406657</v>
+        <v>12.08290643610862</v>
       </c>
       <c r="F8">
-        <v>30.60942126295422</v>
+        <v>30.60082756307089</v>
       </c>
       <c r="G8">
-        <v>19.29196379222832</v>
+        <v>17.74306390468774</v>
       </c>
       <c r="H8">
-        <v>16.04074486406179</v>
+        <v>19.31857416385246</v>
       </c>
       <c r="I8">
-        <v>7.851710655762719</v>
+        <v>16.02679980973732</v>
       </c>
       <c r="J8">
-        <v>17.87275410087829</v>
+        <v>7.84787957326572</v>
       </c>
       <c r="K8">
-        <v>14.37668658111206</v>
+        <v>17.87147834798134</v>
       </c>
       <c r="L8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>14.37910186728232</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.80412382583094</v>
+        <v>23.80386378667771</v>
       </c>
       <c r="C9">
-        <v>15.76501476912785</v>
+        <v>15.75981626342003</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>14.02784102117713</v>
+        <v>14.03360006262134</v>
       </c>
       <c r="F9">
-        <v>35.61512749002578</v>
+        <v>35.6052855827158</v>
       </c>
       <c r="G9">
-        <v>20.89799602496836</v>
+        <v>19.96711331855498</v>
       </c>
       <c r="H9">
-        <v>16.58713971976088</v>
+        <v>20.92619343535095</v>
       </c>
       <c r="I9">
-        <v>7.408306655243874</v>
+        <v>16.57043009706898</v>
       </c>
       <c r="J9">
-        <v>20.70206614713116</v>
+        <v>7.403827400523394</v>
       </c>
       <c r="K9">
-        <v>16.65550149470954</v>
+        <v>20.70017008453678</v>
       </c>
       <c r="L9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>16.65819576313563</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.03667221281469</v>
+        <v>26.0361121043886</v>
       </c>
       <c r="C10">
-        <v>17.25803892241744</v>
+        <v>17.25207883266019</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>15.33715894443016</v>
+        <v>15.34343358885163</v>
       </c>
       <c r="F10">
-        <v>39.15357437987527</v>
+        <v>39.14282640165851</v>
       </c>
       <c r="G10">
-        <v>22.19779848058988</v>
+        <v>21.64998978699236</v>
       </c>
       <c r="H10">
-        <v>17.14590477739353</v>
+        <v>22.22756312670947</v>
       </c>
       <c r="I10">
-        <v>7.120668508607059</v>
+        <v>17.127265336208</v>
       </c>
       <c r="J10">
-        <v>22.60320465854147</v>
+        <v>7.115588082126534</v>
       </c>
       <c r="K10">
-        <v>18.19010419997104</v>
+        <v>22.60084940801357</v>
       </c>
       <c r="L10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>18.19295523454505</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.00781959975296</v>
+        <v>27.00711278327977</v>
       </c>
       <c r="C11">
-        <v>17.91055153478893</v>
+        <v>17.9042464826955</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>15.90746205849679</v>
+        <v>15.91395582240687</v>
       </c>
       <c r="F11">
-        <v>40.71155244496222</v>
+        <v>40.70039151815979</v>
       </c>
       <c r="G11">
-        <v>22.81633286307192</v>
+        <v>22.42633867776308</v>
       </c>
       <c r="H11">
-        <v>17.43851026697869</v>
+        <v>22.84689760306101</v>
       </c>
       <c r="I11">
-        <v>7.000408895540722</v>
+        <v>17.41902263007583</v>
       </c>
       <c r="J11">
-        <v>23.43166942253419</v>
+        <v>6.995017705158715</v>
       </c>
       <c r="K11">
-        <v>18.85963171130747</v>
+        <v>23.42910084635341</v>
       </c>
       <c r="L11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>18.86254242646093</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.36941039444943</v>
+        <v>27.36864622653118</v>
       </c>
       <c r="C12">
-        <v>18.15399757554067</v>
+        <v>18.14756172217723</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>16.11991324956568</v>
+        <v>16.12648776198218</v>
       </c>
       <c r="F12">
-        <v>41.29444969406968</v>
+        <v>41.28313185376481</v>
       </c>
       <c r="G12">
-        <v>23.0546144798091</v>
+        <v>22.72197873110458</v>
       </c>
       <c r="H12">
-        <v>17.55517818566073</v>
+        <v>23.08549463478756</v>
       </c>
       <c r="I12">
-        <v>6.956645995667508</v>
+        <v>17.53537410409828</v>
       </c>
       <c r="J12">
-        <v>23.74035922152289</v>
+        <v>6.951130821764659</v>
       </c>
       <c r="K12">
-        <v>19.10921872939533</v>
+        <v>23.73770887737805</v>
       </c>
       <c r="L12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>19.11215024380077</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.29180546703029</v>
+        <v>27.29105373645827</v>
       </c>
       <c r="C13">
-        <v>18.10172603486068</v>
+        <v>18.09531836619361</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>16.07431198838197</v>
+        <v>16.08086920951812</v>
       </c>
       <c r="F13">
-        <v>41.1692205840211</v>
+        <v>41.15793656957874</v>
       </c>
       <c r="G13">
-        <v>23.00311316348723</v>
+        <v>22.65823137193198</v>
       </c>
       <c r="H13">
-        <v>17.52978539744314</v>
+        <v>23.03392483695793</v>
       </c>
       <c r="I13">
-        <v>6.965987434227201</v>
+        <v>17.51004925088736</v>
       </c>
       <c r="J13">
-        <v>23.67409772416676</v>
+        <v>6.960499258517558</v>
       </c>
       <c r="K13">
-        <v>19.05563855361629</v>
+        <v>23.67146504011666</v>
       </c>
       <c r="L13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>19.05856567094417</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.03768997749372</v>
+        <v>27.03697848075131</v>
       </c>
       <c r="C14">
-        <v>17.93065190220132</v>
+        <v>17.92433609483091</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>15.92501010375366</v>
+        <v>15.93151055563204</v>
       </c>
       <c r="F14">
-        <v>40.75964725778421</v>
+        <v>40.74847343517906</v>
       </c>
       <c r="G14">
-        <v>22.83585418513351</v>
+        <v>22.45062716757719</v>
       </c>
       <c r="H14">
-        <v>17.44798911860369</v>
+        <v>22.86644462592046</v>
       </c>
       <c r="I14">
-        <v>6.996771226471122</v>
+        <v>17.42847535029378</v>
       </c>
       <c r="J14">
-        <v>23.45716514119245</v>
+        <v>6.991369967881147</v>
       </c>
       <c r="K14">
-        <v>18.88024353381342</v>
+        <v>23.45458985983416</v>
       </c>
       <c r="L14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>18.88315599704991</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.88124170925156</v>
+        <v>26.88055461232431</v>
       </c>
       <c r="C15">
-        <v>17.82539518786228</v>
+        <v>17.81913561357378</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>15.83310533787156</v>
+        <v>15.83957072637642</v>
       </c>
       <c r="F15">
-        <v>40.50786214515026</v>
+        <v>40.49675573385439</v>
       </c>
       <c r="G15">
-        <v>22.73393635205714</v>
+        <v>22.3236832609289</v>
       </c>
       <c r="H15">
-        <v>17.3986603890046</v>
+        <v>22.76439289764541</v>
       </c>
       <c r="I15">
-        <v>7.015867091051573</v>
+        <v>17.37928346357635</v>
       </c>
       <c r="J15">
-        <v>23.32363867531342</v>
+        <v>7.010518221554213</v>
       </c>
       <c r="K15">
-        <v>18.7722998854936</v>
+        <v>23.32109841522486</v>
       </c>
       <c r="L15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>18.77520313393361</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.97233015417593</v>
+        <v>25.97177940114149</v>
       </c>
       <c r="C16">
-        <v>17.21487464877865</v>
+        <v>17.20893710118248</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>15.29938972173216</v>
+        <v>15.30564973529538</v>
       </c>
       <c r="F16">
-        <v>39.05074577720112</v>
+        <v>39.04002473599285</v>
       </c>
       <c r="G16">
-        <v>22.15793484422592</v>
+        <v>21.59947772110114</v>
       </c>
       <c r="H16">
-        <v>17.12758446713167</v>
+        <v>22.18764894874735</v>
       </c>
       <c r="I16">
-        <v>7.128761297436145</v>
+        <v>17.1090010996218</v>
       </c>
       <c r="J16">
-        <v>22.54834706563263</v>
+        <v>7.123700350941337</v>
       </c>
       <c r="K16">
-        <v>18.1457873189276</v>
+        <v>22.54600563838878</v>
       </c>
       <c r="L16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>18.14863420885358</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.403514305333</v>
+        <v>25.40304436248181</v>
       </c>
       <c r="C17">
-        <v>16.83363656073204</v>
+        <v>16.82789668722431</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>14.96557744539578</v>
+        <v>14.97170751455374</v>
       </c>
       <c r="F17">
-        <v>38.14384713860316</v>
+        <v>38.13336203381806</v>
       </c>
       <c r="G17">
-        <v>21.81163950299187</v>
+        <v>21.15801460570339</v>
       </c>
       <c r="H17">
-        <v>16.97137038807638</v>
+        <v>21.8409204104985</v>
       </c>
       <c r="I17">
-        <v>7.200894016313899</v>
+        <v>16.95328183753564</v>
       </c>
       <c r="J17">
-        <v>22.0635488615171</v>
+        <v>7.195999504568482</v>
       </c>
       <c r="K17">
-        <v>17.75423229589185</v>
+        <v>22.06132804093625</v>
       </c>
       <c r="L17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>17.7570415497347</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.07214756450497</v>
+        <v>25.07172316333151</v>
       </c>
       <c r="C18">
-        <v>16.61183550591852</v>
+        <v>16.60620949471993</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>14.7711864240276</v>
+        <v>14.77724030153717</v>
       </c>
       <c r="F18">
-        <v>37.61733316222342</v>
+        <v>37.60698371946706</v>
       </c>
       <c r="G18">
-        <v>21.61501365342124</v>
+        <v>20.90510265379563</v>
       </c>
       <c r="H18">
-        <v>16.88511643528926</v>
+        <v>21.64405360953253</v>
       </c>
       <c r="I18">
-        <v>7.243361234670724</v>
+        <v>16.86731526470946</v>
       </c>
       <c r="J18">
-        <v>21.78126898061309</v>
+        <v>7.238559003516595</v>
       </c>
       <c r="K18">
-        <v>17.526320300848</v>
+        <v>21.77911713510965</v>
       </c>
       <c r="L18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>17.5291068215761</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.95922466873435</v>
+        <v>24.9588155352737</v>
       </c>
       <c r="C19">
-        <v>16.5362987464088</v>
+        <v>16.53071132641373</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>14.70495457164635</v>
+        <v>14.7109824027673</v>
       </c>
       <c r="F19">
-        <v>37.43821502595716</v>
+        <v>37.42791152040976</v>
       </c>
       <c r="G19">
-        <v>21.54887471328666</v>
+        <v>20.81964197389221</v>
       </c>
       <c r="H19">
-        <v>16.85651963671111</v>
+        <v>21.57783450010676</v>
       </c>
       <c r="I19">
-        <v>7.257901085186687</v>
+        <v>16.83881622732228</v>
       </c>
       <c r="J19">
-        <v>21.68509792081941</v>
+        <v>7.253129533882158</v>
       </c>
       <c r="K19">
-        <v>17.44868493990809</v>
+        <v>21.68296937119703</v>
       </c>
       <c r="L19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>17.45146358055498</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.4644987001656</v>
+        <v>25.46402025425542</v>
       </c>
       <c r="C20">
-        <v>16.87447982621044</v>
+        <v>16.86871889547799</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>15.00135889857917</v>
+        <v>15.00750295073365</v>
       </c>
       <c r="F20">
-        <v>38.24089177215419</v>
+        <v>38.23038155874331</v>
       </c>
       <c r="G20">
-        <v>21.84823804421861</v>
+        <v>21.20490451257556</v>
       </c>
       <c r="H20">
-        <v>16.98762498639094</v>
+        <v>21.87756421694133</v>
       </c>
       <c r="I20">
-        <v>7.193112440560011</v>
+        <v>16.96948347061308</v>
       </c>
       <c r="J20">
-        <v>22.11551078732153</v>
+        <v>7.188200575022963</v>
       </c>
       <c r="K20">
-        <v>17.79619232830537</v>
+        <v>22.11327717118228</v>
       </c>
       <c r="L20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>17.79900570179135</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.11249512936022</v>
+        <v>27.1117718665961</v>
       </c>
       <c r="C21">
-        <v>17.98099786411776</v>
+        <v>17.9746550828315</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>15.96895785044031</v>
+        <v>15.97547503741561</v>
       </c>
       <c r="F21">
-        <v>40.88013770060817</v>
+        <v>40.86893153046368</v>
       </c>
       <c r="G21">
-        <v>22.88487078431696</v>
+        <v>22.51155948647675</v>
       </c>
       <c r="H21">
-        <v>17.47185278767194</v>
+        <v>22.9155258699039</v>
       </c>
       <c r="I21">
-        <v>6.987678749401283</v>
+        <v>17.45227356962208</v>
       </c>
       <c r="J21">
-        <v>23.52101836085382</v>
+        <v>6.982252140096165</v>
       </c>
       <c r="K21">
-        <v>18.93186709246771</v>
+        <v>23.51842624870091</v>
       </c>
       <c r="L21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>18.93478390998823</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.15376592332345</v>
+        <v>28.15287199608262</v>
       </c>
       <c r="C22">
-        <v>18.68302234498374</v>
+        <v>18.67629807350049</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>16.58094999302097</v>
+        <v>16.58769804767728</v>
       </c>
       <c r="F22">
-        <v>42.56401443818807</v>
+        <v>42.55235001355413</v>
       </c>
       <c r="G22">
-        <v>23.58611297533489</v>
+        <v>23.41570825977704</v>
       </c>
       <c r="H22">
-        <v>17.8226679147775</v>
+        <v>23.61770900947823</v>
       </c>
       <c r="I22">
-        <v>6.863933558142407</v>
+        <v>17.80217684760042</v>
       </c>
       <c r="J22">
-        <v>24.41037939722403</v>
+        <v>6.858133305783301</v>
       </c>
       <c r="K22">
-        <v>19.65116997997704</v>
+        <v>24.40754704171065</v>
       </c>
       <c r="L22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>19.65414382888409</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.60121246532144</v>
+        <v>27.6004107233258</v>
       </c>
       <c r="C23">
-        <v>18.31020532222731</v>
+        <v>18.30368491160761</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>16.25613736693006</v>
+        <v>16.26276339924689</v>
       </c>
       <c r="F23">
-        <v>41.66891497225336</v>
+        <v>41.65749560372318</v>
       </c>
       <c r="G23">
-        <v>23.20961572488216</v>
+        <v>22.91863317375353</v>
       </c>
       <c r="H23">
-        <v>17.63217553636142</v>
+        <v>23.24070296942535</v>
       </c>
       <c r="I23">
-        <v>6.928916966388512</v>
+        <v>17.61216848642362</v>
       </c>
       <c r="J23">
-        <v>23.93831226775578</v>
+        <v>6.923319869548051</v>
       </c>
       <c r="K23">
-        <v>19.26930416500351</v>
+        <v>23.93560880631806</v>
       </c>
       <c r="L23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>19.27224859263813</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.43694121207686</v>
+        <v>25.43646661323235</v>
       </c>
       <c r="C24">
-        <v>16.85602276744057</v>
+        <v>16.85027135597548</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>14.98518983130392</v>
+        <v>14.99132756637047</v>
       </c>
       <c r="F24">
-        <v>38.19703388530463</v>
+        <v>38.18653502341291</v>
       </c>
       <c r="G24">
-        <v>21.83168417879272</v>
+        <v>21.18370281674527</v>
       </c>
       <c r="H24">
-        <v>16.98026523323713</v>
+        <v>21.86098986187897</v>
       </c>
       <c r="I24">
-        <v>7.196627403500358</v>
+        <v>16.96214765403892</v>
       </c>
       <c r="J24">
-        <v>22.09202991310667</v>
+        <v>7.191723394147479</v>
       </c>
       <c r="K24">
-        <v>17.77723093645204</v>
+        <v>22.0898020829453</v>
       </c>
       <c r="L24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>17.78004245085081</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.94114090880436</v>
+        <v>22.94098425755836</v>
       </c>
       <c r="C25">
-        <v>15.19040182149373</v>
+        <v>15.18548741868343</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>13.52243697440276</v>
+        <v>13.52799243247814</v>
       </c>
       <c r="F25">
-        <v>34.26425694416031</v>
+        <v>34.25475042005006</v>
       </c>
       <c r="G25">
-        <v>20.44279312344216</v>
+        <v>19.35669954927083</v>
       </c>
       <c r="H25">
-        <v>16.41315898396527</v>
+        <v>20.47049099054733</v>
       </c>
       <c r="I25">
-        <v>7.52221693198736</v>
+        <v>16.39718237679579</v>
       </c>
       <c r="J25">
-        <v>19.96850485374758</v>
+        <v>7.517931812867628</v>
       </c>
       <c r="K25">
-        <v>16.06407320600322</v>
+        <v>19.96677604904844</v>
       </c>
       <c r="L25">
+        <v>16.06670013686304</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_2_3/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_3/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,988 +409,1138 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.95704314775987</v>
+        <v>23.44353736629144</v>
       </c>
       <c r="C2">
-        <v>13.87005441578273</v>
+        <v>13.30078002875832</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>12.36716298904438</v>
+        <v>5.84509173231007</v>
       </c>
       <c r="F2">
-        <v>31.28556163470815</v>
+        <v>40.06352401440289</v>
       </c>
       <c r="G2">
-        <v>18.04442166123195</v>
+        <v>2.131511731776212</v>
       </c>
       <c r="H2">
-        <v>19.52711539758341</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>16.08531910462323</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>7.782779660438617</v>
+        <v>6.721214104033091</v>
       </c>
       <c r="K2">
-        <v>18.28353582427941</v>
+        <v>19.18194835662244</v>
       </c>
       <c r="L2">
-        <v>14.71070397609169</v>
+        <v>5.81314311051417</v>
       </c>
       <c r="M2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>13.68038842523322</v>
+      </c>
+      <c r="N2">
+        <v>16.451416995372</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.5176441681214</v>
+        <v>22.13484080106494</v>
       </c>
       <c r="C3">
-        <v>12.91997977534328</v>
+        <v>12.331491358987</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>11.52654848660345</v>
+        <v>5.720459072919198</v>
       </c>
       <c r="F3">
-        <v>29.2763181350073</v>
+        <v>38.93026666646966</v>
       </c>
       <c r="G3">
-        <v>17.1773240302056</v>
+        <v>2.143039488196608</v>
       </c>
       <c r="H3">
-        <v>18.936671012524</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>15.93202086392221</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>7.975202815421885</v>
+        <v>6.804316148884141</v>
       </c>
       <c r="K3">
-        <v>17.06513724030405</v>
+        <v>18.10731153782384</v>
       </c>
       <c r="L3">
-        <v>13.73061243847209</v>
+        <v>5.768205297512776</v>
       </c>
       <c r="M3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>13.22600648520917</v>
+      </c>
+      <c r="N3">
+        <v>16.59706569822108</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.58601534895854</v>
+        <v>21.31225917886525</v>
       </c>
       <c r="C4">
-        <v>12.30695746468181</v>
+        <v>11.70782006130646</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>10.98326424376784</v>
+        <v>5.644400191455771</v>
       </c>
       <c r="F4">
-        <v>28.00455037358779</v>
+        <v>38.25146223633434</v>
       </c>
       <c r="G4">
-        <v>16.65691937119554</v>
+        <v>2.150275670966581</v>
       </c>
       <c r="H4">
-        <v>18.59783218905438</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>15.86412022737068</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>8.099129302248578</v>
+        <v>6.856278642766554</v>
       </c>
       <c r="K4">
-        <v>16.2779613101986</v>
+        <v>17.43235207034027</v>
       </c>
       <c r="L4">
-        <v>13.09807980372244</v>
+        <v>5.742848053989748</v>
       </c>
       <c r="M4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>12.94929829812065</v>
+      </c>
+      <c r="N4">
+        <v>16.69159097804433</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.1941983612489</v>
+        <v>20.97256648789201</v>
       </c>
       <c r="C5">
-        <v>12.0495821787985</v>
+        <v>11.44635372242306</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>10.75497288778699</v>
+        <v>5.613480782604157</v>
       </c>
       <c r="F5">
-        <v>27.47702804345448</v>
+        <v>37.97924705690004</v>
       </c>
       <c r="G5">
-        <v>16.44806163576387</v>
+        <v>2.153267064142509</v>
       </c>
       <c r="H5">
-        <v>18.46564054422197</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>15.84267524963023</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>8.151010533535983</v>
+        <v>6.87770445486907</v>
       </c>
       <c r="K5">
-        <v>15.94725708062765</v>
+        <v>17.15373935169068</v>
       </c>
       <c r="L5">
-        <v>12.83250944910423</v>
+        <v>5.733074527051579</v>
       </c>
       <c r="M5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>12.83722780823244</v>
+      </c>
+      <c r="N5">
+        <v>16.73135123814447</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.12839834905694</v>
+        <v>20.91590044810337</v>
       </c>
       <c r="C6">
-        <v>12.0063855780984</v>
+        <v>11.4024916367258</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>10.71664662119179</v>
+        <v>5.608350036498344</v>
       </c>
       <c r="F6">
-        <v>27.38888515070088</v>
+        <v>37.93431567107351</v>
       </c>
       <c r="G6">
-        <v>16.4135811028569</v>
+        <v>2.153766433800312</v>
       </c>
       <c r="H6">
-        <v>18.44404340122191</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>15.83947932787609</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>8.159706869104733</v>
+        <v>6.881277756581753</v>
       </c>
       <c r="K6">
-        <v>15.89174193721709</v>
+        <v>17.10726928634595</v>
       </c>
       <c r="L6">
-        <v>12.78793814500232</v>
+        <v>5.731485377985261</v>
       </c>
       <c r="M6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>12.81866389029805</v>
+      </c>
+      <c r="N6">
+        <v>16.73802720956134</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.58078062999139</v>
+        <v>21.30769565817472</v>
       </c>
       <c r="C7">
-        <v>12.30351716505309</v>
+        <v>11.70432363530551</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>10.98021345069429</v>
+        <v>5.643982949286732</v>
       </c>
       <c r="F7">
-        <v>27.9974730438259</v>
+        <v>38.24777304821244</v>
       </c>
       <c r="G7">
-        <v>16.65408936362825</v>
+        <v>2.150315837904628</v>
       </c>
       <c r="H7">
-        <v>18.59602567318298</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>15.86380630275435</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>8.099823488290889</v>
+        <v>6.856566564606539</v>
       </c>
       <c r="K7">
-        <v>16.2735416174918</v>
+        <v>17.42860864936942</v>
       </c>
       <c r="L7">
-        <v>13.09452993454862</v>
+        <v>5.742713981464255</v>
       </c>
       <c r="M7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>12.94778391951103</v>
+      </c>
+      <c r="N7">
+        <v>16.69212222703816</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.47057712273286</v>
+        <v>22.99640573689389</v>
       </c>
       <c r="C8">
-        <v>13.54856248401871</v>
+        <v>12.9724003127948</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>12.08290643610862</v>
+        <v>5.801994898589346</v>
       </c>
       <c r="F8">
-        <v>30.60082756307089</v>
+        <v>39.66931372164638</v>
       </c>
       <c r="G8">
-        <v>17.74306390468774</v>
+        <v>2.135455469530942</v>
       </c>
       <c r="H8">
-        <v>19.31857416385246</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>16.02679980973732</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>7.84787957326572</v>
+        <v>6.7496823555879</v>
       </c>
       <c r="K8">
-        <v>17.87147834798134</v>
+        <v>18.81467768971554</v>
       </c>
       <c r="L8">
-        <v>14.37910186728232</v>
+        <v>5.797183467654593</v>
       </c>
       <c r="M8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>13.52330913095575</v>
+      </c>
+      <c r="N8">
+        <v>16.50055262043914</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.80386378667771</v>
+        <v>26.14789486278902</v>
       </c>
       <c r="C9">
-        <v>15.75981626342003</v>
+        <v>15.23979693475984</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>14.03360006262134</v>
+        <v>6.117726597046967</v>
       </c>
       <c r="F9">
-        <v>35.6052855827158</v>
+        <v>42.58772412949779</v>
       </c>
       <c r="G9">
-        <v>19.96711331855498</v>
+        <v>2.107427549270078</v>
       </c>
       <c r="H9">
-        <v>20.92619343535095</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>16.57043009706898</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>7.403827400523394</v>
+        <v>6.546802706843688</v>
       </c>
       <c r="K9">
-        <v>20.70017008453678</v>
+        <v>21.40561778563235</v>
       </c>
       <c r="L9">
-        <v>16.65819576313563</v>
+        <v>5.921830279566458</v>
       </c>
       <c r="M9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>14.66569829064833</v>
+      </c>
+      <c r="N9">
+        <v>16.16745600764463</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.0361121043886</v>
+        <v>28.3594297421222</v>
       </c>
       <c r="C10">
-        <v>17.25207883266019</v>
+        <v>16.78277881450489</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>15.34343358885163</v>
+        <v>6.356802595361173</v>
       </c>
       <c r="F10">
-        <v>39.14282640165851</v>
+        <v>44.80851835098778</v>
       </c>
       <c r="G10">
-        <v>21.64998978699236</v>
+        <v>2.087294242132927</v>
       </c>
       <c r="H10">
-        <v>22.22756312670947</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>17.127265336208</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>7.115588082126534</v>
+        <v>6.400774679732287</v>
       </c>
       <c r="K10">
-        <v>22.60084940801357</v>
+        <v>23.39816858829536</v>
       </c>
       <c r="L10">
-        <v>18.19295523454505</v>
+        <v>6.024444668094112</v>
       </c>
       <c r="M10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>15.5089697752983</v>
+      </c>
+      <c r="N10">
+        <v>15.95215534666012</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.00711278327977</v>
+        <v>29.34318896535432</v>
       </c>
       <c r="C11">
-        <v>17.9042464826955</v>
+        <v>17.46077595753972</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>15.91395582240687</v>
+        <v>6.468062218877437</v>
       </c>
       <c r="F11">
-        <v>40.70039151815979</v>
+        <v>45.83577330204467</v>
       </c>
       <c r="G11">
-        <v>22.42633867776308</v>
+        <v>2.078178268680268</v>
       </c>
       <c r="H11">
-        <v>22.84689760306101</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>17.41902263007583</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>6.995017705158715</v>
+        <v>6.334745448484182</v>
       </c>
       <c r="K11">
-        <v>23.42910084635341</v>
+        <v>24.3240990399525</v>
       </c>
       <c r="L11">
-        <v>18.86254242646093</v>
+        <v>6.073570627278293</v>
       </c>
       <c r="M11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>15.89296068147284</v>
+      </c>
+      <c r="N11">
+        <v>15.86154605725968</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.36864622653118</v>
+        <v>29.71262277435063</v>
       </c>
       <c r="C12">
-        <v>18.14756172217723</v>
+        <v>17.71433662041109</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>16.12648776198218</v>
+        <v>6.51064863896878</v>
       </c>
       <c r="F12">
-        <v>41.28313185376481</v>
+        <v>46.2273184787508</v>
       </c>
       <c r="G12">
-        <v>22.72197873110458</v>
+        <v>2.074727020396247</v>
       </c>
       <c r="H12">
-        <v>23.08549463478756</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>17.53537410409828</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>6.951130821764659</v>
+        <v>6.309776760895758</v>
       </c>
       <c r="K12">
-        <v>23.73770887737805</v>
+        <v>24.67016807762914</v>
       </c>
       <c r="L12">
-        <v>19.11215024380077</v>
+        <v>6.092530153851614</v>
       </c>
       <c r="M12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>16.03841478641781</v>
+      </c>
+      <c r="N12">
+        <v>15.82838477976559</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.29105373645827</v>
+        <v>29.63319369423548</v>
       </c>
       <c r="C13">
-        <v>18.09531836619361</v>
+        <v>17.65986488621488</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>16.08086920951812</v>
+        <v>6.501454983072799</v>
       </c>
       <c r="F13">
-        <v>41.15793656957874</v>
+        <v>46.14287656491167</v>
       </c>
       <c r="G13">
-        <v>22.65823137193198</v>
+        <v>2.075470367455154</v>
       </c>
       <c r="H13">
-        <v>23.03392483695793</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>17.51004925088736</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>6.960499258517558</v>
+        <v>6.315153022688507</v>
       </c>
       <c r="K13">
-        <v>23.67146504011666</v>
+        <v>24.59583401510589</v>
       </c>
       <c r="L13">
-        <v>19.05856567094417</v>
+        <v>6.088430927077186</v>
       </c>
       <c r="M13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>16.00708649061958</v>
+      </c>
+      <c r="N13">
+        <v>15.8354737884379</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.03697848075131</v>
+        <v>29.37364363676956</v>
       </c>
       <c r="C14">
-        <v>17.92433609483091</v>
+        <v>17.48169873538098</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>15.93151055563204</v>
+        <v>6.471556114524339</v>
       </c>
       <c r="F14">
-        <v>40.74847343517906</v>
+        <v>45.8679340859649</v>
       </c>
       <c r="G14">
-        <v>22.45062716757719</v>
+        <v>2.077894350279931</v>
       </c>
       <c r="H14">
-        <v>22.86644462592046</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>17.42847535029378</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>6.991369967881147</v>
+        <v>6.332690688269027</v>
       </c>
       <c r="K14">
-        <v>23.45458985983416</v>
+        <v>24.3526600585604</v>
       </c>
       <c r="L14">
-        <v>18.88315599704991</v>
+        <v>6.075123259013875</v>
       </c>
       <c r="M14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>15.90492633022937</v>
+      </c>
+      <c r="N14">
+        <v>15.85879419555729</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.88055461232431</v>
+        <v>29.21426324085004</v>
       </c>
       <c r="C15">
-        <v>17.81913561357378</v>
+        <v>17.37216057996056</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>15.83957072637642</v>
+        <v>6.453304507518014</v>
       </c>
       <c r="F15">
-        <v>40.49675573385439</v>
+        <v>45.69985972355064</v>
       </c>
       <c r="G15">
-        <v>22.3236832609289</v>
+        <v>2.079379038629038</v>
       </c>
       <c r="H15">
-        <v>22.76439289764541</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>17.37928346357635</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>7.010518221554213</v>
+        <v>6.343436904327701</v>
       </c>
       <c r="K15">
-        <v>23.32109841522486</v>
+        <v>24.20312375716924</v>
       </c>
       <c r="L15">
-        <v>18.77520313393361</v>
+        <v>6.067018536862632</v>
       </c>
       <c r="M15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>15.84235634278487</v>
+      </c>
+      <c r="N15">
+        <v>15.87323156245831</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.97177940114149</v>
+        <v>28.29469811928323</v>
       </c>
       <c r="C16">
-        <v>17.20893710118248</v>
+        <v>16.73801012592312</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>15.30564973529538</v>
+        <v>6.349589647946149</v>
       </c>
       <c r="F16">
-        <v>39.04002473599285</v>
+        <v>44.74173393535751</v>
       </c>
       <c r="G16">
-        <v>21.59947772110114</v>
+        <v>2.087890409294892</v>
       </c>
       <c r="H16">
-        <v>22.18764894874735</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>17.1090010996218</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>7.123700350941337</v>
+        <v>6.405096013156913</v>
       </c>
       <c r="K16">
-        <v>22.54600563838878</v>
+        <v>23.33700304979097</v>
       </c>
       <c r="L16">
-        <v>18.14863420885358</v>
+        <v>6.021283773818605</v>
       </c>
       <c r="M16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>15.48388127769033</v>
+      </c>
+      <c r="N16">
+        <v>15.95823229421712</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.40304436248181</v>
+        <v>27.72492310261363</v>
       </c>
       <c r="C17">
-        <v>16.82789668722431</v>
+        <v>16.34302743464818</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>14.97170751455374</v>
+        <v>6.286667808267482</v>
       </c>
       <c r="F17">
-        <v>38.13336203381806</v>
+        <v>44.1583589199461</v>
       </c>
       <c r="G17">
-        <v>21.15801460570339</v>
+        <v>2.093119203590256</v>
       </c>
       <c r="H17">
-        <v>21.8409204104985</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>16.95328183753564</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>7.195999504568482</v>
+        <v>6.443008825432425</v>
       </c>
       <c r="K17">
-        <v>22.06132804093625</v>
+        <v>22.7972421506817</v>
       </c>
       <c r="L17">
-        <v>17.7570415497347</v>
+        <v>5.993856487928602</v>
       </c>
       <c r="M17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>15.26405059316307</v>
+      </c>
+      <c r="N17">
+        <v>16.01231917206478</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.07172316333151</v>
+        <v>27.39509548607395</v>
       </c>
       <c r="C18">
-        <v>16.60620949471993</v>
+        <v>16.11357593847629</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>14.77724030153717</v>
+        <v>6.250705886625925</v>
       </c>
       <c r="F18">
-        <v>37.60698371946706</v>
+        <v>43.82440740488668</v>
       </c>
       <c r="G18">
-        <v>20.90510265379563</v>
+        <v>2.096131053747714</v>
       </c>
       <c r="H18">
-        <v>21.64405360953253</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>16.86731526470946</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>7.238559003516595</v>
+        <v>6.464854313853523</v>
       </c>
       <c r="K18">
-        <v>21.77911713510965</v>
+        <v>22.48360622794289</v>
       </c>
       <c r="L18">
-        <v>17.5291068215761</v>
+        <v>5.978310918387679</v>
       </c>
       <c r="M18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>15.13764473807004</v>
+      </c>
+      <c r="N18">
+        <v>16.04411205128255</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.9588155352737</v>
+        <v>27.28305731893873</v>
       </c>
       <c r="C19">
-        <v>16.53071132641373</v>
+        <v>16.03549078086292</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>14.7109824027673</v>
+        <v>6.238566489888947</v>
       </c>
       <c r="F19">
-        <v>37.42791152040976</v>
+        <v>43.71160842421973</v>
       </c>
       <c r="G19">
-        <v>20.81964197389221</v>
+        <v>2.097151720377064</v>
       </c>
       <c r="H19">
-        <v>21.57783450010676</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>16.83881622732228</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>7.253129533882158</v>
+        <v>6.472258182247042</v>
       </c>
       <c r="K19">
-        <v>21.68296937119703</v>
+        <v>22.37686086440263</v>
       </c>
       <c r="L19">
-        <v>17.45146358055498</v>
+        <v>5.973086813970782</v>
       </c>
       <c r="M19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>15.09485264422355</v>
+      </c>
+      <c r="N19">
+        <v>16.05499128414475</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.46402025425542</v>
+        <v>27.78579424669985</v>
       </c>
       <c r="C20">
-        <v>16.86871889547799</v>
+        <v>16.38530697753086</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>15.00750295073365</v>
+        <v>6.293341599818144</v>
       </c>
       <c r="F20">
-        <v>38.23038155874331</v>
+        <v>44.22029509462695</v>
       </c>
       <c r="G20">
-        <v>21.20490451257556</v>
+        <v>2.092562172306358</v>
       </c>
       <c r="H20">
-        <v>21.87756421694133</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>16.96948347061308</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>7.188200575022963</v>
+        <v>6.438969058140833</v>
       </c>
       <c r="K20">
-        <v>22.11327717118228</v>
+        <v>22.85502789694936</v>
       </c>
       <c r="L20">
-        <v>17.79900570179135</v>
+        <v>5.996752347356535</v>
       </c>
       <c r="M20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>15.2874484894866</v>
+      </c>
+      <c r="N20">
+        <v>16.006490139383</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.1117718665961</v>
+        <v>29.44996252662549</v>
       </c>
       <c r="C21">
-        <v>17.9746550828315</v>
+        <v>17.53411460891886</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>15.97547503741561</v>
+        <v>6.480324959008117</v>
       </c>
       <c r="F21">
-        <v>40.86893153046368</v>
+        <v>45.94862107861326</v>
       </c>
       <c r="G21">
-        <v>22.51155948647675</v>
+        <v>2.077182393217077</v>
       </c>
       <c r="H21">
-        <v>22.9155258699039</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>17.45227356962208</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>6.982252140096165</v>
+        <v>6.327538682148807</v>
       </c>
       <c r="K21">
-        <v>23.51842624870091</v>
+        <v>24.42420756472174</v>
       </c>
       <c r="L21">
-        <v>18.93478390998823</v>
+        <v>6.079022319567781</v>
       </c>
       <c r="M21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>15.93493195999719</v>
+      </c>
+      <c r="N21">
+        <v>15.85191235951005</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.15287199608262</v>
+        <v>30.55431809168752</v>
       </c>
       <c r="C22">
-        <v>18.67629807350049</v>
+        <v>18.26652248677073</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>16.58769804767728</v>
+        <v>6.605236323544002</v>
       </c>
       <c r="F22">
-        <v>42.55235001355413</v>
+        <v>47.0931256937957</v>
       </c>
       <c r="G22">
-        <v>23.41570825977704</v>
+        <v>2.067132285792188</v>
       </c>
       <c r="H22">
-        <v>23.61770900947823</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>17.80217684760042</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>6.858133305783301</v>
+        <v>6.254905928808715</v>
       </c>
       <c r="K22">
-        <v>24.40754704171065</v>
+        <v>25.42333046696297</v>
       </c>
       <c r="L22">
-        <v>19.65414382888409</v>
+        <v>6.134872463511113</v>
       </c>
       <c r="M22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>16.35837886890054</v>
+      </c>
+      <c r="N22">
+        <v>15.75764904118456</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.6004107233258</v>
+        <v>29.95032760182901</v>
       </c>
       <c r="C23">
-        <v>18.30368491160761</v>
+        <v>17.87721307093368</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>16.26276339924689</v>
+        <v>6.538285491969297</v>
       </c>
       <c r="F23">
-        <v>41.65749560372318</v>
+        <v>46.48086105980742</v>
       </c>
       <c r="G23">
-        <v>22.91863317375353</v>
+        <v>2.07249805381851</v>
       </c>
       <c r="H23">
-        <v>23.24070296942535</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>17.61216848642362</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>6.923319869548051</v>
+        <v>6.293661463454277</v>
       </c>
       <c r="K23">
-        <v>23.93560880631806</v>
+        <v>24.89239750490089</v>
       </c>
       <c r="L23">
-        <v>19.27224859263813</v>
+        <v>6.104871660475026</v>
       </c>
       <c r="M23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>16.1323474983291</v>
+      </c>
+      <c r="N23">
+        <v>15.8073044790818</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.43646661323235</v>
+        <v>27.75828143787928</v>
       </c>
       <c r="C24">
-        <v>16.85027135597548</v>
+        <v>16.36619979928672</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>14.99132756637047</v>
+        <v>6.290323723145906</v>
       </c>
       <c r="F24">
-        <v>38.18653502341291</v>
+        <v>44.19228927587339</v>
       </c>
       <c r="G24">
-        <v>21.18370281674527</v>
+        <v>2.092813987853614</v>
       </c>
       <c r="H24">
-        <v>21.86098986187897</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>16.96214765403892</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>7.191723394147479</v>
+        <v>6.440795282937409</v>
       </c>
       <c r="K24">
-        <v>22.0898020829453</v>
+        <v>22.8289133224686</v>
       </c>
       <c r="L24">
-        <v>17.78004245085081</v>
+        <v>5.99544243585469</v>
       </c>
       <c r="M24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>15.2768703687823</v>
+      </c>
+      <c r="N24">
+        <v>16.00912327923955</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.94098425755836</v>
+        <v>25.31340548560063</v>
       </c>
       <c r="C25">
-        <v>15.18548741868343</v>
+        <v>14.64883243675223</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>13.52799243247814</v>
+        <v>6.03135076633277</v>
       </c>
       <c r="F25">
-        <v>34.25475042005006</v>
+        <v>41.78468063920977</v>
       </c>
       <c r="G25">
-        <v>19.35669954927083</v>
+        <v>2.114911901834232</v>
       </c>
       <c r="H25">
-        <v>20.47049099054733</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>16.39718237679579</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>7.517931812867628</v>
+        <v>6.601073735100342</v>
       </c>
       <c r="K25">
-        <v>19.96677604904844</v>
+        <v>20.71903247469504</v>
       </c>
       <c r="L25">
-        <v>16.06670013686304</v>
+        <v>5.886185041694437</v>
       </c>
       <c r="M25">
+        <v>14.3557095159651</v>
+      </c>
+      <c r="N25">
+        <v>16.25268364470405</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_2_3/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_3/res_line/loading_percent.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>23.44353736629144</v>
+        <v>20.4124635726698</v>
       </c>
       <c r="C2">
-        <v>13.30078002875832</v>
+        <v>13.19330619297741</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>5.84509173231007</v>
+        <v>8.29106260616469</v>
       </c>
       <c r="F2">
-        <v>40.06352401440289</v>
+        <v>28.40354136561257</v>
       </c>
       <c r="G2">
-        <v>2.131511731776212</v>
+        <v>33.6819372165792</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>10.91039081080314</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>16.82283441015403</v>
       </c>
       <c r="J2">
-        <v>6.721214104033091</v>
+        <v>5.194914427271525</v>
       </c>
       <c r="K2">
-        <v>19.18194835662244</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>5.81314311051417</v>
+        <v>7.633547359644036</v>
       </c>
       <c r="M2">
-        <v>13.68038842523322</v>
+        <v>13.0832127942331</v>
       </c>
       <c r="N2">
-        <v>16.451416995372</v>
+        <v>12.41643458070173</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.13484080106494</v>
+        <v>19.00830204341234</v>
       </c>
       <c r="C3">
-        <v>12.331491358987</v>
+        <v>12.43389878059205</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>5.720459072919198</v>
+        <v>8.307396516590471</v>
       </c>
       <c r="F3">
-        <v>38.93026666646966</v>
+        <v>27.73110187061785</v>
       </c>
       <c r="G3">
-        <v>2.143039488196608</v>
+        <v>32.48216596987205</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>10.82284340879319</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>16.80600681219694</v>
       </c>
       <c r="J3">
-        <v>6.804316148884141</v>
+        <v>5.219129038185043</v>
       </c>
       <c r="K3">
-        <v>18.10731153782384</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>5.768205297512776</v>
+        <v>7.506783579598572</v>
       </c>
       <c r="M3">
-        <v>13.22600648520917</v>
+        <v>12.52129567171044</v>
       </c>
       <c r="N3">
-        <v>16.59706569822108</v>
+        <v>12.64231700497305</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.31225917886525</v>
+        <v>18.10422275577944</v>
       </c>
       <c r="C4">
-        <v>11.70782006130646</v>
+        <v>11.94527559640577</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>5.644400191455771</v>
+        <v>8.318915247505929</v>
       </c>
       <c r="F4">
-        <v>38.25146223633434</v>
+        <v>27.33496635806125</v>
       </c>
       <c r="G4">
-        <v>2.150275670966581</v>
+        <v>31.76436070913164</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>10.7782619722318</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>16.81196570743943</v>
       </c>
       <c r="J4">
-        <v>6.856278642766554</v>
+        <v>5.23435549993712</v>
       </c>
       <c r="K4">
-        <v>17.43235207034027</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>5.742848053989748</v>
+        <v>7.430710237973735</v>
       </c>
       <c r="M4">
-        <v>12.94929829812065</v>
+        <v>12.16863927151748</v>
       </c>
       <c r="N4">
-        <v>16.69159097804433</v>
+        <v>12.78378323679344</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>20.97256648789201</v>
+        <v>17.74767475842812</v>
       </c>
       <c r="C5">
-        <v>11.44635372242306</v>
+        <v>11.74057535986406</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>5.613480782604157</v>
+        <v>8.32397567148953</v>
       </c>
       <c r="F5">
-        <v>37.97924705690004</v>
+        <v>27.17785019413147</v>
       </c>
       <c r="G5">
-        <v>2.153267064142509</v>
+        <v>31.47690861731263</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>10.76232784752461</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>16.81830676661322</v>
       </c>
       <c r="J5">
-        <v>6.87770445486907</v>
+        <v>5.240655793116044</v>
       </c>
       <c r="K5">
-        <v>17.15373935169068</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>5.733074527051579</v>
+        <v>7.400178065405175</v>
       </c>
       <c r="M5">
-        <v>12.83722780823244</v>
+        <v>12.02320447118288</v>
       </c>
       <c r="N5">
-        <v>16.73135123814447</v>
+        <v>12.84215945460899</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>20.91590044810337</v>
+        <v>17.68785569873437</v>
       </c>
       <c r="C6">
-        <v>11.4024916367258</v>
+        <v>11.70624934614508</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>5.608350036498344</v>
+        <v>8.324837858520375</v>
       </c>
       <c r="F6">
-        <v>37.93431567107351</v>
+        <v>27.15202438513313</v>
       </c>
       <c r="G6">
-        <v>2.153766433800312</v>
+        <v>31.42949234165065</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>10.75981466353828</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>16.81959064872441</v>
       </c>
       <c r="J6">
-        <v>6.881277756581753</v>
+        <v>5.24170785944311</v>
       </c>
       <c r="K6">
-        <v>17.10726928634595</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>5.731485377985261</v>
+        <v>7.395137249741985</v>
       </c>
       <c r="M6">
-        <v>12.81866389029805</v>
+        <v>11.99895722177067</v>
       </c>
       <c r="N6">
-        <v>16.73802720956134</v>
+        <v>12.85189757944952</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.30769565817472</v>
+        <v>18.09945550447657</v>
       </c>
       <c r="C7">
-        <v>11.70432363530551</v>
+        <v>11.94253747728007</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>5.643982949286732</v>
+        <v>8.318982020671099</v>
       </c>
       <c r="F7">
-        <v>38.24777304821244</v>
+        <v>27.33282984762547</v>
       </c>
       <c r="G7">
-        <v>2.150315837904628</v>
+        <v>31.76046312152259</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>10.7780381365215</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>16.81203562515079</v>
       </c>
       <c r="J7">
-        <v>6.856566564606539</v>
+        <v>5.234440075015969</v>
       </c>
       <c r="K7">
-        <v>17.42860864936942</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>5.742713981464255</v>
+        <v>7.430296540499771</v>
       </c>
       <c r="M7">
-        <v>12.94778391951103</v>
+        <v>12.16668459095519</v>
       </c>
       <c r="N7">
-        <v>16.69212222703816</v>
+        <v>12.78456753409124</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>22.99640573689389</v>
+        <v>19.93847584668527</v>
       </c>
       <c r="C8">
-        <v>12.9724003127948</v>
+        <v>12.93611552807647</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>5.801994898589346</v>
+        <v>8.296380248723176</v>
       </c>
       <c r="F8">
-        <v>39.66931372164638</v>
+        <v>28.1682723922918</v>
       </c>
       <c r="G8">
-        <v>2.135455469530942</v>
+        <v>33.26452920173102</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>10.87825745372963</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>16.81354048793401</v>
       </c>
       <c r="J8">
-        <v>6.7496823555879</v>
+        <v>5.203192445356512</v>
       </c>
       <c r="K8">
-        <v>18.81467768971554</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>5.797183467654593</v>
+        <v>7.589489424847086</v>
       </c>
       <c r="M8">
-        <v>13.52330913095575</v>
+        <v>12.89115825440512</v>
       </c>
       <c r="N8">
-        <v>16.50055262043914</v>
+        <v>12.49376184671813</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>26.14789486278902</v>
+        <v>23.17311928057299</v>
       </c>
       <c r="C9">
-        <v>15.23979693475984</v>
+        <v>14.70664967930037</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>6.117726597046967</v>
+        <v>8.264283483577167</v>
       </c>
       <c r="F9">
-        <v>42.58772412949779</v>
+        <v>29.9347040861562</v>
       </c>
       <c r="G9">
-        <v>2.107427549270078</v>
+        <v>36.3505509489009</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>11.1506867911213</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>16.95394945815616</v>
       </c>
       <c r="J9">
-        <v>6.546802706843688</v>
+        <v>5.144506984147772</v>
       </c>
       <c r="K9">
-        <v>21.40561778563235</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>5.921830279566458</v>
+        <v>7.914501539553109</v>
       </c>
       <c r="M9">
-        <v>14.66569829064833</v>
+        <v>14.24398331433064</v>
       </c>
       <c r="N9">
-        <v>16.16745600764463</v>
+        <v>11.94404891707948</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>28.3594297421222</v>
+        <v>25.31965449014679</v>
       </c>
       <c r="C10">
-        <v>16.78277881450489</v>
+        <v>15.89951956374426</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>6.356802595361173</v>
+        <v>8.248784913645544</v>
       </c>
       <c r="F10">
-        <v>44.80851835098778</v>
+        <v>31.30437582048385</v>
       </c>
       <c r="G10">
-        <v>2.087294242132927</v>
+        <v>38.68578365361952</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>11.4011537201719</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>17.15203181962599</v>
       </c>
       <c r="J10">
-        <v>6.400774679732287</v>
+        <v>5.102585231834589</v>
       </c>
       <c r="K10">
-        <v>23.39816858829536</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>6.024444668094112</v>
+        <v>8.1596391185426</v>
       </c>
       <c r="M10">
-        <v>15.5089697752983</v>
+        <v>15.18859684330356</v>
       </c>
       <c r="N10">
-        <v>15.95215534666012</v>
+        <v>11.55054843748389</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>29.34318896535432</v>
+        <v>26.24760378449433</v>
       </c>
       <c r="C11">
-        <v>17.46077595753972</v>
+        <v>16.41916305798231</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>6.468062218877437</v>
+        <v>8.243650279628948</v>
       </c>
       <c r="F11">
-        <v>45.83577330204467</v>
+        <v>31.94189502210357</v>
       </c>
       <c r="G11">
-        <v>2.078178268680268</v>
+        <v>39.7604763328908</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>11.52683224533749</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>17.26510205592204</v>
       </c>
       <c r="J11">
-        <v>6.334745448484182</v>
+        <v>5.083678504162202</v>
       </c>
       <c r="K11">
-        <v>24.3240990399525</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>6.073570627278293</v>
+        <v>8.272245548590945</v>
       </c>
       <c r="M11">
-        <v>15.89296068147284</v>
+        <v>15.60641848469371</v>
       </c>
       <c r="N11">
-        <v>15.86154605725968</v>
+        <v>11.37327350786957</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>29.71262277435063</v>
+        <v>26.59213615169434</v>
       </c>
       <c r="C12">
-        <v>17.71433662041109</v>
+        <v>16.61268162604993</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>6.51064863896878</v>
+        <v>8.241996776690582</v>
       </c>
       <c r="F12">
-        <v>46.2273184787508</v>
+        <v>32.1853016172971</v>
       </c>
       <c r="G12">
-        <v>2.074727020396247</v>
+        <v>40.16907891909253</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>11.57617493893819</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>17.31140972634047</v>
       </c>
       <c r="J12">
-        <v>6.309776760895758</v>
+        <v>5.076533825912184</v>
       </c>
       <c r="K12">
-        <v>24.67016807762914</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>6.092530153851614</v>
+        <v>8.315021227008081</v>
       </c>
       <c r="M12">
-        <v>16.03841478641781</v>
+        <v>15.7628551681476</v>
       </c>
       <c r="N12">
-        <v>15.82838477976559</v>
+        <v>11.30634738722493</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>29.63319369423548</v>
+        <v>26.51823821089388</v>
       </c>
       <c r="C13">
-        <v>17.65986488621488</v>
+        <v>16.57114799209734</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>6.501454983072799</v>
+        <v>8.24233968674513</v>
       </c>
       <c r="F13">
-        <v>46.14287656491167</v>
+        <v>32.13279222389662</v>
       </c>
       <c r="G13">
-        <v>2.075470367455154</v>
+        <v>40.08100774441635</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>11.56546924042716</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>17.30127832635898</v>
       </c>
       <c r="J13">
-        <v>6.315153022688507</v>
+        <v>5.078072044850829</v>
       </c>
       <c r="K13">
-        <v>24.59583401510589</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>6.088430927077186</v>
+        <v>8.305803099839103</v>
       </c>
       <c r="M13">
-        <v>16.00708649061958</v>
+        <v>15.72924401041467</v>
       </c>
       <c r="N13">
-        <v>15.8354737884379</v>
+        <v>11.32075279803423</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>29.37364363676956</v>
+        <v>26.27608550543762</v>
       </c>
       <c r="C14">
-        <v>17.48169873538098</v>
+        <v>16.43514894517238</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>6.471556114524339</v>
+        <v>8.243508320746489</v>
       </c>
       <c r="F14">
-        <v>45.8679340859649</v>
+        <v>31.96188073244216</v>
       </c>
       <c r="G14">
-        <v>2.077894350279931</v>
+        <v>39.79406005365018</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>11.53085624962967</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>17.2688407909841</v>
       </c>
       <c r="J14">
-        <v>6.332690688269027</v>
+        <v>5.083090461348085</v>
       </c>
       <c r="K14">
-        <v>24.3526600585604</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>6.075123259013875</v>
+        <v>8.275762166590555</v>
       </c>
       <c r="M14">
-        <v>15.90492633022937</v>
+        <v>15.61932471829096</v>
       </c>
       <c r="N14">
-        <v>15.85879419555729</v>
+        <v>11.36776363444328</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>29.21426324085004</v>
+        <v>26.12686990819031</v>
       </c>
       <c r="C15">
-        <v>17.37216057996056</v>
+        <v>16.35142280604273</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>6.453304507518014</v>
+        <v>8.244262510779615</v>
       </c>
       <c r="F15">
-        <v>45.69985972355064</v>
+        <v>31.85744968819906</v>
       </c>
       <c r="G15">
-        <v>2.079379038629038</v>
+        <v>39.61850664638165</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>11.50988466999192</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>17.24943197567082</v>
       </c>
       <c r="J15">
-        <v>6.343436904327701</v>
+        <v>5.08616605429054</v>
       </c>
       <c r="K15">
-        <v>24.20312375716924</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>6.067018536862632</v>
+        <v>8.257378040894658</v>
       </c>
       <c r="M15">
-        <v>15.84235634278487</v>
+        <v>15.55176188228534</v>
       </c>
       <c r="N15">
-        <v>15.87323156245831</v>
+        <v>11.3965843173368</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>28.29469811928323</v>
+        <v>25.25804415510546</v>
       </c>
       <c r="C16">
-        <v>16.73801012592312</v>
+        <v>15.86510066395175</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>6.349589647946149</v>
+        <v>8.249160298438515</v>
       </c>
       <c r="F16">
-        <v>44.74173393535751</v>
+        <v>31.26299543746563</v>
       </c>
       <c r="G16">
-        <v>2.087890409294892</v>
+        <v>38.61578581530845</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>11.39318195817581</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>17.14512063597426</v>
       </c>
       <c r="J16">
-        <v>6.405096013156913</v>
+        <v>5.103823404350636</v>
       </c>
       <c r="K16">
-        <v>23.33700304979097</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>6.021283773818605</v>
+        <v>8.152299988846559</v>
       </c>
       <c r="M16">
-        <v>15.48388127769033</v>
+        <v>15.16104523859056</v>
       </c>
       <c r="N16">
-        <v>15.95823229421712</v>
+        <v>11.56216483670017</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>27.72492310261363</v>
+        <v>24.71270020129534</v>
       </c>
       <c r="C17">
-        <v>16.34302743464818</v>
+        <v>15.56089740221974</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>6.286667808267482</v>
+        <v>8.252665993095459</v>
       </c>
       <c r="F17">
-        <v>44.1583589199461</v>
+        <v>30.90195102155696</v>
       </c>
       <c r="G17">
-        <v>2.093119203590256</v>
+        <v>38.00370284974597</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>11.32464050159455</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>17.08714498053538</v>
       </c>
       <c r="J17">
-        <v>6.443008825432425</v>
+        <v>5.114691645642947</v>
       </c>
       <c r="K17">
-        <v>22.7972421506817</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>5.993856487928602</v>
+        <v>8.08810074216146</v>
       </c>
       <c r="M17">
-        <v>15.26405059316307</v>
+        <v>14.91824961216071</v>
       </c>
       <c r="N17">
-        <v>16.01231917206478</v>
+        <v>11.66415546624241</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>27.39509548607395</v>
+        <v>24.39445849135847</v>
       </c>
       <c r="C18">
-        <v>16.11357593847629</v>
+        <v>15.38375927364331</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>6.250705886625925</v>
+        <v>8.254861672152382</v>
       </c>
       <c r="F18">
-        <v>43.82440740488668</v>
+        <v>30.69565195517794</v>
       </c>
       <c r="G18">
-        <v>2.096131053747714</v>
+        <v>37.6528195932325</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>11.28631862752885</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>17.05594905336403</v>
       </c>
       <c r="J18">
-        <v>6.464854313853523</v>
+        <v>5.120958742528831</v>
       </c>
       <c r="K18">
-        <v>22.48360622794289</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>5.978310918387679</v>
+        <v>8.051279088880371</v>
       </c>
       <c r="M18">
-        <v>15.13764473807004</v>
+        <v>14.77748416366277</v>
       </c>
       <c r="N18">
-        <v>16.04411205128255</v>
+        <v>11.72298352017881</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>27.28305731893873</v>
+        <v>24.28591828416848</v>
       </c>
       <c r="C19">
-        <v>16.03549078086292</v>
+        <v>15.32340965279893</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>6.238566489888947</v>
+        <v>8.255635445643291</v>
       </c>
       <c r="F19">
-        <v>43.71160842421973</v>
+        <v>30.6260398336325</v>
       </c>
       <c r="G19">
-        <v>2.097151720377064</v>
+        <v>37.53422282754618</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>11.27353072870328</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>17.04575014962241</v>
       </c>
       <c r="J19">
-        <v>6.472258182247042</v>
+        <v>5.123083667171569</v>
       </c>
       <c r="K19">
-        <v>22.37686086440263</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>5.973086813970782</v>
+        <v>8.03883051452812</v>
       </c>
       <c r="M19">
-        <v>15.09485264422355</v>
+        <v>14.72963433281289</v>
       </c>
       <c r="N19">
-        <v>16.05499128414475</v>
+        <v>11.74293146695345</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>27.78579424669985</v>
+        <v>24.771225606121</v>
       </c>
       <c r="C20">
-        <v>16.38530697753086</v>
+        <v>15.59350447739431</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>6.293341599818144</v>
+        <v>8.252274143675011</v>
       </c>
       <c r="F20">
-        <v>44.22029509462695</v>
+        <v>30.94024431325282</v>
       </c>
       <c r="G20">
-        <v>2.092562172306358</v>
+        <v>38.06874016654067</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>11.3318224124472</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>17.09309268321783</v>
       </c>
       <c r="J20">
-        <v>6.438969058140833</v>
+        <v>5.113533109773173</v>
       </c>
       <c r="K20">
-        <v>22.85502789694936</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>5.996752347356535</v>
+        <v>8.094924265221556</v>
       </c>
       <c r="M20">
-        <v>15.2874484894866</v>
+        <v>14.94421170240753</v>
       </c>
       <c r="N20">
-        <v>16.006490139383</v>
+        <v>11.65328155013834</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>29.44996252662549</v>
+        <v>26.34739689895106</v>
       </c>
       <c r="C21">
-        <v>17.53411460891886</v>
+        <v>16.47518316878365</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>6.480324959008117</v>
+        <v>8.243157038660801</v>
       </c>
       <c r="F21">
-        <v>45.94862107861326</v>
+        <v>32.01202811044211</v>
       </c>
       <c r="G21">
-        <v>2.077182393217077</v>
+        <v>39.87829988231606</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>11.54097490686985</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>17.27827226144999</v>
       </c>
       <c r="J21">
-        <v>6.327538682148807</v>
+        <v>5.081616099835133</v>
       </c>
       <c r="K21">
-        <v>24.42420756472174</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>6.079022319567781</v>
+        <v>8.284582450984775</v>
       </c>
       <c r="M21">
-        <v>15.93493195999719</v>
+        <v>15.65165956873485</v>
       </c>
       <c r="N21">
-        <v>15.85191235951005</v>
+        <v>11.35395024766063</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>30.55431809168752</v>
+        <v>27.33757855236691</v>
       </c>
       <c r="C22">
-        <v>18.26652248677073</v>
+        <v>17.0324455313033</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>6.605236323544002</v>
+        <v>8.238902415744093</v>
       </c>
       <c r="F22">
-        <v>47.0931256937957</v>
+        <v>32.72408568201232</v>
       </c>
       <c r="G22">
-        <v>2.067132285792188</v>
+        <v>41.0704858865972</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>11.68790294451777</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>17.41972853440808</v>
       </c>
       <c r="J22">
-        <v>6.254905928808715</v>
+        <v>5.060838630307082</v>
       </c>
       <c r="K22">
-        <v>25.42333046696297</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>6.134872463511113</v>
+        <v>8.409307404791665</v>
       </c>
       <c r="M22">
-        <v>16.35837886890054</v>
+        <v>16.10360249848467</v>
       </c>
       <c r="N22">
-        <v>15.75764904118456</v>
+        <v>11.15948608719197</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>29.95032760182901</v>
+        <v>26.81271418498673</v>
       </c>
       <c r="C23">
-        <v>17.87721307093368</v>
+        <v>16.7367403471215</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>6.538285491969297</v>
+        <v>8.241011701745901</v>
       </c>
       <c r="F23">
-        <v>46.48086105980742</v>
+        <v>32.34301037523598</v>
       </c>
       <c r="G23">
-        <v>2.07249805381851</v>
+        <v>40.43335293578089</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>11.60852760088998</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>17.34229955569732</v>
       </c>
       <c r="J23">
-        <v>6.293661463454277</v>
+        <v>5.071923525186953</v>
       </c>
       <c r="K23">
-        <v>24.89239750490089</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>6.104871660475026</v>
+        <v>8.342675704073551</v>
       </c>
       <c r="M23">
-        <v>16.1323474983291</v>
+        <v>15.86336442989085</v>
       </c>
       <c r="N23">
-        <v>15.8073044790818</v>
+        <v>11.26318423469784</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>27.75828143787928</v>
+        <v>24.74478096915972</v>
       </c>
       <c r="C24">
-        <v>16.36619979928672</v>
+        <v>15.57876982303321</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>6.290323723145906</v>
+        <v>8.252450738628255</v>
       </c>
       <c r="F24">
-        <v>44.19228927587339</v>
+        <v>30.92292795298077</v>
       </c>
       <c r="G24">
-        <v>2.092813987853614</v>
+        <v>38.03933363391347</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>11.32857210037593</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>17.09039709094474</v>
       </c>
       <c r="J24">
-        <v>6.440795282937409</v>
+        <v>5.114056824638518</v>
       </c>
       <c r="K24">
-        <v>22.8289133224686</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>5.99544243585469</v>
+        <v>8.09183907660306</v>
       </c>
       <c r="M24">
-        <v>15.2768703687823</v>
+        <v>14.93247790793091</v>
       </c>
       <c r="N24">
-        <v>16.00912327923955</v>
+        <v>11.65819704534626</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>25.31340548560063</v>
+        <v>22.3388861746886</v>
       </c>
       <c r="C25">
-        <v>14.64883243675223</v>
+        <v>14.2467229421643</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>6.03135076633277</v>
+        <v>8.271596828641641</v>
       </c>
       <c r="F25">
-        <v>41.78468063920977</v>
+        <v>29.44377582705243</v>
       </c>
       <c r="G25">
-        <v>2.114911901834232</v>
+        <v>35.50279366057944</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>11.06843257693763</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>16.90009473770091</v>
       </c>
       <c r="J25">
-        <v>6.601073735100342</v>
+        <v>5.160143352175851</v>
       </c>
       <c r="K25">
-        <v>20.71903247469504</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>5.886185041694437</v>
+        <v>7.825357893780595</v>
       </c>
       <c r="M25">
-        <v>14.3557095159651</v>
+        <v>13.88618541398023</v>
       </c>
       <c r="N25">
-        <v>16.25268364470405</v>
+        <v>12.09077467026542</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_3/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_3/res_line/loading_percent.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.4124635726698</v>
+        <v>16.99788412191014</v>
       </c>
       <c r="C2">
-        <v>13.19330619297741</v>
+        <v>9.326518530489631</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>8.29106260616469</v>
+        <v>14.41306444996972</v>
       </c>
       <c r="F2">
-        <v>28.40354136561257</v>
+        <v>39.25783281856497</v>
       </c>
       <c r="G2">
-        <v>33.6819372165792</v>
+        <v>39.3468876080474</v>
       </c>
       <c r="H2">
-        <v>10.91039081080314</v>
+        <v>16.76722304247926</v>
       </c>
       <c r="I2">
-        <v>16.82283441015403</v>
+        <v>26.04045985153383</v>
       </c>
       <c r="J2">
-        <v>5.194914427271525</v>
+        <v>8.150861607629425</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>7.633547359644036</v>
+        <v>12.48407712883907</v>
       </c>
       <c r="M2">
-        <v>13.0832127942331</v>
+        <v>17.25861238814616</v>
       </c>
       <c r="N2">
-        <v>12.41643458070173</v>
+        <v>19.05130294312527</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.00830204341234</v>
+        <v>16.59957838986409</v>
       </c>
       <c r="C3">
-        <v>12.43389878059205</v>
+        <v>8.983752758379715</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>8.307396516590471</v>
+        <v>14.42940836260917</v>
       </c>
       <c r="F3">
-        <v>27.73110187061785</v>
+        <v>39.26928952732694</v>
       </c>
       <c r="G3">
-        <v>32.48216596987205</v>
+        <v>39.26067236931777</v>
       </c>
       <c r="H3">
-        <v>10.82284340879319</v>
+        <v>16.806263338886</v>
       </c>
       <c r="I3">
-        <v>16.80600681219694</v>
+        <v>26.12642817044946</v>
       </c>
       <c r="J3">
-        <v>5.219129038185043</v>
+        <v>8.157720764025218</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>7.506783579598572</v>
+        <v>12.48674129313509</v>
       </c>
       <c r="M3">
-        <v>12.52129567171044</v>
+        <v>17.18251165123601</v>
       </c>
       <c r="N3">
-        <v>12.64231700497305</v>
+        <v>19.11705770635037</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.10422275577944</v>
+        <v>16.35350579027716</v>
       </c>
       <c r="C4">
-        <v>11.94527559640577</v>
+        <v>8.764543140776011</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>8.318915247505929</v>
+        <v>14.4401641084054</v>
       </c>
       <c r="F4">
-        <v>27.33496635806125</v>
+        <v>39.28576578983733</v>
       </c>
       <c r="G4">
-        <v>31.76436070913164</v>
+        <v>39.22121054910279</v>
       </c>
       <c r="H4">
-        <v>10.7782619722318</v>
+        <v>16.83368068097822</v>
       </c>
       <c r="I4">
-        <v>16.81196570743943</v>
+        <v>26.18484011123047</v>
       </c>
       <c r="J4">
-        <v>5.23435549993712</v>
+        <v>8.162182109599648</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>7.430710237973735</v>
+        <v>12.48982704942565</v>
       </c>
       <c r="M4">
-        <v>12.16863927151748</v>
+        <v>17.13834541705754</v>
       </c>
       <c r="N4">
-        <v>12.78378323679344</v>
+        <v>19.15930016257053</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.74767475842812</v>
+        <v>16.25300017608063</v>
       </c>
       <c r="C5">
-        <v>11.74057535986406</v>
+        <v>8.673086493014198</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>8.32397567148953</v>
+        <v>14.44472876194452</v>
       </c>
       <c r="F5">
-        <v>27.17785019413147</v>
+        <v>39.29485279665398</v>
       </c>
       <c r="G5">
-        <v>31.47690861731263</v>
+        <v>39.20852421116899</v>
       </c>
       <c r="H5">
-        <v>10.76232784752461</v>
+        <v>16.8457182044415</v>
       </c>
       <c r="I5">
-        <v>16.81830676661322</v>
+        <v>26.21005464577235</v>
       </c>
       <c r="J5">
-        <v>5.240655793116044</v>
+        <v>8.164063200236486</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>7.400178065405175</v>
+        <v>12.49145015741187</v>
       </c>
       <c r="M5">
-        <v>12.02320447118288</v>
+        <v>17.12100410441971</v>
       </c>
       <c r="N5">
-        <v>12.84215945460899</v>
+        <v>19.17698572607394</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.68785569873437</v>
+        <v>16.23630198021537</v>
       </c>
       <c r="C6">
-        <v>11.70624934614508</v>
+        <v>8.657774044300737</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>8.324837858520375</v>
+        <v>14.44549769975837</v>
       </c>
       <c r="F6">
-        <v>27.15202438513313</v>
+        <v>39.29650493164932</v>
       </c>
       <c r="G6">
-        <v>31.42949234165065</v>
+        <v>39.20662278606976</v>
       </c>
       <c r="H6">
-        <v>10.75981466353828</v>
+        <v>16.84776919570395</v>
       </c>
       <c r="I6">
-        <v>16.81959064872441</v>
+        <v>26.2143266206559</v>
       </c>
       <c r="J6">
-        <v>5.24170785944311</v>
+        <v>8.164379369471623</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>7.395137249741985</v>
+        <v>12.49174178554803</v>
       </c>
       <c r="M6">
-        <v>11.99895722177067</v>
+        <v>17.11816462793683</v>
       </c>
       <c r="N6">
-        <v>12.85189757944952</v>
+        <v>19.17995091725231</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.09945550447657</v>
+        <v>16.35215106029798</v>
       </c>
       <c r="C7">
-        <v>11.94253747728007</v>
+        <v>8.763318232841479</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>8.318982020671099</v>
+        <v>14.44022493305425</v>
       </c>
       <c r="F7">
-        <v>27.33282984762547</v>
+        <v>39.28587873590683</v>
       </c>
       <c r="G7">
-        <v>31.76046312152259</v>
+        <v>39.22102570668173</v>
       </c>
       <c r="H7">
-        <v>10.7780381365215</v>
+        <v>16.83383952459916</v>
       </c>
       <c r="I7">
-        <v>16.81203562515079</v>
+        <v>26.18517445448774</v>
       </c>
       <c r="J7">
-        <v>5.234440075015969</v>
+        <v>8.162207223019873</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>7.430296540499771</v>
+        <v>12.48984745746405</v>
       </c>
       <c r="M7">
-        <v>12.16668459095519</v>
+        <v>17.13810887006143</v>
       </c>
       <c r="N7">
-        <v>12.78456753409124</v>
+        <v>19.1595367655264</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19.93847584668527</v>
+        <v>16.86095079976051</v>
       </c>
       <c r="C8">
-        <v>12.93611552807647</v>
+        <v>9.210190200593503</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>8.296380248723176</v>
+        <v>14.41855053957188</v>
       </c>
       <c r="F8">
-        <v>28.1682723922918</v>
+        <v>39.25982296360402</v>
       </c>
       <c r="G8">
-        <v>33.26452920173102</v>
+        <v>39.31436902470318</v>
       </c>
       <c r="H8">
-        <v>10.87825745372963</v>
+        <v>16.77996772084293</v>
       </c>
       <c r="I8">
-        <v>16.81354048793401</v>
+        <v>26.06893159409484</v>
       </c>
       <c r="J8">
-        <v>5.203192445356512</v>
+        <v>8.153174945754772</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>7.589489424847086</v>
+        <v>12.48469543854892</v>
       </c>
       <c r="M8">
-        <v>12.89115825440512</v>
+        <v>17.23184960731734</v>
       </c>
       <c r="N8">
-        <v>12.49376184671813</v>
+        <v>19.07358823130633</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.17311928057299</v>
+        <v>17.84038741821795</v>
       </c>
       <c r="C9">
-        <v>14.70664967930037</v>
+        <v>10.01429796502007</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>8.264283483577167</v>
+        <v>14.38174544469971</v>
       </c>
       <c r="F9">
-        <v>29.9347040861562</v>
+        <v>39.28365625284484</v>
       </c>
       <c r="G9">
-        <v>36.3505509489009</v>
+        <v>39.60385368565238</v>
       </c>
       <c r="H9">
-        <v>11.1506867911213</v>
+        <v>16.70175191449395</v>
       </c>
       <c r="I9">
-        <v>16.95394945815616</v>
+        <v>25.88579332059169</v>
       </c>
       <c r="J9">
-        <v>5.144506984147772</v>
+        <v>8.137433759458286</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>7.914501539553109</v>
+        <v>12.48604953813173</v>
       </c>
       <c r="M9">
-        <v>14.24398331433064</v>
+        <v>17.43538025697428</v>
       </c>
       <c r="N9">
-        <v>11.94404891707948</v>
+        <v>18.91980170636602</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.31965449014679</v>
+        <v>18.54083903645992</v>
       </c>
       <c r="C10">
-        <v>15.89951956374426</v>
+        <v>10.55789859906869</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>8.248784913645544</v>
+        <v>14.35815319628381</v>
       </c>
       <c r="F10">
-        <v>31.30437582048385</v>
+        <v>39.34678633868141</v>
       </c>
       <c r="G10">
-        <v>38.68578365361952</v>
+        <v>39.88050224013845</v>
       </c>
       <c r="H10">
-        <v>11.4011537201719</v>
+        <v>16.66111043582221</v>
       </c>
       <c r="I10">
-        <v>17.15203181962599</v>
+        <v>25.77878288758604</v>
       </c>
       <c r="J10">
-        <v>5.102585231834589</v>
+        <v>8.127055235406521</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>8.1596391185426</v>
+        <v>12.49396226555705</v>
       </c>
       <c r="M10">
-        <v>15.18859684330356</v>
+        <v>17.59607092585657</v>
       </c>
       <c r="N10">
-        <v>11.55054843748389</v>
+        <v>18.81571314112175</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.24760378449433</v>
+        <v>18.85380821658132</v>
       </c>
       <c r="C11">
-        <v>16.41916305798231</v>
+        <v>10.79442722627318</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>8.243650279628948</v>
+        <v>14.34816393995575</v>
       </c>
       <c r="F11">
-        <v>31.94189502210357</v>
+        <v>39.38537093770116</v>
       </c>
       <c r="G11">
-        <v>39.7604763328908</v>
+        <v>40.01996003279721</v>
       </c>
       <c r="H11">
-        <v>11.52683224533749</v>
+        <v>16.64629391547804</v>
       </c>
       <c r="I11">
-        <v>17.26510205592204</v>
+        <v>25.7361267836072</v>
       </c>
       <c r="J11">
-        <v>5.083678504162202</v>
+        <v>8.122588210339174</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>8.272245548590945</v>
+        <v>12.49904823190547</v>
       </c>
       <c r="M11">
-        <v>15.60641848469371</v>
+        <v>17.6714005637889</v>
       </c>
       <c r="N11">
-        <v>11.37327350786957</v>
+        <v>18.77027173414248</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>26.59213615169434</v>
+        <v>18.97139043096632</v>
       </c>
       <c r="C12">
-        <v>16.61268162604993</v>
+        <v>10.88241155790651</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>8.241996776690582</v>
+        <v>14.34448769549276</v>
       </c>
       <c r="F12">
-        <v>32.1853016172971</v>
+        <v>39.40139476425674</v>
       </c>
       <c r="G12">
-        <v>40.16907891909253</v>
+        <v>40.07469546068037</v>
       </c>
       <c r="H12">
-        <v>11.57617493893819</v>
+        <v>16.64121253232673</v>
       </c>
       <c r="I12">
-        <v>17.31140972634047</v>
+        <v>25.72084375129933</v>
       </c>
       <c r="J12">
-        <v>5.076533825912184</v>
+        <v>8.120932970234847</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>8.315021227008081</v>
+        <v>12.50118637876556</v>
       </c>
       <c r="M12">
-        <v>15.7628551681476</v>
+        <v>17.70022935739118</v>
       </c>
       <c r="N12">
-        <v>11.30634738722493</v>
+        <v>18.75333721007906</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>26.51823821089388</v>
+        <v>18.94611023800531</v>
       </c>
       <c r="C13">
-        <v>16.57114799209734</v>
+        <v>10.86353353446568</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>8.24233968674513</v>
+        <v>14.34527471106179</v>
       </c>
       <c r="F13">
-        <v>32.13279222389662</v>
+        <v>39.39788102979367</v>
       </c>
       <c r="G13">
-        <v>40.08100774441635</v>
+        <v>40.06282209499992</v>
       </c>
       <c r="H13">
-        <v>11.56546924042716</v>
+        <v>16.64228333811387</v>
       </c>
       <c r="I13">
-        <v>17.30127832635898</v>
+        <v>25.72409647828863</v>
       </c>
       <c r="J13">
-        <v>5.078072044850829</v>
+        <v>8.121287843888844</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>8.305803099839103</v>
+        <v>12.50071647842006</v>
       </c>
       <c r="M13">
-        <v>15.72924401041467</v>
+        <v>17.69400736682607</v>
       </c>
       <c r="N13">
-        <v>11.32075279803423</v>
+        <v>18.75697223592515</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26.27608550543762</v>
+        <v>18.86350110272921</v>
       </c>
       <c r="C14">
-        <v>16.43514894517238</v>
+        <v>10.80169768685433</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>8.243508320746489</v>
+        <v>14.34785936138885</v>
       </c>
       <c r="F14">
-        <v>31.96188073244216</v>
+        <v>39.38666095548231</v>
       </c>
       <c r="G14">
-        <v>39.79406005365018</v>
+        <v>40.02442474622737</v>
       </c>
       <c r="H14">
-        <v>11.53085624962967</v>
+        <v>16.64586525169886</v>
       </c>
       <c r="I14">
-        <v>17.2688407909841</v>
+        <v>25.73485198416254</v>
       </c>
       <c r="J14">
-        <v>5.083090461348085</v>
+        <v>8.122451306043963</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>8.275762166590555</v>
+        <v>12.49921989486643</v>
       </c>
       <c r="M14">
-        <v>15.61932471829096</v>
+        <v>17.67376635435051</v>
       </c>
       <c r="N14">
-        <v>11.36776363444328</v>
+        <v>18.76887305406522</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.12686990819031</v>
+        <v>18.81277586790553</v>
       </c>
       <c r="C15">
-        <v>16.35142280604273</v>
+        <v>10.76361416686631</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>8.244262510779615</v>
+        <v>14.34945638902128</v>
       </c>
       <c r="F15">
-        <v>31.85744968819906</v>
+        <v>39.37997210250169</v>
       </c>
       <c r="G15">
-        <v>39.61850664638165</v>
+        <v>40.00115506361657</v>
       </c>
       <c r="H15">
-        <v>11.50988466999192</v>
+        <v>16.64812824641087</v>
       </c>
       <c r="I15">
-        <v>17.24943197567082</v>
+        <v>25.74155343841521</v>
       </c>
       <c r="J15">
-        <v>5.08616605429054</v>
+        <v>8.123168684008698</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>8.257378040894658</v>
+        <v>12.49833078176216</v>
       </c>
       <c r="M15">
-        <v>15.55176188228534</v>
+        <v>17.66140708938713</v>
       </c>
       <c r="N15">
-        <v>11.3965843173368</v>
+        <v>18.77619818088208</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.25804415510546</v>
+        <v>18.52026146164314</v>
       </c>
       <c r="C16">
-        <v>15.86510066395175</v>
+        <v>10.54222113562747</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>8.249160298438515</v>
+        <v>14.35882093662071</v>
       </c>
       <c r="F16">
-        <v>31.26299543746563</v>
+        <v>39.34446279309122</v>
       </c>
       <c r="G16">
-        <v>38.61578581530845</v>
+        <v>39.87165961938467</v>
       </c>
       <c r="H16">
-        <v>11.39318195817581</v>
+        <v>16.66215272993244</v>
       </c>
       <c r="I16">
-        <v>17.14512063597426</v>
+        <v>25.78169209494235</v>
       </c>
       <c r="J16">
-        <v>5.103823404350636</v>
+        <v>8.127352261746461</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>8.152299988846559</v>
+        <v>12.49365966645885</v>
       </c>
       <c r="M16">
-        <v>15.16104523859056</v>
+        <v>17.59119134341622</v>
       </c>
       <c r="N16">
-        <v>11.56216483670017</v>
+        <v>18.81872114124092</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>24.71270020129534</v>
+        <v>18.33927506008573</v>
       </c>
       <c r="C17">
-        <v>15.56089740221974</v>
+        <v>10.40362025473369</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>8.252665993095459</v>
+        <v>14.36475581335559</v>
       </c>
       <c r="F17">
-        <v>30.90195102155696</v>
+        <v>39.32520212221512</v>
       </c>
       <c r="G17">
-        <v>38.00370284974597</v>
+        <v>39.79568303816487</v>
       </c>
       <c r="H17">
-        <v>11.32464050159455</v>
+        <v>16.67169767321136</v>
       </c>
       <c r="I17">
-        <v>17.08714498053538</v>
+        <v>25.807861322792</v>
       </c>
       <c r="J17">
-        <v>5.114691645642947</v>
+        <v>8.129983697780082</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>8.08810074216146</v>
+        <v>12.49117372819921</v>
       </c>
       <c r="M17">
-        <v>14.91824961216071</v>
+        <v>17.5486751590444</v>
       </c>
       <c r="N17">
-        <v>11.66415546624241</v>
+        <v>18.84529556842236</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24.39445849135847</v>
+        <v>18.23464924825191</v>
       </c>
       <c r="C18">
-        <v>15.38375927364331</v>
+        <v>10.32288993551835</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>8.254861672152382</v>
+        <v>14.3682393517227</v>
       </c>
       <c r="F18">
-        <v>30.69565195517794</v>
+        <v>39.31505302317282</v>
       </c>
       <c r="G18">
-        <v>37.6528195932325</v>
+        <v>39.75326638345796</v>
       </c>
       <c r="H18">
-        <v>11.28631862752885</v>
+        <v>16.67753318005476</v>
       </c>
       <c r="I18">
-        <v>17.05594905336403</v>
+        <v>25.82347991358468</v>
       </c>
       <c r="J18">
-        <v>5.120958742528831</v>
+        <v>8.131521172042195</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>8.051279088880371</v>
+        <v>12.48988389002272</v>
       </c>
       <c r="M18">
-        <v>14.77748416366277</v>
+        <v>17.52443202256431</v>
       </c>
       <c r="N18">
-        <v>11.72298352017881</v>
+        <v>18.86076024098012</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.28591828416848</v>
+        <v>18.19913790830052</v>
       </c>
       <c r="C19">
-        <v>15.32340965279893</v>
+        <v>10.29538365345936</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>8.255635445643291</v>
+        <v>14.36943084396087</v>
       </c>
       <c r="F19">
-        <v>30.6260398336325</v>
+        <v>39.31177645383775</v>
       </c>
       <c r="G19">
-        <v>37.53422282754618</v>
+        <v>39.73912608511635</v>
       </c>
       <c r="H19">
-        <v>11.27353072870328</v>
+        <v>16.67956827961086</v>
       </c>
       <c r="I19">
-        <v>17.04575014962241</v>
+        <v>25.8288653225737</v>
       </c>
       <c r="J19">
-        <v>5.123083667171569</v>
+        <v>8.132045853509437</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>8.03883051452812</v>
+        <v>12.48947126500792</v>
       </c>
       <c r="M19">
-        <v>14.72963433281289</v>
+        <v>17.51626049150585</v>
       </c>
       <c r="N19">
-        <v>11.74293146695345</v>
+        <v>18.86602722992911</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>24.771225606121</v>
+        <v>18.35859681315188</v>
       </c>
       <c r="C20">
-        <v>15.59350447739431</v>
+        <v>10.41847944965682</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>8.252274143675011</v>
+        <v>14.36411679829363</v>
       </c>
       <c r="F20">
-        <v>30.94024431325282</v>
+        <v>39.32715633167751</v>
       </c>
       <c r="G20">
-        <v>38.06874016654067</v>
+        <v>39.8036382955914</v>
       </c>
       <c r="H20">
-        <v>11.3318224124472</v>
+        <v>16.67064582852458</v>
       </c>
       <c r="I20">
-        <v>17.09309268321783</v>
+        <v>25.80501688045311</v>
       </c>
       <c r="J20">
-        <v>5.113533109773173</v>
+        <v>8.129701100697922</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>8.094924265221556</v>
+        <v>12.49142388119494</v>
       </c>
       <c r="M20">
-        <v>14.94421170240753</v>
+        <v>17.55317936325164</v>
       </c>
       <c r="N20">
-        <v>11.65328155013834</v>
+        <v>18.84244808017499</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.34739689895106</v>
+        <v>18.88779160352884</v>
       </c>
       <c r="C21">
-        <v>16.47518316878365</v>
+        <v>10.81990362918743</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>8.243157038660801</v>
+        <v>14.34709730028695</v>
       </c>
       <c r="F21">
-        <v>32.01202811044211</v>
+        <v>39.38991827941273</v>
       </c>
       <c r="G21">
-        <v>39.87829988231606</v>
+        <v>40.03565098086473</v>
       </c>
       <c r="H21">
-        <v>11.54097490686985</v>
+        <v>16.644798781556</v>
       </c>
       <c r="I21">
-        <v>17.27827226144999</v>
+        <v>25.73166919319736</v>
       </c>
       <c r="J21">
-        <v>5.081616099835133</v>
+        <v>8.122108584980284</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>8.284582450984775</v>
+        <v>12.49965373140151</v>
       </c>
       <c r="M21">
-        <v>15.65165956873485</v>
+        <v>17.67970354753882</v>
       </c>
       <c r="N21">
-        <v>11.35395024766063</v>
+        <v>18.76537009285449</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>27.33757855236691</v>
+        <v>19.22816801208262</v>
       </c>
       <c r="C22">
-        <v>17.0324455313033</v>
+        <v>11.07301175046942</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>8.238902415744093</v>
+        <v>14.33659449554841</v>
       </c>
       <c r="F22">
-        <v>32.72408568201232</v>
+        <v>39.43916715443557</v>
       </c>
       <c r="G22">
-        <v>41.0704858865972</v>
+        <v>40.19849246096642</v>
       </c>
       <c r="H22">
-        <v>11.68790294451777</v>
+        <v>16.63099197854527</v>
       </c>
       <c r="I22">
-        <v>17.41972853440808</v>
+        <v>25.68880436565274</v>
       </c>
       <c r="J22">
-        <v>5.060838630307082</v>
+        <v>8.117358062683806</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>8.409307404791665</v>
+        <v>12.50626850767807</v>
       </c>
       <c r="M22">
-        <v>16.10360249848467</v>
+        <v>17.76415258005084</v>
       </c>
       <c r="N22">
-        <v>11.15948608719197</v>
+        <v>18.71658668056246</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>26.81271418498673</v>
+        <v>19.04704082466001</v>
       </c>
       <c r="C23">
-        <v>16.7367403471215</v>
+        <v>10.93878000926868</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>8.241011701745901</v>
+        <v>14.34214339231061</v>
       </c>
       <c r="F23">
-        <v>32.34301037523598</v>
+        <v>39.41213141585317</v>
       </c>
       <c r="G23">
-        <v>40.43335293578089</v>
+        <v>40.11056668911813</v>
       </c>
       <c r="H23">
-        <v>11.60852760088998</v>
+        <v>16.63807818198607</v>
       </c>
       <c r="I23">
-        <v>17.34229955569732</v>
+        <v>25.71121683236579</v>
       </c>
       <c r="J23">
-        <v>5.071923525186953</v>
+        <v>8.119874218045583</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>8.342675704073551</v>
+        <v>12.50262550833804</v>
       </c>
       <c r="M23">
-        <v>15.86336442989085</v>
+        <v>17.71892562181265</v>
       </c>
       <c r="N23">
-        <v>11.26318423469784</v>
+        <v>18.74247812916412</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>24.74478096915972</v>
+        <v>18.34986322843043</v>
       </c>
       <c r="C24">
-        <v>15.57876982303321</v>
+        <v>10.41176486552369</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>8.252450738628255</v>
+        <v>14.36440547428926</v>
       </c>
       <c r="F24">
-        <v>30.92292795298077</v>
+        <v>39.32626995451496</v>
       </c>
       <c r="G24">
-        <v>38.03933363391347</v>
+        <v>39.80003778622785</v>
       </c>
       <c r="H24">
-        <v>11.32857210037593</v>
+        <v>16.67112028358527</v>
       </c>
       <c r="I24">
-        <v>17.09039709094474</v>
+        <v>25.80630106646502</v>
       </c>
       <c r="J24">
-        <v>5.114056824638518</v>
+        <v>8.129828786095951</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>8.09183907660306</v>
+        <v>12.49131035282031</v>
       </c>
       <c r="M24">
-        <v>14.93247790793091</v>
+        <v>17.55114238823872</v>
       </c>
       <c r="N24">
-        <v>11.65819704534626</v>
+        <v>18.84373484797228</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.3388861746886</v>
+        <v>17.57823832000876</v>
       </c>
       <c r="C25">
-        <v>14.2467229421643</v>
+        <v>9.804850366549166</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>8.271596828641641</v>
+        <v>14.39109479379097</v>
       </c>
       <c r="F25">
-        <v>29.44377582705243</v>
+        <v>39.26918767101044</v>
       </c>
       <c r="G25">
-        <v>35.50279366057944</v>
+        <v>39.51422374472403</v>
       </c>
       <c r="H25">
-        <v>11.06843257693763</v>
+        <v>16.71996385341093</v>
       </c>
       <c r="I25">
-        <v>16.90009473770091</v>
+        <v>25.93051614553584</v>
       </c>
       <c r="J25">
-        <v>5.160143352175851</v>
+        <v>8.141482715011319</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>7.825357893780595</v>
+        <v>12.48446318637896</v>
       </c>
       <c r="M25">
-        <v>13.88618541398023</v>
+        <v>17.3782960113537</v>
       </c>
       <c r="N25">
-        <v>12.09077467026542</v>
+        <v>18.95983530791342</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_3/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_3/res_line/loading_percent.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>16.99788412191014</v>
+        <v>20.41246357266979</v>
       </c>
       <c r="C2">
-        <v>9.326518530489631</v>
+        <v>13.19330619297721</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>14.41306444996972</v>
+        <v>8.291062606164495</v>
       </c>
       <c r="F2">
-        <v>39.25783281856497</v>
+        <v>28.40354136561271</v>
       </c>
       <c r="G2">
-        <v>39.3468876080474</v>
+        <v>33.68193721657948</v>
       </c>
       <c r="H2">
-        <v>16.76722304247926</v>
+        <v>10.91039081080318</v>
       </c>
       <c r="I2">
-        <v>26.04045985153383</v>
+        <v>16.82283441015418</v>
       </c>
       <c r="J2">
-        <v>8.150861607629425</v>
+        <v>5.194914427271492</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>12.48407712883907</v>
+        <v>7.633547359643986</v>
       </c>
       <c r="M2">
-        <v>17.25861238814616</v>
+        <v>13.08321279423312</v>
       </c>
       <c r="N2">
-        <v>19.05130294312527</v>
+        <v>12.41643458070179</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.59957838986409</v>
+        <v>19.00830204341236</v>
       </c>
       <c r="C3">
-        <v>8.983752758379715</v>
+        <v>12.43389878059213</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>14.42940836260917</v>
+        <v>8.307396516590472</v>
       </c>
       <c r="F3">
-        <v>39.26928952732694</v>
+        <v>27.73110187061771</v>
       </c>
       <c r="G3">
-        <v>39.26067236931777</v>
+        <v>32.48216596987191</v>
       </c>
       <c r="H3">
-        <v>16.806263338886</v>
+        <v>10.82284340879308</v>
       </c>
       <c r="I3">
-        <v>26.12642817044946</v>
+        <v>16.80600681219681</v>
       </c>
       <c r="J3">
-        <v>8.157720764025218</v>
+        <v>5.219129038185046</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>12.48674129313509</v>
+        <v>7.506783579598568</v>
       </c>
       <c r="M3">
-        <v>17.18251165123601</v>
+        <v>12.52129567171042</v>
       </c>
       <c r="N3">
-        <v>19.11705770635037</v>
+        <v>12.64231700497295</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.35350579027716</v>
+        <v>18.10422275577948</v>
       </c>
       <c r="C4">
-        <v>8.764543140776011</v>
+        <v>11.94527559640583</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>14.4401641084054</v>
+        <v>8.318915247505993</v>
       </c>
       <c r="F4">
-        <v>39.28576578983733</v>
+        <v>27.3349663580613</v>
       </c>
       <c r="G4">
-        <v>39.22121054910279</v>
+        <v>31.76436070913179</v>
       </c>
       <c r="H4">
-        <v>16.83368068097822</v>
+        <v>10.77826197223177</v>
       </c>
       <c r="I4">
-        <v>26.18484011123047</v>
+        <v>16.81196570743952</v>
       </c>
       <c r="J4">
-        <v>8.162182109599648</v>
+        <v>5.234355499937119</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>12.48982704942565</v>
+        <v>7.430710237973731</v>
       </c>
       <c r="M4">
-        <v>17.13834541705754</v>
+        <v>12.16863927151749</v>
       </c>
       <c r="N4">
-        <v>19.15930016257053</v>
+        <v>12.78378323679347</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.25300017608063</v>
+        <v>17.74767475842815</v>
       </c>
       <c r="C5">
-        <v>8.673086493014198</v>
+        <v>11.74057535986415</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>14.44472876194452</v>
+        <v>8.32397567148953</v>
       </c>
       <c r="F5">
-        <v>39.29485279665398</v>
+        <v>27.17785019413165</v>
       </c>
       <c r="G5">
-        <v>39.20852421116899</v>
+        <v>31.47690861731286</v>
       </c>
       <c r="H5">
-        <v>16.8457182044415</v>
+        <v>10.76232784752479</v>
       </c>
       <c r="I5">
-        <v>26.21005464577235</v>
+        <v>16.81830676661347</v>
       </c>
       <c r="J5">
-        <v>8.164063200236486</v>
+        <v>5.240655793116142</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>12.49145015741187</v>
+        <v>7.400178065405154</v>
       </c>
       <c r="M5">
-        <v>17.12100410441971</v>
+        <v>12.02320447118294</v>
       </c>
       <c r="N5">
-        <v>19.17698572607394</v>
+        <v>12.84215945460905</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.23630198021537</v>
+        <v>17.68785569873436</v>
       </c>
       <c r="C6">
-        <v>8.657774044300737</v>
+        <v>11.70624934614509</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>14.44549769975837</v>
+        <v>8.324837858520439</v>
       </c>
       <c r="F6">
-        <v>39.29650493164932</v>
+        <v>27.15202438513316</v>
       </c>
       <c r="G6">
-        <v>39.20662278606976</v>
+        <v>31.42949234165064</v>
       </c>
       <c r="H6">
-        <v>16.84776919570395</v>
+        <v>10.75981466353827</v>
       </c>
       <c r="I6">
-        <v>26.2143266206559</v>
+        <v>16.8195906487244</v>
       </c>
       <c r="J6">
-        <v>8.164379369471623</v>
+        <v>5.241707859443144</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>12.49174178554803</v>
+        <v>7.39513724974203</v>
       </c>
       <c r="M6">
-        <v>17.11816462793683</v>
+        <v>11.99895722177068</v>
       </c>
       <c r="N6">
-        <v>19.17995091725231</v>
+        <v>12.85189757944952</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.35215106029798</v>
+        <v>18.09945550447658</v>
       </c>
       <c r="C7">
-        <v>8.763318232841479</v>
+        <v>11.94253747728009</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>14.44022493305425</v>
+        <v>8.318982020671033</v>
       </c>
       <c r="F7">
-        <v>39.28587873590683</v>
+        <v>27.33282984762555</v>
       </c>
       <c r="G7">
-        <v>39.22102570668173</v>
+        <v>31.7604631215227</v>
       </c>
       <c r="H7">
-        <v>16.83383952459916</v>
+        <v>10.77803813652162</v>
       </c>
       <c r="I7">
-        <v>26.18517445448774</v>
+        <v>16.81203562515095</v>
       </c>
       <c r="J7">
-        <v>8.162207223019873</v>
+        <v>5.234440075016037</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>12.48984745746405</v>
+        <v>7.430296540499781</v>
       </c>
       <c r="M7">
-        <v>17.13810887006143</v>
+        <v>12.1666845909552</v>
       </c>
       <c r="N7">
-        <v>19.1595367655264</v>
+        <v>12.78456753409127</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>16.86095079976051</v>
+        <v>19.93847584668527</v>
       </c>
       <c r="C8">
-        <v>9.210190200593503</v>
+        <v>12.93611552807636</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>14.41855053957188</v>
+        <v>8.296380248723176</v>
       </c>
       <c r="F8">
-        <v>39.25982296360402</v>
+        <v>28.16827239229197</v>
       </c>
       <c r="G8">
-        <v>39.31436902470318</v>
+        <v>33.26452920173134</v>
       </c>
       <c r="H8">
-        <v>16.77996772084293</v>
+        <v>10.87825745372968</v>
       </c>
       <c r="I8">
-        <v>26.06893159409484</v>
+        <v>16.81354048793421</v>
       </c>
       <c r="J8">
-        <v>8.153174945754772</v>
+        <v>5.203192445356544</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>12.48469543854892</v>
+        <v>7.5894894248471</v>
       </c>
       <c r="M8">
-        <v>17.23184960731734</v>
+        <v>12.89115825440518</v>
       </c>
       <c r="N8">
-        <v>19.07358823130633</v>
+        <v>12.49376184671823</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>17.84038741821795</v>
+        <v>23.17311928057303</v>
       </c>
       <c r="C9">
-        <v>10.01429796502007</v>
+        <v>14.7066496793002</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>14.38174544469971</v>
+        <v>8.264283483577033</v>
       </c>
       <c r="F9">
-        <v>39.28365625284484</v>
+        <v>29.93470408615613</v>
       </c>
       <c r="G9">
-        <v>39.60385368565238</v>
+        <v>36.35055094890086</v>
       </c>
       <c r="H9">
-        <v>16.70175191449395</v>
+        <v>11.15068679112128</v>
       </c>
       <c r="I9">
-        <v>25.88579332059169</v>
+        <v>16.95394945815607</v>
       </c>
       <c r="J9">
-        <v>8.137433759458286</v>
+        <v>5.144506984147705</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>12.48604953813173</v>
+        <v>7.914501539553072</v>
       </c>
       <c r="M9">
-        <v>17.43538025697428</v>
+        <v>14.24398331433062</v>
       </c>
       <c r="N9">
-        <v>18.91980170636602</v>
+        <v>11.94404891707941</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>18.54083903645992</v>
+        <v>25.3196544901468</v>
       </c>
       <c r="C10">
-        <v>10.55789859906869</v>
+        <v>15.89951956374425</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>14.35815319628381</v>
+        <v>8.24878491364561</v>
       </c>
       <c r="F10">
-        <v>39.34678633868141</v>
+        <v>31.30437582048388</v>
       </c>
       <c r="G10">
-        <v>39.88050224013845</v>
+        <v>38.68578365361957</v>
       </c>
       <c r="H10">
-        <v>16.66111043582221</v>
+        <v>11.4011537201719</v>
       </c>
       <c r="I10">
-        <v>25.77878288758604</v>
+        <v>17.15203181962608</v>
       </c>
       <c r="J10">
-        <v>8.127055235406521</v>
+        <v>5.10258523183469</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>12.49396226555705</v>
+        <v>8.159639118542634</v>
       </c>
       <c r="M10">
-        <v>17.59607092585657</v>
+        <v>15.18859684330358</v>
       </c>
       <c r="N10">
-        <v>18.81571314112175</v>
+        <v>11.55054843748393</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.85380821658132</v>
+        <v>26.24760378449434</v>
       </c>
       <c r="C11">
-        <v>10.79442722627318</v>
+        <v>16.41916305798215</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>14.34816393995575</v>
+        <v>8.243650279628817</v>
       </c>
       <c r="F11">
-        <v>39.38537093770116</v>
+        <v>31.9418950221036</v>
       </c>
       <c r="G11">
-        <v>40.01996003279721</v>
+        <v>39.76047633289083</v>
       </c>
       <c r="H11">
-        <v>16.64629391547804</v>
+        <v>11.52683224533754</v>
       </c>
       <c r="I11">
-        <v>25.7361267836072</v>
+        <v>17.26510205592205</v>
       </c>
       <c r="J11">
-        <v>8.122588210339174</v>
+        <v>5.0836785041621</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>12.49904823190547</v>
+        <v>8.272245548590895</v>
       </c>
       <c r="M11">
-        <v>17.6714005637889</v>
+        <v>15.6064184846937</v>
       </c>
       <c r="N11">
-        <v>18.77027173414248</v>
+        <v>11.37327350786953</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.97139043096632</v>
+        <v>26.59213615169432</v>
       </c>
       <c r="C12">
-        <v>10.88241155790651</v>
+        <v>16.6126816260499</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>14.34448769549276</v>
+        <v>8.241996776690522</v>
       </c>
       <c r="F12">
-        <v>39.40139476425674</v>
+        <v>32.18530161729721</v>
       </c>
       <c r="G12">
-        <v>40.07469546068037</v>
+        <v>40.16907891909259</v>
       </c>
       <c r="H12">
-        <v>16.64121253232673</v>
+        <v>11.5761749389383</v>
       </c>
       <c r="I12">
-        <v>25.72084375129933</v>
+        <v>17.31140972634062</v>
       </c>
       <c r="J12">
-        <v>8.120932970234847</v>
+        <v>5.076533825912218</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>12.50118637876556</v>
+        <v>8.315021227008081</v>
       </c>
       <c r="M12">
-        <v>17.70022935739118</v>
+        <v>15.76285516814761</v>
       </c>
       <c r="N12">
-        <v>18.75333721007906</v>
+        <v>11.3063473872251</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.94611023800531</v>
+        <v>26.51823821089391</v>
       </c>
       <c r="C13">
-        <v>10.86353353446568</v>
+        <v>16.57114799209723</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>14.34527471106179</v>
+        <v>8.242339686745131</v>
       </c>
       <c r="F13">
-        <v>39.39788102979367</v>
+        <v>32.13279222389667</v>
       </c>
       <c r="G13">
-        <v>40.06282209499992</v>
+        <v>40.08100774441645</v>
       </c>
       <c r="H13">
-        <v>16.64228333811387</v>
+        <v>11.56546924042723</v>
       </c>
       <c r="I13">
-        <v>25.72409647828863</v>
+        <v>17.30127832635906</v>
       </c>
       <c r="J13">
-        <v>8.121287843888844</v>
+        <v>5.078072044850859</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>12.50071647842006</v>
+        <v>8.305803099839133</v>
       </c>
       <c r="M13">
-        <v>17.69400736682607</v>
+        <v>15.72924401041467</v>
       </c>
       <c r="N13">
-        <v>18.75697223592515</v>
+        <v>11.32075279803426</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.86350110272921</v>
+        <v>26.27608550543766</v>
       </c>
       <c r="C14">
-        <v>10.80169768685433</v>
+        <v>16.43514894517236</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>14.34785936138885</v>
+        <v>8.243508320746615</v>
       </c>
       <c r="F14">
-        <v>39.38666095548231</v>
+        <v>31.96188073244221</v>
       </c>
       <c r="G14">
-        <v>40.02442474622737</v>
+        <v>39.79406005365022</v>
       </c>
       <c r="H14">
-        <v>16.64586525169886</v>
+        <v>11.53085624962967</v>
       </c>
       <c r="I14">
-        <v>25.73485198416254</v>
+        <v>17.26884079098407</v>
       </c>
       <c r="J14">
-        <v>8.122451306043963</v>
+        <v>5.083090461348117</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>12.49921989486643</v>
+        <v>8.275762166590603</v>
       </c>
       <c r="M14">
-        <v>17.67376635435051</v>
+        <v>15.61932471829097</v>
       </c>
       <c r="N14">
-        <v>18.76887305406522</v>
+        <v>11.36776363444321</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>18.81277586790553</v>
+        <v>26.1268699081903</v>
       </c>
       <c r="C15">
-        <v>10.76361416686631</v>
+        <v>16.35142280604273</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>14.34945638902128</v>
+        <v>8.244262510779553</v>
       </c>
       <c r="F15">
-        <v>39.37997210250169</v>
+        <v>31.85744968819902</v>
       </c>
       <c r="G15">
-        <v>40.00115506361657</v>
+        <v>39.6185066463816</v>
       </c>
       <c r="H15">
-        <v>16.64812824641087</v>
+        <v>11.50988466999188</v>
       </c>
       <c r="I15">
-        <v>25.74155343841521</v>
+        <v>17.24943197567079</v>
       </c>
       <c r="J15">
-        <v>8.123168684008698</v>
+        <v>5.086166054290539</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>12.49833078176216</v>
+        <v>8.25737804089462</v>
       </c>
       <c r="M15">
-        <v>17.66140708938713</v>
+        <v>15.55176188228534</v>
       </c>
       <c r="N15">
-        <v>18.77619818088208</v>
+        <v>11.39658431733673</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>18.52026146164314</v>
+        <v>25.25804415510549</v>
       </c>
       <c r="C16">
-        <v>10.54222113562747</v>
+        <v>15.86510066395177</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>14.35882093662071</v>
+        <v>8.249160298438513</v>
       </c>
       <c r="F16">
-        <v>39.34446279309122</v>
+        <v>31.26299543746558</v>
       </c>
       <c r="G16">
-        <v>39.87165961938467</v>
+        <v>38.61578581530847</v>
       </c>
       <c r="H16">
-        <v>16.66215272993244</v>
+        <v>11.39318195817578</v>
       </c>
       <c r="I16">
-        <v>25.78169209494235</v>
+        <v>17.14512063597421</v>
       </c>
       <c r="J16">
-        <v>8.127352261746461</v>
+        <v>5.103823404350637</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>12.49365966645885</v>
+        <v>8.152299988846547</v>
       </c>
       <c r="M16">
-        <v>17.59119134341622</v>
+        <v>15.16104523859055</v>
       </c>
       <c r="N16">
-        <v>18.81872114124092</v>
+        <v>11.56216483670014</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>18.33927506008573</v>
+        <v>24.71270020129533</v>
       </c>
       <c r="C17">
-        <v>10.40362025473369</v>
+        <v>15.56089740221997</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>14.36475581335559</v>
+        <v>8.252665993095649</v>
       </c>
       <c r="F17">
-        <v>39.32520212221512</v>
+        <v>30.90195102155705</v>
       </c>
       <c r="G17">
-        <v>39.79568303816487</v>
+        <v>38.00370284974604</v>
       </c>
       <c r="H17">
-        <v>16.67169767321136</v>
+        <v>11.3246405015946</v>
       </c>
       <c r="I17">
-        <v>25.807861322792</v>
+        <v>17.08714498053547</v>
       </c>
       <c r="J17">
-        <v>8.129983697780082</v>
+        <v>5.114691645642979</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>12.49117372819921</v>
+        <v>8.088100742161465</v>
       </c>
       <c r="M17">
-        <v>17.5486751590444</v>
+        <v>14.91824961216075</v>
       </c>
       <c r="N17">
-        <v>18.84529556842236</v>
+        <v>11.66415546624244</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>18.23464924825191</v>
+        <v>24.39445849135847</v>
       </c>
       <c r="C18">
-        <v>10.32288993551835</v>
+        <v>15.38375927364335</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>14.3682393517227</v>
+        <v>8.254861672152506</v>
       </c>
       <c r="F18">
-        <v>39.31505302317282</v>
+        <v>30.69565195517798</v>
       </c>
       <c r="G18">
-        <v>39.75326638345796</v>
+        <v>37.65281959323256</v>
       </c>
       <c r="H18">
-        <v>16.67753318005476</v>
+        <v>11.28631862752888</v>
       </c>
       <c r="I18">
-        <v>25.82347991358468</v>
+        <v>17.05594905336411</v>
       </c>
       <c r="J18">
-        <v>8.131521172042195</v>
+        <v>5.120958742528895</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>12.48988389002272</v>
+        <v>8.051279088880372</v>
       </c>
       <c r="M18">
-        <v>17.52443202256431</v>
+        <v>14.77748416366279</v>
       </c>
       <c r="N18">
-        <v>18.86076024098012</v>
+        <v>11.72298352017887</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>18.19913790830052</v>
+        <v>24.28591828416853</v>
       </c>
       <c r="C19">
-        <v>10.29538365345936</v>
+        <v>15.32340965279901</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>14.36943084396087</v>
+        <v>8.255635445643161</v>
       </c>
       <c r="F19">
-        <v>39.31177645383775</v>
+        <v>30.62603983363251</v>
       </c>
       <c r="G19">
-        <v>39.73912608511635</v>
+        <v>37.53422282754621</v>
       </c>
       <c r="H19">
-        <v>16.67956827961086</v>
+        <v>11.2735307287033</v>
       </c>
       <c r="I19">
-        <v>25.8288653225737</v>
+        <v>17.04575014962243</v>
       </c>
       <c r="J19">
-        <v>8.132045853509437</v>
+        <v>5.123083667171399</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>12.48947126500792</v>
+        <v>8.038830514528064</v>
       </c>
       <c r="M19">
-        <v>17.51626049150585</v>
+        <v>14.72963433281287</v>
       </c>
       <c r="N19">
-        <v>18.86602722992911</v>
+        <v>11.74293146695345</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>18.35859681315188</v>
+        <v>24.77122560612101</v>
       </c>
       <c r="C20">
-        <v>10.41847944965682</v>
+        <v>15.59350447739427</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>14.36411679829363</v>
+        <v>8.25227414367501</v>
       </c>
       <c r="F20">
-        <v>39.32715633167751</v>
+        <v>30.94024431325287</v>
       </c>
       <c r="G20">
-        <v>39.8036382955914</v>
+        <v>38.06874016654074</v>
       </c>
       <c r="H20">
-        <v>16.67064582852458</v>
+        <v>11.33182241244728</v>
       </c>
       <c r="I20">
-        <v>25.80501688045311</v>
+        <v>17.09309268321785</v>
       </c>
       <c r="J20">
-        <v>8.129701100697922</v>
+        <v>5.113533109773169</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>12.49142388119494</v>
+        <v>8.094924265221589</v>
       </c>
       <c r="M20">
-        <v>17.55317936325164</v>
+        <v>14.94421170240754</v>
       </c>
       <c r="N20">
-        <v>18.84244808017499</v>
+        <v>11.65328155013834</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.88779160352884</v>
+        <v>26.34739689895108</v>
       </c>
       <c r="C21">
-        <v>10.81990362918743</v>
+        <v>16.47518316878368</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>14.34709730028695</v>
+        <v>8.243157038660669</v>
       </c>
       <c r="F21">
-        <v>39.38991827941273</v>
+        <v>32.01202811044217</v>
       </c>
       <c r="G21">
-        <v>40.03565098086473</v>
+        <v>39.87829988231616</v>
       </c>
       <c r="H21">
-        <v>16.644798781556</v>
+        <v>11.54097490686992</v>
       </c>
       <c r="I21">
-        <v>25.73166919319736</v>
+        <v>17.27827226145005</v>
       </c>
       <c r="J21">
-        <v>8.122108584980284</v>
+        <v>5.081616099835031</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>12.49965373140151</v>
+        <v>8.28458245098472</v>
       </c>
       <c r="M21">
-        <v>17.67970354753882</v>
+        <v>15.65165956873483</v>
       </c>
       <c r="N21">
-        <v>18.76537009285449</v>
+        <v>11.35395024766066</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>19.22816801208262</v>
+        <v>27.33757855236695</v>
       </c>
       <c r="C22">
-        <v>11.07301175046942</v>
+        <v>17.03244553130321</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>14.33659449554841</v>
+        <v>8.238902415744032</v>
       </c>
       <c r="F22">
-        <v>39.43916715443557</v>
+        <v>32.72408568201237</v>
       </c>
       <c r="G22">
-        <v>40.19849246096642</v>
+        <v>41.07048588659724</v>
       </c>
       <c r="H22">
-        <v>16.63099197854527</v>
+        <v>11.68790294451779</v>
       </c>
       <c r="I22">
-        <v>25.68880436565274</v>
+        <v>17.41972853440809</v>
       </c>
       <c r="J22">
-        <v>8.117358062683806</v>
+        <v>5.060838630307015</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>12.50626850767807</v>
+        <v>8.409307404791688</v>
       </c>
       <c r="M22">
-        <v>17.76415258005084</v>
+        <v>16.10360249848468</v>
       </c>
       <c r="N22">
-        <v>18.71658668056246</v>
+        <v>11.159486087192</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>19.04704082466001</v>
+        <v>26.81271418498681</v>
       </c>
       <c r="C23">
-        <v>10.93878000926868</v>
+        <v>16.73674034712142</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>14.34214339231061</v>
+        <v>8.241011701746032</v>
       </c>
       <c r="F23">
-        <v>39.41213141585317</v>
+        <v>32.34301037523597</v>
       </c>
       <c r="G23">
-        <v>40.11056668911813</v>
+        <v>40.43335293578093</v>
       </c>
       <c r="H23">
-        <v>16.63807818198607</v>
+        <v>11.60852760088993</v>
       </c>
       <c r="I23">
-        <v>25.71121683236579</v>
+        <v>17.3422995556972</v>
       </c>
       <c r="J23">
-        <v>8.119874218045583</v>
+        <v>5.071923525186981</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>12.50262550833804</v>
+        <v>8.342675704073651</v>
       </c>
       <c r="M23">
-        <v>17.71892562181265</v>
+        <v>15.86336442989087</v>
       </c>
       <c r="N23">
-        <v>18.74247812916412</v>
+        <v>11.26318423469773</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>18.34986322843043</v>
+        <v>24.74478096915962</v>
       </c>
       <c r="C24">
-        <v>10.41176486552369</v>
+        <v>15.57876982303322</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>14.36440547428926</v>
+        <v>8.252450738628262</v>
       </c>
       <c r="F24">
-        <v>39.32626995451496</v>
+        <v>30.92292795298083</v>
       </c>
       <c r="G24">
-        <v>39.80003778622785</v>
+        <v>38.03933363391359</v>
       </c>
       <c r="H24">
-        <v>16.67112028358527</v>
+        <v>11.32857210037599</v>
       </c>
       <c r="I24">
-        <v>25.80630106646502</v>
+        <v>17.09039709094488</v>
       </c>
       <c r="J24">
-        <v>8.129828786095951</v>
+        <v>5.11405682463858</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>12.49131035282031</v>
+        <v>8.091839076603071</v>
       </c>
       <c r="M24">
-        <v>17.55114238823872</v>
+        <v>14.93247790793093</v>
       </c>
       <c r="N24">
-        <v>18.84373484797228</v>
+        <v>11.65819704534636</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>17.57823832000876</v>
+        <v>22.33888617468864</v>
       </c>
       <c r="C25">
-        <v>9.804850366549166</v>
+        <v>14.24672294216419</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>14.39109479379097</v>
+        <v>8.271596828641901</v>
       </c>
       <c r="F25">
-        <v>39.26918767101044</v>
+        <v>29.44377582705256</v>
       </c>
       <c r="G25">
-        <v>39.51422374472403</v>
+        <v>35.50279366057944</v>
       </c>
       <c r="H25">
-        <v>16.71996385341093</v>
+        <v>11.06843257693768</v>
       </c>
       <c r="I25">
-        <v>25.93051614553584</v>
+        <v>16.90009473770093</v>
       </c>
       <c r="J25">
-        <v>8.141482715011319</v>
+        <v>5.160143352175849</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>12.48446318637896</v>
+        <v>7.825357893780738</v>
       </c>
       <c r="M25">
-        <v>17.3782960113537</v>
+        <v>13.88618541398027</v>
       </c>
       <c r="N25">
-        <v>18.95983530791342</v>
+        <v>12.09077467026549</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_3/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_3/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,1282 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.41246357266979</v>
+        <v>13.43882946421209</v>
       </c>
       <c r="C2">
-        <v>13.19330619297721</v>
+        <v>6.52050747732774</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>8.291062606164495</v>
+        <v>8.213609829158411</v>
       </c>
       <c r="F2">
-        <v>28.40354136561271</v>
+        <v>29.42311056163301</v>
       </c>
       <c r="G2">
-        <v>33.68193721657948</v>
+        <v>32.46577370342357</v>
       </c>
       <c r="H2">
-        <v>10.91039081080318</v>
+        <v>3.357436196411698</v>
       </c>
       <c r="I2">
-        <v>16.82283441015418</v>
+        <v>3.900353334731946</v>
       </c>
       <c r="J2">
-        <v>5.194914427271492</v>
+        <v>11.54878393108066</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>18.93460206375029</v>
       </c>
       <c r="L2">
-        <v>7.633547359643986</v>
+        <v>6.042478067852569</v>
       </c>
       <c r="M2">
-        <v>13.08321279423312</v>
+        <v>10.63163425660226</v>
       </c>
       <c r="N2">
-        <v>12.41643458070179</v>
+        <v>7.362162251204538</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>10.82697647570626</v>
+      </c>
+      <c r="P2">
+        <v>14.31658146413103</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.00830204341236</v>
+        <v>12.6367108502925</v>
       </c>
       <c r="C3">
-        <v>12.43389878059213</v>
+        <v>6.235043548938463</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>8.307396516590472</v>
+        <v>8.003813355638991</v>
       </c>
       <c r="F3">
-        <v>27.73110187061771</v>
+        <v>28.75973510665077</v>
       </c>
       <c r="G3">
-        <v>32.48216596987191</v>
+        <v>31.97070211444997</v>
       </c>
       <c r="H3">
-        <v>10.82284340879308</v>
+        <v>3.569503007202504</v>
       </c>
       <c r="I3">
-        <v>16.80600681219681</v>
+        <v>4.065835520796711</v>
       </c>
       <c r="J3">
-        <v>5.219129038185046</v>
+        <v>11.53408563797376</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>18.87866176540043</v>
       </c>
       <c r="L3">
-        <v>7.506783579598568</v>
+        <v>5.97469365251237</v>
       </c>
       <c r="M3">
-        <v>12.52129567171042</v>
+        <v>9.966224583530456</v>
       </c>
       <c r="N3">
-        <v>12.64231700497295</v>
+        <v>7.148242372266478</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>10.42462136660803</v>
+      </c>
+      <c r="P3">
+        <v>14.45722215544981</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.10422275577948</v>
+        <v>12.11682265503964</v>
       </c>
       <c r="C4">
-        <v>11.94527559640583</v>
+        <v>6.054502125948964</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>8.318915247505993</v>
+        <v>7.871765137285172</v>
       </c>
       <c r="F4">
-        <v>27.3349663580613</v>
+        <v>28.35134980156849</v>
       </c>
       <c r="G4">
-        <v>31.76436070913179</v>
+        <v>31.67230441949384</v>
       </c>
       <c r="H4">
-        <v>10.77826197223177</v>
+        <v>3.704581841771492</v>
       </c>
       <c r="I4">
-        <v>16.81196570743952</v>
+        <v>4.171813389391843</v>
       </c>
       <c r="J4">
-        <v>5.234355499937119</v>
+        <v>11.5276501741923</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>18.8472079268097</v>
       </c>
       <c r="L4">
-        <v>7.430710237973731</v>
+        <v>5.931641599431422</v>
       </c>
       <c r="M4">
-        <v>12.16863927151749</v>
+        <v>9.533795960367573</v>
       </c>
       <c r="N4">
-        <v>12.78378323679347</v>
+        <v>7.014697888577238</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>10.17051579544979</v>
+      </c>
+      <c r="P4">
+        <v>14.54478247458312</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.74767475842815</v>
+        <v>11.89295143571223</v>
       </c>
       <c r="C5">
-        <v>11.74057535986415</v>
+        <v>5.982897478060007</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>8.32397567148953</v>
+        <v>7.817214187107739</v>
       </c>
       <c r="F5">
-        <v>27.17785019413165</v>
+        <v>28.17702160130777</v>
       </c>
       <c r="G5">
-        <v>31.47690861731286</v>
+        <v>31.53710546718764</v>
       </c>
       <c r="H5">
-        <v>10.76232784752479</v>
+        <v>3.761208696658995</v>
       </c>
       <c r="I5">
-        <v>16.81830676661347</v>
+        <v>4.218565934984761</v>
       </c>
       <c r="J5">
-        <v>5.240655793116142</v>
+        <v>11.52299917248562</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>18.8289268527884</v>
       </c>
       <c r="L5">
-        <v>7.400178065405154</v>
+        <v>5.913998334805205</v>
       </c>
       <c r="M5">
-        <v>12.02320447118294</v>
+        <v>9.350312318187511</v>
       </c>
       <c r="N5">
-        <v>12.84215945460905</v>
+        <v>6.96153476171459</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>10.06479414588902</v>
+      </c>
+      <c r="P5">
+        <v>14.57955409027348</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.68785569873436</v>
+        <v>11.84897064114176</v>
       </c>
       <c r="C6">
-        <v>11.70624934614509</v>
+        <v>5.974949225785775</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>8.324837858520439</v>
+        <v>7.8081553361687</v>
       </c>
       <c r="F6">
-        <v>27.15202438513316</v>
+        <v>28.13849905431818</v>
       </c>
       <c r="G6">
-        <v>31.42949234165064</v>
+        <v>31.49631833135866</v>
       </c>
       <c r="H6">
-        <v>10.75981466353827</v>
+        <v>3.771102580205053</v>
       </c>
       <c r="I6">
-        <v>16.8195906487244</v>
+        <v>4.229529803594901</v>
       </c>
       <c r="J6">
-        <v>5.241707859443144</v>
+        <v>11.51900453805072</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>18.81838032803269</v>
       </c>
       <c r="L6">
-        <v>7.39513724974203</v>
+        <v>5.911369213075377</v>
       </c>
       <c r="M6">
-        <v>11.99895722177068</v>
+        <v>9.317928547424318</v>
       </c>
       <c r="N6">
-        <v>12.85189757944952</v>
+        <v>6.954825810286941</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>10.04649931674112</v>
+      </c>
+      <c r="P6">
+        <v>14.58385436960955</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.09945550447658</v>
+        <v>12.09672041330182</v>
       </c>
       <c r="C7">
-        <v>11.94253747728009</v>
+        <v>6.064373854457648</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>8.318982020671033</v>
+        <v>7.871158598376249</v>
       </c>
       <c r="F7">
-        <v>27.33282984762555</v>
+        <v>28.32306590229958</v>
       </c>
       <c r="G7">
-        <v>31.7604631215227</v>
+        <v>31.62042716528801</v>
       </c>
       <c r="H7">
-        <v>10.77803813652162</v>
+        <v>3.706457409102839</v>
       </c>
       <c r="I7">
-        <v>16.81203562515095</v>
+        <v>4.180735086387494</v>
       </c>
       <c r="J7">
-        <v>5.234440075016037</v>
+        <v>11.51870427340553</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>18.82638058377707</v>
       </c>
       <c r="L7">
-        <v>7.430296540499781</v>
+        <v>5.932305589245779</v>
       </c>
       <c r="M7">
-        <v>12.1666845909552</v>
+        <v>9.527190881173251</v>
       </c>
       <c r="N7">
-        <v>12.78456753409127</v>
+        <v>7.019788474398752</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>10.16735456349378</v>
+      </c>
+      <c r="P7">
+        <v>14.54122491982588</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19.93847584668527</v>
+        <v>13.1469410843524</v>
       </c>
       <c r="C8">
-        <v>12.93611552807636</v>
+        <v>6.436878533260843</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>8.296380248723176</v>
+        <v>8.142141798621287</v>
       </c>
       <c r="F8">
-        <v>28.16827239229197</v>
+        <v>29.16144291613941</v>
       </c>
       <c r="G8">
-        <v>33.26452920173134</v>
+        <v>32.2291471653764</v>
       </c>
       <c r="H8">
-        <v>10.87825745372968</v>
+        <v>3.430955180127744</v>
       </c>
       <c r="I8">
-        <v>16.81354048793421</v>
+        <v>3.967041655883409</v>
       </c>
       <c r="J8">
-        <v>5.203192445356544</v>
+        <v>11.53153598147209</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>18.88775150967824</v>
       </c>
       <c r="L8">
-        <v>7.5894894248471</v>
+        <v>6.02068099821524</v>
       </c>
       <c r="M8">
-        <v>12.89115825440518</v>
+        <v>10.40204396347823</v>
       </c>
       <c r="N8">
-        <v>12.49376184671823</v>
+        <v>7.29631315149816</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>10.68756197618536</v>
+      </c>
+      <c r="P8">
+        <v>14.35973412780277</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.17311928057303</v>
+        <v>15.0133061370487</v>
       </c>
       <c r="C9">
-        <v>14.7066496793002</v>
+        <v>7.107081468792344</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>8.264283483577033</v>
+        <v>8.64621112855812</v>
       </c>
       <c r="F9">
-        <v>29.93470408615613</v>
+        <v>30.83354674771154</v>
       </c>
       <c r="G9">
-        <v>36.35055094890086</v>
+        <v>33.55120322610845</v>
       </c>
       <c r="H9">
-        <v>11.15068679112128</v>
+        <v>2.926723921993261</v>
       </c>
       <c r="I9">
-        <v>16.95394945815607</v>
+        <v>3.568549980683228</v>
       </c>
       <c r="J9">
-        <v>5.144506984147705</v>
+        <v>11.59353928434935</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>19.06795025843242</v>
       </c>
       <c r="L9">
-        <v>7.914501539553072</v>
+        <v>6.180874409289292</v>
       </c>
       <c r="M9">
-        <v>14.24398331433062</v>
+        <v>11.93506641583829</v>
       </c>
       <c r="N9">
-        <v>11.94404891707941</v>
+        <v>7.808968689879298</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>11.64965771911062</v>
+      </c>
+      <c r="P9">
+        <v>14.01962974526834</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.3196544901468</v>
+        <v>16.20114795305836</v>
       </c>
       <c r="C10">
-        <v>15.89951956374425</v>
+        <v>7.597261233803524</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>8.24878491364561</v>
+        <v>8.908025749504048</v>
       </c>
       <c r="F10">
-        <v>31.30437582048388</v>
+        <v>31.84482001376047</v>
       </c>
       <c r="G10">
-        <v>38.68578365361957</v>
+        <v>34.32694007973848</v>
       </c>
       <c r="H10">
-        <v>11.4011537201719</v>
+        <v>2.605985195640656</v>
       </c>
       <c r="I10">
-        <v>17.15203181962608</v>
+        <v>3.306490692395672</v>
       </c>
       <c r="J10">
-        <v>5.10258523183469</v>
+        <v>11.61274192031899</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>19.1292452959794</v>
       </c>
       <c r="L10">
-        <v>8.159639118542634</v>
+        <v>6.30341442369421</v>
       </c>
       <c r="M10">
-        <v>15.18859684330358</v>
+        <v>12.93060462838766</v>
       </c>
       <c r="N10">
-        <v>11.55054843748393</v>
+        <v>8.092992193517826</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>12.24423294302023</v>
+      </c>
+      <c r="P10">
+        <v>13.75904161786878</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.24760378449434</v>
+        <v>16.35724505175259</v>
       </c>
       <c r="C11">
-        <v>16.41916305798215</v>
+        <v>7.9964075955073</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>8.243650279628817</v>
+        <v>8.289062570930673</v>
       </c>
       <c r="F11">
-        <v>31.9418950221036</v>
+        <v>30.66101508030881</v>
       </c>
       <c r="G11">
-        <v>39.76047633289083</v>
+        <v>32.93641197652752</v>
       </c>
       <c r="H11">
-        <v>11.52683224533754</v>
+        <v>3.361393078363541</v>
       </c>
       <c r="I11">
-        <v>17.26510205592205</v>
+        <v>3.252875016119689</v>
       </c>
       <c r="J11">
-        <v>5.0836785041621</v>
+        <v>11.30067760727232</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>18.47280198638483</v>
       </c>
       <c r="L11">
-        <v>8.272245548590895</v>
+        <v>6.47728010910138</v>
       </c>
       <c r="M11">
-        <v>15.6064184846937</v>
+        <v>13.2318448543208</v>
       </c>
       <c r="N11">
-        <v>11.37327350786953</v>
+        <v>7.545119556345728</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>11.91080783043949</v>
+      </c>
+      <c r="P11">
+        <v>13.5325011353437</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>26.59213615169432</v>
+        <v>16.26335750461865</v>
       </c>
       <c r="C12">
-        <v>16.6126816260499</v>
+        <v>8.224502426382147</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>8.241996776690522</v>
+        <v>7.778213148741581</v>
       </c>
       <c r="F12">
-        <v>32.18530161729721</v>
+        <v>29.46791515169625</v>
       </c>
       <c r="G12">
-        <v>40.16907891909259</v>
+        <v>31.65051989781412</v>
       </c>
       <c r="H12">
-        <v>11.5761749389383</v>
+        <v>4.575927439757577</v>
       </c>
       <c r="I12">
-        <v>17.31140972634062</v>
+        <v>3.243637132549743</v>
       </c>
       <c r="J12">
-        <v>5.076533825912218</v>
+        <v>11.04386535328017</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>17.93761289243088</v>
       </c>
       <c r="L12">
-        <v>8.315021227008081</v>
+        <v>6.622231638368755</v>
       </c>
       <c r="M12">
-        <v>15.76285516814761</v>
+        <v>13.28832518794798</v>
       </c>
       <c r="N12">
-        <v>11.3063473872251</v>
+        <v>7.029298204757499</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>11.50098345270376</v>
+      </c>
+      <c r="P12">
+        <v>13.41834377341381</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>26.51823821089391</v>
+        <v>15.94809190595051</v>
       </c>
       <c r="C13">
-        <v>16.57114799209723</v>
+        <v>8.352922639336366</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>8.242339686745131</v>
+        <v>7.327866970640483</v>
       </c>
       <c r="F13">
-        <v>32.13279222389667</v>
+        <v>28.14315662755773</v>
       </c>
       <c r="G13">
-        <v>40.08100774441645</v>
+        <v>30.28049971523301</v>
       </c>
       <c r="H13">
-        <v>11.56546924042723</v>
+        <v>5.912846005938217</v>
       </c>
       <c r="I13">
-        <v>17.30127832635906</v>
+        <v>3.281782272195493</v>
       </c>
       <c r="J13">
-        <v>5.078072044850859</v>
+        <v>10.80032189085447</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>17.43283795521366</v>
       </c>
       <c r="L13">
-        <v>8.305803099839133</v>
+        <v>6.752867178759379</v>
       </c>
       <c r="M13">
-        <v>15.72924401041467</v>
+        <v>13.15693314637881</v>
       </c>
       <c r="N13">
-        <v>11.32075279803426</v>
+        <v>6.513028801142963</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>10.99704639593359</v>
+      </c>
+      <c r="P13">
+        <v>13.37683732489639</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26.27608550543766</v>
+        <v>15.6186568463962</v>
       </c>
       <c r="C14">
-        <v>16.43514894517236</v>
+        <v>8.402838613017405</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>8.243508320746615</v>
+        <v>7.059080093317117</v>
       </c>
       <c r="F14">
-        <v>31.96188073244221</v>
+        <v>27.14592139639675</v>
       </c>
       <c r="G14">
-        <v>39.79406005365022</v>
+        <v>29.2693211713438</v>
       </c>
       <c r="H14">
-        <v>11.53085624962967</v>
+        <v>6.884282684045995</v>
       </c>
       <c r="I14">
-        <v>17.26884079098407</v>
+        <v>3.332552361383741</v>
       </c>
       <c r="J14">
-        <v>5.083090461348117</v>
+        <v>10.63477422564937</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>17.09188167825268</v>
       </c>
       <c r="L14">
-        <v>8.275762166590603</v>
+        <v>6.840404010854783</v>
       </c>
       <c r="M14">
-        <v>15.61932471829097</v>
+        <v>12.97731883160024</v>
       </c>
       <c r="N14">
-        <v>11.36776363444321</v>
+        <v>6.158341868630481</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>10.59713949193513</v>
+      </c>
+      <c r="P14">
+        <v>13.38175144650282</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.1268699081903</v>
+        <v>15.48479156320423</v>
       </c>
       <c r="C15">
-        <v>16.35142280604273</v>
+        <v>8.397425697923214</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>8.244262510779553</v>
+        <v>6.997502907867815</v>
       </c>
       <c r="F15">
-        <v>31.85744968819902</v>
+        <v>26.86843047549711</v>
       </c>
       <c r="G15">
-        <v>39.6185066463816</v>
+        <v>28.99123762140917</v>
       </c>
       <c r="H15">
-        <v>11.50988466999188</v>
+        <v>7.114101835844163</v>
       </c>
       <c r="I15">
-        <v>17.24943197567079</v>
+        <v>3.359475319260446</v>
       </c>
       <c r="J15">
-        <v>5.086166054290539</v>
+        <v>10.59499586781495</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>17.00943039005366</v>
       </c>
       <c r="L15">
-        <v>8.25737804089462</v>
+        <v>6.856288888617779</v>
       </c>
       <c r="M15">
-        <v>15.55176188228534</v>
+        <v>12.89135106787423</v>
       </c>
       <c r="N15">
-        <v>11.39658431733673</v>
+        <v>6.071720238108937</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>10.47921674908789</v>
+      </c>
+      <c r="P15">
+        <v>13.39559076647036</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.25804415510549</v>
+        <v>15.02846480214574</v>
       </c>
       <c r="C16">
-        <v>15.86510066395177</v>
+        <v>8.181563678855785</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>8.249160298438513</v>
+        <v>6.964640141744203</v>
       </c>
       <c r="F16">
-        <v>31.26299543746558</v>
+        <v>26.65364998719192</v>
       </c>
       <c r="G16">
-        <v>38.61578581530847</v>
+        <v>28.87455321464224</v>
       </c>
       <c r="H16">
-        <v>11.39318195817578</v>
+        <v>6.944503428568775</v>
       </c>
       <c r="I16">
-        <v>17.14512063597421</v>
+        <v>3.468624072688314</v>
       </c>
       <c r="J16">
-        <v>5.103823404350637</v>
+        <v>10.63021872215673</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>17.07430964182952</v>
       </c>
       <c r="L16">
-        <v>8.152299988846547</v>
+        <v>6.776513631044535</v>
       </c>
       <c r="M16">
-        <v>15.16104523859055</v>
+        <v>12.49938258003729</v>
       </c>
       <c r="N16">
-        <v>11.56216483670014</v>
+        <v>6.044743838145907</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>10.30833083709241</v>
+      </c>
+      <c r="P16">
+        <v>13.50856268078241</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>24.71270020129533</v>
+        <v>14.85509117904286</v>
       </c>
       <c r="C17">
-        <v>15.56089740221997</v>
+        <v>7.985355350964689</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>8.252665993095649</v>
+        <v>7.073360275892933</v>
       </c>
       <c r="F17">
-        <v>30.90195102155705</v>
+        <v>27.02783743898203</v>
       </c>
       <c r="G17">
-        <v>38.00370284974604</v>
+        <v>29.32925294484959</v>
       </c>
       <c r="H17">
-        <v>11.3246405015946</v>
+        <v>6.273685112066103</v>
       </c>
       <c r="I17">
-        <v>17.08714498053547</v>
+        <v>3.526175317966879</v>
       </c>
       <c r="J17">
-        <v>5.114691645642979</v>
+        <v>10.74496936441073</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>17.30319766510275</v>
       </c>
       <c r="L17">
-        <v>8.088100742161465</v>
+        <v>6.666480622745626</v>
       </c>
       <c r="M17">
-        <v>14.91824961216075</v>
+        <v>12.29228945188112</v>
       </c>
       <c r="N17">
-        <v>11.66415546624244</v>
+        <v>6.21166896096855</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>10.39531021262053</v>
+      </c>
+      <c r="P17">
+        <v>13.59238369316747</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24.39445849135847</v>
+        <v>14.92314682824928</v>
       </c>
       <c r="C18">
-        <v>15.38375927364335</v>
+        <v>7.778589156276356</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>8.254861672152506</v>
+        <v>7.370556761590673</v>
       </c>
       <c r="F18">
-        <v>30.69565195517798</v>
+        <v>27.96942379792621</v>
       </c>
       <c r="G18">
-        <v>37.65281959323256</v>
+        <v>30.36106758181471</v>
       </c>
       <c r="H18">
-        <v>11.28631862752888</v>
+        <v>5.143162128884179</v>
       </c>
       <c r="I18">
-        <v>17.05594905336411</v>
+        <v>3.534718117011179</v>
       </c>
       <c r="J18">
-        <v>5.120958742528895</v>
+        <v>10.94778427128654</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>17.71835647015432</v>
       </c>
       <c r="L18">
-        <v>8.051279088880372</v>
+        <v>6.52681390176288</v>
       </c>
       <c r="M18">
-        <v>14.77748416366279</v>
+        <v>12.22965532387066</v>
       </c>
       <c r="N18">
-        <v>11.72298352017887</v>
+        <v>6.578988726928368</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>10.71570850096583</v>
+      </c>
+      <c r="P18">
+        <v>13.67060121550396</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.28591828416853</v>
+        <v>15.15183378898635</v>
       </c>
       <c r="C19">
-        <v>15.32340965279901</v>
+        <v>7.604921715155516</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>8.255635445643161</v>
+        <v>7.86573679290698</v>
       </c>
       <c r="F19">
-        <v>30.62603983363251</v>
+        <v>29.25452197567709</v>
       </c>
       <c r="G19">
-        <v>37.53422282754621</v>
+        <v>31.69873273274367</v>
       </c>
       <c r="H19">
-        <v>11.2735307287033</v>
+        <v>3.874558236321866</v>
       </c>
       <c r="I19">
-        <v>17.04575014962243</v>
+        <v>3.518410883719254</v>
       </c>
       <c r="J19">
-        <v>5.123083667171399</v>
+        <v>11.19392594113615</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>18.22964638063033</v>
       </c>
       <c r="L19">
-        <v>8.038830514528064</v>
+        <v>6.394137492720589</v>
       </c>
       <c r="M19">
-        <v>14.72963433281287</v>
+        <v>12.28297269281404</v>
       </c>
       <c r="N19">
-        <v>11.74293146695345</v>
+        <v>7.109375406697173</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>11.19349400920984</v>
+      </c>
+      <c r="P19">
+        <v>13.74735709593357</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>24.77122560612101</v>
+        <v>15.85450384664174</v>
       </c>
       <c r="C20">
-        <v>15.59350447739427</v>
+        <v>7.500242918700144</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>8.25227414367501</v>
+        <v>8.836551789057676</v>
       </c>
       <c r="F20">
-        <v>30.94024431325287</v>
+        <v>31.50023872316584</v>
       </c>
       <c r="G20">
-        <v>38.06874016654074</v>
+        <v>33.9698981378868</v>
       </c>
       <c r="H20">
-        <v>11.33182241244728</v>
+        <v>2.691563929129766</v>
       </c>
       <c r="I20">
-        <v>17.09309268321785</v>
+        <v>3.402070864802474</v>
       </c>
       <c r="J20">
-        <v>5.113533109773169</v>
+        <v>11.57853717903746</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>19.04723925271332</v>
       </c>
       <c r="L20">
-        <v>8.094924265221589</v>
+        <v>6.275628907990637</v>
       </c>
       <c r="M20">
-        <v>14.94421170240754</v>
+        <v>12.66589683563264</v>
       </c>
       <c r="N20">
-        <v>11.65328155013834</v>
+        <v>8.031478948379805</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>12.08301897566348</v>
+      </c>
+      <c r="P20">
+        <v>13.81579183896816</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.34739689895108</v>
+        <v>16.79390727130967</v>
       </c>
       <c r="C21">
-        <v>16.47518316878368</v>
+        <v>7.831517421097982</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>8.243157038660669</v>
+        <v>9.171668232504405</v>
       </c>
       <c r="F21">
-        <v>32.01202811044217</v>
+        <v>32.57290440821309</v>
       </c>
       <c r="G21">
-        <v>39.87829988231616</v>
+        <v>34.90569231684968</v>
       </c>
       <c r="H21">
-        <v>11.54097490686992</v>
+        <v>2.410472319453634</v>
       </c>
       <c r="I21">
-        <v>17.27827226145005</v>
+        <v>3.193509800956593</v>
       </c>
       <c r="J21">
-        <v>5.081616099835031</v>
+        <v>11.65935207559278</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>19.23135538905962</v>
       </c>
       <c r="L21">
-        <v>8.28458245098472</v>
+        <v>6.349503808539884</v>
       </c>
       <c r="M21">
-        <v>15.65165956873483</v>
+        <v>13.41888897577147</v>
       </c>
       <c r="N21">
-        <v>11.35395024766066</v>
+        <v>8.365195566052519</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>12.63216325321397</v>
+      </c>
+      <c r="P21">
+        <v>13.64078646748928</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>27.33757855236695</v>
+        <v>17.37819334624902</v>
       </c>
       <c r="C22">
-        <v>17.03244553130321</v>
+        <v>8.04216413895835</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>8.238902415744032</v>
+        <v>9.340332310195782</v>
       </c>
       <c r="F22">
-        <v>32.72408568201237</v>
+        <v>33.20082677088634</v>
       </c>
       <c r="G22">
-        <v>41.07048588659724</v>
+        <v>35.47754892389282</v>
       </c>
       <c r="H22">
-        <v>11.68790294451779</v>
+        <v>2.24233269994772</v>
       </c>
       <c r="I22">
-        <v>17.41972853440809</v>
+        <v>3.051866441820475</v>
       </c>
       <c r="J22">
-        <v>5.060838630307015</v>
+        <v>11.7075540115792</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>19.34089800055496</v>
       </c>
       <c r="L22">
-        <v>8.409307404791688</v>
+        <v>6.400827329233505</v>
       </c>
       <c r="M22">
-        <v>16.10360249848468</v>
+        <v>13.88692544310578</v>
       </c>
       <c r="N22">
-        <v>11.159486087192</v>
+        <v>8.532313662637401</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>12.94857740045413</v>
+      </c>
+      <c r="P22">
+        <v>13.52443077493658</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>26.81271418498681</v>
+        <v>17.08362840571542</v>
       </c>
       <c r="C23">
-        <v>16.73674034712142</v>
+        <v>7.919728545443311</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>8.241011701746032</v>
+        <v>9.250490509182866</v>
       </c>
       <c r="F23">
-        <v>32.34301037523597</v>
+        <v>32.89258289346976</v>
       </c>
       <c r="G23">
-        <v>40.43335293578093</v>
+        <v>35.22470545408671</v>
       </c>
       <c r="H23">
-        <v>11.60852760088993</v>
+        <v>2.330682742310695</v>
       </c>
       <c r="I23">
-        <v>17.3422995556972</v>
+        <v>3.116069128546694</v>
       </c>
       <c r="J23">
-        <v>5.071923525186981</v>
+        <v>11.69155181767283</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>19.30519585157752</v>
       </c>
       <c r="L23">
-        <v>8.342675704073651</v>
+        <v>6.372231973829308</v>
       </c>
       <c r="M23">
-        <v>15.86336442989087</v>
+        <v>13.64264534259157</v>
       </c>
       <c r="N23">
-        <v>11.26318423469773</v>
+        <v>8.437606991757066</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>12.78227934053223</v>
+      </c>
+      <c r="P23">
+        <v>13.59049137263871</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>24.74478096915962</v>
+        <v>15.89442902425506</v>
       </c>
       <c r="C24">
-        <v>15.57876982303322</v>
+        <v>7.462739127066614</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>8.252450738628262</v>
+        <v>8.903061352133964</v>
       </c>
       <c r="F24">
-        <v>30.92292795298083</v>
+        <v>31.67256205244322</v>
       </c>
       <c r="G24">
-        <v>38.03933363391359</v>
+        <v>34.19226662755365</v>
       </c>
       <c r="H24">
-        <v>11.32857210037599</v>
+        <v>2.674232417661923</v>
       </c>
       <c r="I24">
-        <v>17.09039709094488</v>
+        <v>3.384031180259317</v>
       </c>
       <c r="J24">
-        <v>5.11405682463858</v>
+        <v>11.62117487510453</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>19.14059013938515</v>
       </c>
       <c r="L24">
-        <v>8.091839076603071</v>
+        <v>6.263503335297828</v>
       </c>
       <c r="M24">
-        <v>14.93247790793093</v>
+        <v>12.67071695088998</v>
       </c>
       <c r="N24">
-        <v>11.65819704534636</v>
+        <v>8.081095514774201</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>12.13160906197934</v>
+      </c>
+      <c r="P24">
+        <v>13.83572037783699</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.33888617468864</v>
+        <v>14.50624766015028</v>
       </c>
       <c r="C25">
-        <v>14.24672294216419</v>
+        <v>6.947910337672206</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>8.271596828641901</v>
+        <v>8.513188124002498</v>
       </c>
       <c r="F25">
-        <v>29.44377582705256</v>
+        <v>30.34059949260308</v>
       </c>
       <c r="G25">
-        <v>35.50279366057944</v>
+        <v>33.10393510959845</v>
       </c>
       <c r="H25">
-        <v>11.06843257693768</v>
+        <v>3.060968770041982</v>
       </c>
       <c r="I25">
-        <v>16.90009473770093</v>
+        <v>3.687817996055216</v>
       </c>
       <c r="J25">
-        <v>5.160143352175849</v>
+        <v>11.55874363812199</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>18.98034775444107</v>
       </c>
       <c r="L25">
-        <v>7.825357893780738</v>
+        <v>6.140629444508778</v>
       </c>
       <c r="M25">
-        <v>13.88618541398027</v>
+        <v>11.53420219077169</v>
       </c>
       <c r="N25">
-        <v>12.09077467026549</v>
+        <v>7.682349765891389</v>
       </c>
       <c r="O25">
+        <v>11.39367532738803</v>
+      </c>
+      <c r="P25">
+        <v>14.10417209303943</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_2_3/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_3/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.43882946421209</v>
+        <v>12.928165916517</v>
       </c>
       <c r="C2">
-        <v>6.52050747732774</v>
+        <v>6.460804240219849</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>8.213609829158411</v>
+        <v>8.298046025776413</v>
       </c>
       <c r="F2">
-        <v>29.42311056163301</v>
+        <v>28.50984256731987</v>
       </c>
       <c r="G2">
-        <v>32.46577370342357</v>
+        <v>30.34167375882153</v>
       </c>
       <c r="H2">
-        <v>3.357436196411698</v>
+        <v>3.204134005033306</v>
       </c>
       <c r="I2">
-        <v>3.900353334731946</v>
+        <v>3.687753177931006</v>
       </c>
       <c r="J2">
-        <v>11.54878393108066</v>
+        <v>11.23803129691508</v>
       </c>
       <c r="K2">
-        <v>18.93460206375029</v>
+        <v>17.9082803275164</v>
       </c>
       <c r="L2">
-        <v>6.042478067852569</v>
+        <v>14.14644915577898</v>
       </c>
       <c r="M2">
-        <v>10.63163425660226</v>
+        <v>12.36285664155499</v>
       </c>
       <c r="N2">
-        <v>7.362162251204538</v>
+        <v>5.979804454865561</v>
       </c>
       <c r="O2">
-        <v>10.82697647570626</v>
+        <v>10.60575559819759</v>
       </c>
       <c r="P2">
-        <v>14.31658146413103</v>
+        <v>7.683370437562485</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>10.75666446896973</v>
+      </c>
+      <c r="R2">
+        <v>14.00322299363556</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.6367108502925</v>
+        <v>12.16245370474991</v>
       </c>
       <c r="C3">
-        <v>6.235043548938463</v>
+        <v>6.117348130127387</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>8.003813355638991</v>
+        <v>8.098288170906413</v>
       </c>
       <c r="F3">
-        <v>28.75973510665077</v>
+        <v>27.92082582610613</v>
       </c>
       <c r="G3">
-        <v>31.97070211444997</v>
+        <v>30.03867270887914</v>
       </c>
       <c r="H3">
-        <v>3.569503007202504</v>
+        <v>3.401581600534652</v>
       </c>
       <c r="I3">
-        <v>4.065835520796711</v>
+        <v>3.833383982592391</v>
       </c>
       <c r="J3">
-        <v>11.53408563797376</v>
+        <v>11.20470366626579</v>
       </c>
       <c r="K3">
-        <v>18.87866176540043</v>
+        <v>17.90414590782564</v>
       </c>
       <c r="L3">
-        <v>5.97469365251237</v>
+        <v>14.22959363822041</v>
       </c>
       <c r="M3">
-        <v>9.966224583530456</v>
+        <v>12.30382512900439</v>
       </c>
       <c r="N3">
-        <v>7.148242372266478</v>
+        <v>5.89932191669718</v>
       </c>
       <c r="O3">
-        <v>10.42462136660803</v>
+        <v>9.960674028104444</v>
       </c>
       <c r="P3">
-        <v>14.45722215544981</v>
+        <v>7.46130416418184</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>10.35671833129056</v>
+      </c>
+      <c r="R3">
+        <v>14.14339771737176</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.11682265503964</v>
+        <v>11.66470481462812</v>
       </c>
       <c r="C4">
-        <v>6.054502125948964</v>
+        <v>5.899409541135478</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>7.871765137285172</v>
+        <v>7.972819693451235</v>
       </c>
       <c r="F4">
-        <v>28.35134980156849</v>
+        <v>27.55804530054924</v>
       </c>
       <c r="G4">
-        <v>31.67230441949384</v>
+        <v>29.86085312726054</v>
       </c>
       <c r="H4">
-        <v>3.704581841771492</v>
+        <v>3.527421549063888</v>
       </c>
       <c r="I4">
-        <v>4.171813389391843</v>
+        <v>3.926962900191853</v>
       </c>
       <c r="J4">
-        <v>11.5276501741923</v>
+        <v>11.18470902175861</v>
       </c>
       <c r="K4">
-        <v>18.8472079268097</v>
+        <v>17.9034045179104</v>
       </c>
       <c r="L4">
-        <v>5.931641599431422</v>
+        <v>14.27951726819525</v>
       </c>
       <c r="M4">
-        <v>9.533795960367573</v>
+        <v>12.28372410037912</v>
       </c>
       <c r="N4">
-        <v>7.014697888577238</v>
+        <v>5.848494690793812</v>
       </c>
       <c r="O4">
-        <v>10.17051579544979</v>
+        <v>9.541581637775327</v>
       </c>
       <c r="P4">
-        <v>14.54478247458312</v>
+        <v>7.323131553363446</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>10.10386438988544</v>
+      </c>
+      <c r="R4">
+        <v>14.23075100372666</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.89295143571223</v>
+        <v>11.44981940364478</v>
       </c>
       <c r="C5">
-        <v>5.982897478060007</v>
+        <v>5.812706542760993</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>7.817214187107739</v>
+        <v>7.921069889072019</v>
       </c>
       <c r="F5">
-        <v>28.17702160130777</v>
+        <v>27.40244262541394</v>
       </c>
       <c r="G5">
-        <v>31.53710546718764</v>
+        <v>29.77594816348393</v>
       </c>
       <c r="H5">
-        <v>3.761208696658995</v>
+        <v>3.58019721053204</v>
       </c>
       <c r="I5">
-        <v>4.218565934984761</v>
+        <v>3.969008510160541</v>
       </c>
       <c r="J5">
-        <v>11.52299917248562</v>
+        <v>11.17401485030043</v>
       </c>
       <c r="K5">
-        <v>18.8289268527884</v>
+        <v>17.89767745226897</v>
       </c>
       <c r="L5">
-        <v>5.913998334805205</v>
+        <v>14.29411828614084</v>
       </c>
       <c r="M5">
-        <v>9.350312318187511</v>
+        <v>12.27619426025512</v>
       </c>
       <c r="N5">
-        <v>6.96153476171459</v>
+        <v>5.827762631949034</v>
       </c>
       <c r="O5">
-        <v>10.06479414588902</v>
+        <v>9.36380293206909</v>
       </c>
       <c r="P5">
-        <v>14.57955409027348</v>
+        <v>7.268139839855152</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>9.998602750335671</v>
+      </c>
+      <c r="R5">
+        <v>14.26565489009275</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.84897064114176</v>
+        <v>11.40739334987284</v>
       </c>
       <c r="C6">
-        <v>5.974949225785775</v>
+        <v>5.802921086964633</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>7.8081553361687</v>
+        <v>7.912499993103861</v>
       </c>
       <c r="F6">
-        <v>28.13849905431818</v>
+        <v>27.36726322160455</v>
       </c>
       <c r="G6">
-        <v>31.49631833135866</v>
+        <v>29.74427521645779</v>
       </c>
       <c r="H6">
-        <v>3.771102580205053</v>
+        <v>3.589425151175192</v>
       </c>
       <c r="I6">
-        <v>4.229529803594901</v>
+        <v>3.979715937034343</v>
       </c>
       <c r="J6">
-        <v>11.51900453805072</v>
+        <v>11.16899038955181</v>
       </c>
       <c r="K6">
-        <v>18.81838032803269</v>
+        <v>17.88958871867235</v>
       </c>
       <c r="L6">
-        <v>5.911369213075377</v>
+        <v>14.28986280883824</v>
       </c>
       <c r="M6">
-        <v>9.317928547424318</v>
+        <v>12.27101057858007</v>
       </c>
       <c r="N6">
-        <v>6.954825810286941</v>
+        <v>5.824709020778567</v>
       </c>
       <c r="O6">
-        <v>10.04649931674112</v>
+        <v>9.332434952896133</v>
       </c>
       <c r="P6">
-        <v>14.58385436960955</v>
+        <v>7.261077498154441</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>9.980391548750447</v>
+      </c>
+      <c r="R6">
+        <v>14.27022108035665</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.09672041330182</v>
+        <v>11.64083241851271</v>
       </c>
       <c r="C7">
-        <v>6.064373854457648</v>
+        <v>5.902052768467388</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>7.871158598376249</v>
+        <v>7.976796780432741</v>
       </c>
       <c r="F7">
-        <v>28.32306590229958</v>
+        <v>27.51795047774643</v>
       </c>
       <c r="G7">
-        <v>31.62042716528801</v>
+        <v>29.87237841147187</v>
       </c>
       <c r="H7">
-        <v>3.706457409102839</v>
+        <v>3.529736810705739</v>
       </c>
       <c r="I7">
-        <v>4.180735086387494</v>
+        <v>3.937831661367954</v>
       </c>
       <c r="J7">
-        <v>11.51870427340553</v>
+        <v>11.13697920271777</v>
       </c>
       <c r="K7">
-        <v>18.82638058377707</v>
+        <v>17.87492778766968</v>
       </c>
       <c r="L7">
-        <v>5.932305589245779</v>
+        <v>14.25379391260229</v>
       </c>
       <c r="M7">
-        <v>9.527190881173251</v>
+        <v>12.26647436966846</v>
       </c>
       <c r="N7">
-        <v>7.019788474398752</v>
+        <v>5.849956690086118</v>
       </c>
       <c r="O7">
-        <v>10.16735456349378</v>
+        <v>9.528400815830199</v>
       </c>
       <c r="P7">
-        <v>14.54122491982588</v>
+        <v>7.329433431381058</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>10.10037069687184</v>
+      </c>
+      <c r="R7">
+        <v>14.22615625622102</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.1469410843524</v>
+        <v>12.63652544567871</v>
       </c>
       <c r="C8">
-        <v>6.436878533260843</v>
+        <v>6.331902842664904</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>8.142141798621287</v>
+        <v>8.244652098086247</v>
       </c>
       <c r="F8">
-        <v>29.16144291613941</v>
+        <v>28.23374743994214</v>
       </c>
       <c r="G8">
-        <v>32.2291471653764</v>
+        <v>30.37354827034882</v>
       </c>
       <c r="H8">
-        <v>3.430955180127744</v>
+        <v>3.274290481223601</v>
       </c>
       <c r="I8">
-        <v>3.967041655883409</v>
+        <v>3.75133258697195</v>
       </c>
       <c r="J8">
-        <v>11.53153598147209</v>
+        <v>11.08867247400346</v>
       </c>
       <c r="K8">
-        <v>18.88775150967824</v>
+        <v>17.85197294963686</v>
       </c>
       <c r="L8">
-        <v>6.02068099821524</v>
+        <v>14.12857825066299</v>
       </c>
       <c r="M8">
-        <v>10.40204396347823</v>
+        <v>12.30292758443933</v>
       </c>
       <c r="N8">
-        <v>7.29631315149816</v>
+        <v>5.956084563696295</v>
       </c>
       <c r="O8">
-        <v>10.68756197618536</v>
+        <v>10.36223291346593</v>
       </c>
       <c r="P8">
-        <v>14.35973412780277</v>
+        <v>7.618942720557281</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>10.61697168687151</v>
+      </c>
+      <c r="R8">
+        <v>14.04192168124623</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.0133061370487</v>
+        <v>14.41019305820533</v>
       </c>
       <c r="C9">
-        <v>7.107081468792344</v>
+        <v>7.129360797261977</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>8.64621112855812</v>
+        <v>8.729059902743492</v>
       </c>
       <c r="F9">
-        <v>30.83354674771154</v>
+        <v>29.71243943312464</v>
       </c>
       <c r="G9">
-        <v>33.55120322610845</v>
+        <v>31.28205270192202</v>
       </c>
       <c r="H9">
-        <v>2.926723921993261</v>
+        <v>2.805516228773149</v>
       </c>
       <c r="I9">
-        <v>3.568549980683228</v>
+        <v>3.400117340116643</v>
       </c>
       <c r="J9">
-        <v>11.59353928434935</v>
+        <v>11.15193524169328</v>
       </c>
       <c r="K9">
-        <v>19.06795025843242</v>
+        <v>17.88850434505192</v>
       </c>
       <c r="L9">
-        <v>6.180874409289292</v>
+        <v>13.93240271189999</v>
       </c>
       <c r="M9">
-        <v>11.93506641583829</v>
+        <v>12.54431682398398</v>
       </c>
       <c r="N9">
-        <v>7.808968689879298</v>
+        <v>6.148467211467035</v>
       </c>
       <c r="O9">
-        <v>11.64965771911062</v>
+        <v>11.84589780014308</v>
       </c>
       <c r="P9">
-        <v>14.01962974526834</v>
+        <v>8.154692551989269</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>11.57156270128991</v>
+      </c>
+      <c r="R9">
+        <v>13.70194712265495</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.20114795305836</v>
+        <v>15.51849588984619</v>
       </c>
       <c r="C10">
-        <v>7.597261233803524</v>
+        <v>7.660551564375847</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>8.908025749504048</v>
+        <v>9.001506112251656</v>
       </c>
       <c r="F10">
-        <v>31.84482001376047</v>
+        <v>30.53093071827367</v>
       </c>
       <c r="G10">
-        <v>34.32694007973848</v>
+        <v>32.13636320173767</v>
       </c>
       <c r="H10">
-        <v>2.605985195640656</v>
+        <v>2.511955881153024</v>
       </c>
       <c r="I10">
-        <v>3.306490692395672</v>
+        <v>3.17500519050815</v>
       </c>
       <c r="J10">
-        <v>11.61274192031899</v>
+        <v>10.9560667530592</v>
       </c>
       <c r="K10">
-        <v>19.1292452959794</v>
+        <v>17.80326845786905</v>
       </c>
       <c r="L10">
-        <v>6.30341442369421</v>
+        <v>13.69188534137022</v>
       </c>
       <c r="M10">
-        <v>12.93060462838766</v>
+        <v>12.70055952810811</v>
       </c>
       <c r="N10">
-        <v>8.092992193517826</v>
+        <v>6.30119614644231</v>
       </c>
       <c r="O10">
-        <v>12.24423294302023</v>
+        <v>12.77973765972381</v>
       </c>
       <c r="P10">
-        <v>13.75904161786878</v>
+        <v>8.461071959969251</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>12.15828159163522</v>
+      </c>
+      <c r="R10">
+        <v>13.44028485494019</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.35724505175259</v>
+        <v>15.6576391538661</v>
       </c>
       <c r="C11">
-        <v>7.9964075955073</v>
+        <v>7.990482305973259</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>8.289062570930673</v>
+        <v>8.41360925359848</v>
       </c>
       <c r="F11">
-        <v>30.66101508030881</v>
+        <v>29.25126617551142</v>
       </c>
       <c r="G11">
-        <v>32.93641197652752</v>
+        <v>31.55491707256013</v>
       </c>
       <c r="H11">
-        <v>3.361393078363541</v>
+        <v>3.29745304450355</v>
       </c>
       <c r="I11">
-        <v>3.252875016119689</v>
+        <v>3.138975971295439</v>
       </c>
       <c r="J11">
-        <v>11.30067760727232</v>
+        <v>10.28353346456211</v>
       </c>
       <c r="K11">
-        <v>18.47280198638483</v>
+        <v>17.11203484439794</v>
       </c>
       <c r="L11">
-        <v>6.47728010910138</v>
+        <v>13.10894302707042</v>
       </c>
       <c r="M11">
-        <v>13.2318448543208</v>
+        <v>12.26189173329316</v>
       </c>
       <c r="N11">
-        <v>7.545119556345728</v>
+        <v>6.518184469266168</v>
       </c>
       <c r="O11">
-        <v>11.91080783043949</v>
+        <v>13.01595323903801</v>
       </c>
       <c r="P11">
-        <v>13.5325011353437</v>
+        <v>7.910011664911397</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>11.82295124324041</v>
+      </c>
+      <c r="R11">
+        <v>13.25514052343346</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.26335750461865</v>
+        <v>15.57754403280061</v>
       </c>
       <c r="C12">
-        <v>8.224502426382147</v>
+        <v>8.170611448861594</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>7.778213148741581</v>
+        <v>7.902336301016086</v>
       </c>
       <c r="F12">
-        <v>29.46791515169625</v>
+        <v>28.05984731081675</v>
       </c>
       <c r="G12">
-        <v>31.65051989781412</v>
+        <v>30.71608840279867</v>
       </c>
       <c r="H12">
-        <v>4.575927439757577</v>
+        <v>4.529936530248402</v>
       </c>
       <c r="I12">
-        <v>3.243637132549743</v>
+        <v>3.132848520148954</v>
       </c>
       <c r="J12">
-        <v>11.04386535328017</v>
+        <v>9.922201241279465</v>
       </c>
       <c r="K12">
-        <v>17.93761289243088</v>
+        <v>16.61235609371564</v>
       </c>
       <c r="L12">
-        <v>6.622231638368755</v>
+        <v>12.72691068768892</v>
       </c>
       <c r="M12">
-        <v>13.28832518794798</v>
+        <v>11.89739463420711</v>
       </c>
       <c r="N12">
-        <v>7.029298204757499</v>
+        <v>6.689353698155473</v>
       </c>
       <c r="O12">
-        <v>11.50098345270376</v>
+        <v>13.04839131513311</v>
       </c>
       <c r="P12">
-        <v>13.41834377341381</v>
+        <v>7.380097494465812</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>11.41452785119412</v>
+      </c>
+      <c r="R12">
+        <v>13.18138868479695</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.94809190595051</v>
+        <v>15.3096958732431</v>
       </c>
       <c r="C13">
-        <v>8.352922639336366</v>
+        <v>8.287137318699751</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>7.327866970640483</v>
+        <v>7.426446329558678</v>
       </c>
       <c r="F13">
-        <v>28.14315662755773</v>
+        <v>26.83961638402317</v>
       </c>
       <c r="G13">
-        <v>30.28049971523301</v>
+        <v>29.39577735605873</v>
       </c>
       <c r="H13">
-        <v>5.912846005938217</v>
+        <v>5.874280680203679</v>
       </c>
       <c r="I13">
-        <v>3.281782272195493</v>
+        <v>3.16468180913408</v>
       </c>
       <c r="J13">
-        <v>10.80032189085447</v>
+        <v>9.797048338507269</v>
       </c>
       <c r="K13">
-        <v>17.43283795521366</v>
+        <v>16.21618572005438</v>
       </c>
       <c r="L13">
-        <v>6.752867178759379</v>
+        <v>12.45303159072821</v>
       </c>
       <c r="M13">
-        <v>13.15693314637881</v>
+        <v>11.56474973581648</v>
       </c>
       <c r="N13">
-        <v>6.513028801142963</v>
+        <v>6.829141187211681</v>
       </c>
       <c r="O13">
-        <v>10.99704639593359</v>
+        <v>12.935777367527</v>
       </c>
       <c r="P13">
-        <v>13.37683732489639</v>
+        <v>6.838338042556481</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>10.91534600873289</v>
+      </c>
+      <c r="R13">
+        <v>13.17743217762202</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.6186568463962</v>
+        <v>15.02903176589001</v>
       </c>
       <c r="C14">
-        <v>8.402838613017405</v>
+        <v>8.345621133864942</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>7.059080093317117</v>
+        <v>7.134487611789366</v>
       </c>
       <c r="F14">
-        <v>27.14592139639675</v>
+        <v>25.95995411890627</v>
       </c>
       <c r="G14">
-        <v>29.2693211713438</v>
+        <v>28.25404083683745</v>
       </c>
       <c r="H14">
-        <v>6.884282684045995</v>
+        <v>6.847886335428361</v>
       </c>
       <c r="I14">
-        <v>3.332552361383741</v>
+        <v>3.20734194174809</v>
       </c>
       <c r="J14">
-        <v>10.63477422564937</v>
+        <v>9.797708371304973</v>
       </c>
       <c r="K14">
-        <v>17.09188167825268</v>
+        <v>15.97972864034195</v>
       </c>
       <c r="L14">
-        <v>6.840404010854783</v>
+        <v>12.3013867403987</v>
       </c>
       <c r="M14">
-        <v>12.97731883160024</v>
+        <v>11.34543497186555</v>
       </c>
       <c r="N14">
-        <v>6.158341868630481</v>
+        <v>6.913916489874164</v>
       </c>
       <c r="O14">
-        <v>10.59713949193513</v>
+        <v>12.78846141831083</v>
       </c>
       <c r="P14">
-        <v>13.38175144650282</v>
+        <v>6.461447462168142</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>10.52012998751642</v>
+      </c>
+      <c r="R14">
+        <v>13.20393382336845</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.48479156320423</v>
+        <v>14.91380659713379</v>
       </c>
       <c r="C15">
-        <v>8.397425697923214</v>
+        <v>8.350005903017186</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>6.997502907867815</v>
+        <v>7.066397892824483</v>
       </c>
       <c r="F15">
-        <v>26.86843047549711</v>
+        <v>25.73008007953829</v>
       </c>
       <c r="G15">
-        <v>28.99123762140917</v>
+        <v>27.87683461557091</v>
       </c>
       <c r="H15">
-        <v>7.114101835844163</v>
+        <v>7.077344575382785</v>
       </c>
       <c r="I15">
-        <v>3.359475319260446</v>
+        <v>3.231005345412818</v>
       </c>
       <c r="J15">
-        <v>10.59499586781495</v>
+        <v>9.834218319431175</v>
       </c>
       <c r="K15">
-        <v>17.00943039005366</v>
+        <v>15.93504737569301</v>
       </c>
       <c r="L15">
-        <v>6.856288888617779</v>
+        <v>12.27782205937683</v>
       </c>
       <c r="M15">
-        <v>12.89135106787423</v>
+        <v>11.29442003420684</v>
       </c>
       <c r="N15">
-        <v>6.071720238108937</v>
+        <v>6.92555009962839</v>
       </c>
       <c r="O15">
-        <v>10.47921674908789</v>
+        <v>12.71872554982911</v>
       </c>
       <c r="P15">
-        <v>13.39559076647036</v>
+        <v>6.368004836133659</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>10.40393991516661</v>
+      </c>
+      <c r="R15">
+        <v>13.22145932315864</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.02846480214574</v>
+        <v>14.51337837864888</v>
       </c>
       <c r="C16">
-        <v>8.181563678855785</v>
+        <v>8.193287758853778</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>6.964640141744203</v>
+        <v>7.024401199456556</v>
       </c>
       <c r="F16">
-        <v>26.65364998719192</v>
+        <v>25.67272328557309</v>
       </c>
       <c r="G16">
-        <v>28.87455321464224</v>
+        <v>27.22020703476711</v>
       </c>
       <c r="H16">
-        <v>6.944503428568775</v>
+        <v>6.899240641739089</v>
       </c>
       <c r="I16">
-        <v>3.468624072688314</v>
+        <v>3.322456650282549</v>
       </c>
       <c r="J16">
-        <v>10.63021872215673</v>
+        <v>10.17920419259565</v>
       </c>
       <c r="K16">
-        <v>17.07430964182952</v>
+        <v>16.10018168776548</v>
       </c>
       <c r="L16">
-        <v>6.776513631044535</v>
+        <v>12.43863425291535</v>
       </c>
       <c r="M16">
-        <v>12.49938258003729</v>
+        <v>11.35199677140396</v>
       </c>
       <c r="N16">
-        <v>6.044743838145907</v>
+        <v>6.81665410505004</v>
       </c>
       <c r="O16">
-        <v>10.30833083709241</v>
+        <v>12.39694028897569</v>
       </c>
       <c r="P16">
-        <v>13.50856268078241</v>
+        <v>6.330058488821259</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>10.23800049628812</v>
+      </c>
+      <c r="R16">
+        <v>13.32135168988639</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.85509117904286</v>
+        <v>14.3511754346574</v>
       </c>
       <c r="C17">
-        <v>7.985355350964689</v>
+        <v>8.024450786117434</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>7.073360275892933</v>
+        <v>7.133417964663648</v>
       </c>
       <c r="F17">
-        <v>27.02783743898203</v>
+        <v>26.08993772904465</v>
       </c>
       <c r="G17">
-        <v>29.32925294484959</v>
+        <v>27.41185477403112</v>
       </c>
       <c r="H17">
-        <v>6.273685112066103</v>
+        <v>6.219138310619353</v>
       </c>
       <c r="I17">
-        <v>3.526175317966879</v>
+        <v>3.371499968345643</v>
       </c>
       <c r="J17">
-        <v>10.74496936441073</v>
+        <v>10.41825759898021</v>
       </c>
       <c r="K17">
-        <v>17.30319766510275</v>
+        <v>16.34392884109981</v>
       </c>
       <c r="L17">
-        <v>6.666480622745626</v>
+        <v>12.64460680535983</v>
       </c>
       <c r="M17">
-        <v>12.29228945188112</v>
+        <v>11.50123175228418</v>
       </c>
       <c r="N17">
-        <v>6.21166896096855</v>
+        <v>6.689758547447298</v>
       </c>
       <c r="O17">
-        <v>10.39531021262053</v>
+        <v>12.21826002874244</v>
       </c>
       <c r="P17">
-        <v>13.59238369316747</v>
+        <v>6.500570610921848</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>10.32590738396742</v>
+      </c>
+      <c r="R17">
+        <v>13.38811363143933</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.92314682824928</v>
+        <v>14.39981399248392</v>
       </c>
       <c r="C18">
-        <v>7.778589156276356</v>
+        <v>7.834932779340482</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>7.370556761590673</v>
+        <v>7.432387806946185</v>
       </c>
       <c r="F18">
-        <v>27.96942379792621</v>
+        <v>27.00489282903313</v>
       </c>
       <c r="G18">
-        <v>30.36106758181471</v>
+        <v>28.24799671492416</v>
       </c>
       <c r="H18">
-        <v>5.143162128884179</v>
+        <v>5.075242332604408</v>
       </c>
       <c r="I18">
-        <v>3.534718117011179</v>
+        <v>3.376180976280414</v>
       </c>
       <c r="J18">
-        <v>10.94778427128654</v>
+        <v>10.65548523880528</v>
       </c>
       <c r="K18">
-        <v>17.71835647015432</v>
+        <v>16.71814217998175</v>
       </c>
       <c r="L18">
-        <v>6.52681390176288</v>
+        <v>12.94245254220188</v>
       </c>
       <c r="M18">
-        <v>12.22965532387066</v>
+        <v>11.76675766123349</v>
       </c>
       <c r="N18">
-        <v>6.578988726928368</v>
+        <v>6.537487568306028</v>
       </c>
       <c r="O18">
-        <v>10.71570850096583</v>
+        <v>12.16187761014785</v>
       </c>
       <c r="P18">
-        <v>13.67060121550396</v>
+        <v>6.881186630686306</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>10.64466118155434</v>
+      </c>
+      <c r="R18">
+        <v>13.44186759749732</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.15183378898635</v>
+        <v>14.59006407291263</v>
       </c>
       <c r="C19">
-        <v>7.604921715155516</v>
+        <v>7.676404822867353</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>7.86573679290698</v>
+        <v>7.929510492594123</v>
       </c>
       <c r="F19">
-        <v>29.25452197567709</v>
+        <v>28.22034496086521</v>
       </c>
       <c r="G19">
-        <v>31.69873273274367</v>
+        <v>29.4087459494846</v>
       </c>
       <c r="H19">
-        <v>3.874558236321866</v>
+        <v>3.787408626909971</v>
       </c>
       <c r="I19">
-        <v>3.518410883719254</v>
+        <v>3.363330548802681</v>
       </c>
       <c r="J19">
-        <v>11.19392594113615</v>
+        <v>10.88707368600156</v>
       </c>
       <c r="K19">
-        <v>18.22964638063033</v>
+        <v>17.15427827470505</v>
       </c>
       <c r="L19">
-        <v>6.394137492720589</v>
+        <v>13.2806023746203</v>
       </c>
       <c r="M19">
-        <v>12.28297269281404</v>
+        <v>12.09263177074108</v>
       </c>
       <c r="N19">
-        <v>7.109375406697173</v>
+        <v>6.393476274914245</v>
       </c>
       <c r="O19">
-        <v>11.19349400920984</v>
+        <v>12.20817370752381</v>
       </c>
       <c r="P19">
-        <v>13.74735709593357</v>
+        <v>7.430475023224002</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>11.11914779623146</v>
+      </c>
+      <c r="R19">
+        <v>13.48882997210838</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.85450384664174</v>
+        <v>15.20511482342432</v>
       </c>
       <c r="C20">
-        <v>7.500242918700144</v>
+        <v>7.583642145929279</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>8.836551789057676</v>
+        <v>8.912644230597264</v>
       </c>
       <c r="F20">
-        <v>31.50023872316584</v>
+        <v>30.27968880539062</v>
       </c>
       <c r="G20">
-        <v>33.9698981378868</v>
+        <v>31.55320941989148</v>
       </c>
       <c r="H20">
-        <v>2.691563929129766</v>
+        <v>2.588651059997636</v>
       </c>
       <c r="I20">
-        <v>3.402070864802474</v>
+        <v>3.264217901279355</v>
       </c>
       <c r="J20">
-        <v>11.57853717903746</v>
+        <v>11.11039501802441</v>
       </c>
       <c r="K20">
-        <v>19.04723925271332</v>
+        <v>17.79536585383874</v>
       </c>
       <c r="L20">
-        <v>6.275628907990637</v>
+        <v>13.73220487201861</v>
       </c>
       <c r="M20">
-        <v>12.66589683563264</v>
+        <v>12.63275862149595</v>
       </c>
       <c r="N20">
-        <v>8.031478948379805</v>
+        <v>6.263858352463634</v>
       </c>
       <c r="O20">
-        <v>12.08301897566348</v>
+        <v>12.55023735685399</v>
       </c>
       <c r="P20">
-        <v>13.81579183896816</v>
+        <v>8.388892175048259</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>12.00051635024302</v>
+      </c>
+      <c r="R20">
+        <v>13.50508480742677</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.79390727130967</v>
+        <v>16.01675962310085</v>
       </c>
       <c r="C21">
-        <v>7.831517421097982</v>
+        <v>7.812386433846612</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>9.171668232504405</v>
+        <v>9.33625185271522</v>
       </c>
       <c r="F21">
-        <v>32.57290440821309</v>
+        <v>30.97755657984841</v>
       </c>
       <c r="G21">
-        <v>34.90569231684968</v>
+        <v>33.63657145344066</v>
       </c>
       <c r="H21">
-        <v>2.410472319453634</v>
+        <v>2.336235078132522</v>
       </c>
       <c r="I21">
-        <v>3.193509800956593</v>
+        <v>3.092575261547534</v>
       </c>
       <c r="J21">
-        <v>11.65935207559278</v>
+        <v>10.37445503220638</v>
       </c>
       <c r="K21">
-        <v>19.23135538905962</v>
+        <v>17.68610225205068</v>
       </c>
       <c r="L21">
-        <v>6.349503808539884</v>
+        <v>13.51847283168973</v>
       </c>
       <c r="M21">
-        <v>13.41888897577147</v>
+        <v>12.73153313505121</v>
       </c>
       <c r="N21">
-        <v>8.365195566052519</v>
+        <v>6.37125599534364</v>
       </c>
       <c r="O21">
-        <v>12.63216325321397</v>
+        <v>13.15863119202022</v>
       </c>
       <c r="P21">
-        <v>13.64078646748928</v>
+        <v>8.767468090220355</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>12.53614543570583</v>
+      </c>
+      <c r="R21">
+        <v>13.29808522290866</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.37819334624902</v>
+        <v>16.51841479307166</v>
       </c>
       <c r="C22">
-        <v>8.04216413895835</v>
+        <v>7.950404994975445</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>9.340332310195782</v>
+        <v>9.569747099401695</v>
       </c>
       <c r="F22">
-        <v>33.20082677088634</v>
+        <v>31.35339855632177</v>
       </c>
       <c r="G22">
-        <v>35.47754892389282</v>
+        <v>35.07500363352884</v>
       </c>
       <c r="H22">
-        <v>2.24233269994772</v>
+        <v>2.18642305954249</v>
       </c>
       <c r="I22">
-        <v>3.051866441820475</v>
+        <v>2.972251680886648</v>
       </c>
       <c r="J22">
-        <v>11.7075540115792</v>
+        <v>9.894609014503647</v>
       </c>
       <c r="K22">
-        <v>19.34089800055496</v>
+        <v>17.59370276641874</v>
       </c>
       <c r="L22">
-        <v>6.400827329233505</v>
+        <v>13.36523353018106</v>
       </c>
       <c r="M22">
-        <v>13.88692544310578</v>
+        <v>12.78683972272711</v>
       </c>
       <c r="N22">
-        <v>8.532313662637401</v>
+        <v>6.446794150378619</v>
       </c>
       <c r="O22">
-        <v>12.94857740045413</v>
+        <v>13.53043982852455</v>
       </c>
       <c r="P22">
-        <v>13.52443077493658</v>
+        <v>8.964305234738521</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>12.84336593786719</v>
+      </c>
+      <c r="R22">
+        <v>13.16177429935844</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.08362840571542</v>
+        <v>16.2755226148514</v>
       </c>
       <c r="C23">
-        <v>7.919728545443311</v>
+        <v>7.882817167446212</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>9.250490509182866</v>
+        <v>9.433841933247912</v>
       </c>
       <c r="F23">
-        <v>32.89258289346976</v>
+        <v>31.20788773658752</v>
       </c>
       <c r="G23">
-        <v>35.22470545408671</v>
+        <v>34.19850665315828</v>
       </c>
       <c r="H23">
-        <v>2.330682742310695</v>
+        <v>2.264178678399044</v>
       </c>
       <c r="I23">
-        <v>3.116069128546694</v>
+        <v>3.022085320964618</v>
       </c>
       <c r="J23">
-        <v>11.69155181767283</v>
+        <v>10.23265583702938</v>
       </c>
       <c r="K23">
-        <v>19.30519585157752</v>
+        <v>17.6861969220799</v>
       </c>
       <c r="L23">
-        <v>6.372231973829308</v>
+        <v>13.47747812067514</v>
       </c>
       <c r="M23">
-        <v>13.64264534259157</v>
+        <v>12.79155876648931</v>
       </c>
       <c r="N23">
-        <v>8.437606991757066</v>
+        <v>6.402767581196136</v>
       </c>
       <c r="O23">
-        <v>12.78227934053223</v>
+        <v>13.350222076646</v>
       </c>
       <c r="P23">
-        <v>13.59049137263871</v>
+        <v>8.850536338393569</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>12.68282662069026</v>
+      </c>
+      <c r="R23">
+        <v>13.2398199940018</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.89442902425506</v>
+        <v>15.24149637577376</v>
       </c>
       <c r="C24">
-        <v>7.462739127066614</v>
+        <v>7.545079315166311</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>8.903061352133964</v>
+        <v>8.978761537863758</v>
       </c>
       <c r="F24">
-        <v>31.67256205244322</v>
+        <v>30.44582380935355</v>
       </c>
       <c r="G24">
-        <v>34.19226662755365</v>
+        <v>31.74757467648575</v>
       </c>
       <c r="H24">
-        <v>2.674232417661923</v>
+        <v>2.571312864096991</v>
       </c>
       <c r="I24">
-        <v>3.384031180259317</v>
+        <v>3.243118581511804</v>
       </c>
       <c r="J24">
-        <v>11.62117487510453</v>
+        <v>11.15531400379827</v>
       </c>
       <c r="K24">
-        <v>19.14059013938515</v>
+        <v>17.87954418724708</v>
       </c>
       <c r="L24">
-        <v>6.263503335297828</v>
+        <v>13.79802959362186</v>
       </c>
       <c r="M24">
-        <v>12.67071695088998</v>
+        <v>12.6947774186644</v>
       </c>
       <c r="N24">
-        <v>8.081095514774201</v>
+        <v>6.249045171652224</v>
       </c>
       <c r="O24">
-        <v>12.13160906197934</v>
+        <v>12.555062716211</v>
       </c>
       <c r="P24">
-        <v>13.83572037783699</v>
+        <v>8.440290316795799</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>12.04875976256708</v>
+      </c>
+      <c r="R24">
+        <v>13.51944105975245</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.50624766015028</v>
+        <v>13.93350946655926</v>
       </c>
       <c r="C25">
-        <v>6.947910337672206</v>
+        <v>6.951353521869577</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>8.513188124002498</v>
+        <v>8.595037084867753</v>
       </c>
       <c r="F25">
-        <v>30.34059949260308</v>
+        <v>29.28949234896116</v>
       </c>
       <c r="G25">
-        <v>33.10393510959845</v>
+        <v>30.86188712993864</v>
       </c>
       <c r="H25">
-        <v>3.060968770041982</v>
+        <v>2.929573722119432</v>
       </c>
       <c r="I25">
-        <v>3.687817996055216</v>
+        <v>3.508632236408138</v>
       </c>
       <c r="J25">
-        <v>11.55874363812199</v>
+        <v>11.17266966958341</v>
       </c>
       <c r="K25">
-        <v>18.98034775444107</v>
+        <v>17.85542006173433</v>
       </c>
       <c r="L25">
-        <v>6.140629444508778</v>
+        <v>13.96931937524835</v>
       </c>
       <c r="M25">
-        <v>11.53420219077169</v>
+        <v>12.44995046435771</v>
       </c>
       <c r="N25">
-        <v>7.682349765891389</v>
+        <v>6.099085237107088</v>
       </c>
       <c r="O25">
-        <v>11.39367532738803</v>
+        <v>11.46617445815838</v>
       </c>
       <c r="P25">
-        <v>14.10417209303943</v>
+        <v>8.01960162218481</v>
       </c>
       <c r="Q25">
+        <v>11.3183415172958</v>
+      </c>
+      <c r="R25">
+        <v>13.79006851150412</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
